--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1401.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1401.xlsx
@@ -9325,22 +9325,22 @@
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03627860966500118</v>
+        <v>0.09549120000000003</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007205408570107086</v>
+        <v>0.002008833296842105</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.06498280405044554</v>
+        <v>0.1554912</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007454989206037837</v>
+        <v>0.001950323589167092</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.09972161311020639</v>
+        <v>0.2154912</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007984275361754079</v>
+        <v>0.002114561365096953</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05239866483366287</v>
+        <v>0.06844169027012965</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001443071448034008</v>
+        <v>0.002399661719383405</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.06875292357316795</v>
+        <v>0.147241697651294</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001441081714021417</v>
+        <v>0.003225012144801777</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1237602417051114</v>
+        <v>0.2506294979227123</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001490997841207567</v>
+        <v>0.00322324803301258</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2154912</v>
+        <v>0.3135772743081836</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001877414296114117</v>
+        <v>0.003228199925754184</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06844169027012965</v>
+        <v>0.07790504122845728</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002399661719383405</v>
+        <v>0.004782842264873877</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09549120000000003</v>
+        <v>0.2200568934104311</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002008833296842105</v>
+        <v>0.004837518217202665</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1554912</v>
+        <v>0.3557581177189955</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.001931570477732794</v>
+        <v>0.00483487204951887</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.255118900242046</v>
+        <v>0.4608620755945352</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002395282608526224</v>
+        <v>0.004842299888631277</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.06848476543957678</v>
+        <v>0.08092568042071814</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002886142896068017</v>
+        <v>0.006377123019831836</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1200678368459056</v>
+        <v>0.2545814609518393</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002882163428042834</v>
+        <v>0.006026499890526317</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2039246562319311</v>
+        <v>0.4057210212426468</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002981995682415135</v>
+        <v>0.005850970767501277</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3061612607317984</v>
+        <v>0.5568605815334546</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003193710144701632</v>
+        <v>0.006343684095290858</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.03802316126118313</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.07084444762034857</v>
+        <v>0.08599711385514001</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003607678620085021</v>
+        <v>0.007971403774789795</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1414110997662011</v>
+        <v>0.2853127905711343</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003602704285053543</v>
+        <v>0.008062530362004444</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2409617452275685</v>
+        <v>0.4640125508598008</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003727494603018919</v>
+        <v>0.008058120082531451</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3558303770988251</v>
+        <v>0.6112632248628499</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003992137680877039</v>
+        <v>0.00807049981438546</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.07902281328301354</v>
+        <v>0.09721082298156657</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004329214344102025</v>
+        <v>0.009565684529747754</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1601837156564346</v>
+        <v>0.3086033688125637</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004323245142064252</v>
+        <v>0.009675036434405331</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2677314040277198</v>
+        <v>0.4962792416204549</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004472993523622702</v>
+        <v>0.009669744099037741</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3996438914844815</v>
+        <v>0.6704426918785958</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004790565217052447</v>
+        <v>0.009684599777262553</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07402246465167704</v>
+        <v>0.09365828924984142</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005050750068119029</v>
+        <v>0.01115996528470571</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1735415050984</v>
+        <v>0.3312407456202748</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00504378599907496</v>
+        <v>0.01128754250680622</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2989090563776034</v>
+        <v>0.5361588961521289</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005218492444226486</v>
+        <v>0.01128136811554403</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.4407194460301238</v>
+        <v>0.716139500978792</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005588992753227854</v>
+        <v>0.01129869974013964</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08684600395044449</v>
+        <v>0.09443099410980828</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005772285792136033</v>
+        <v>0.01275424603966367</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1922402886738906</v>
+        <v>0.3521701579307029</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005764326856085669</v>
+        <v>0.01290004857920711</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.3290701260224374</v>
+        <v>0.5652929112725522</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005963991364830269</v>
+        <v>0.01289299213205032</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.4785746828771072</v>
+        <v>0.7576215691010394</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006387420289403263</v>
+        <v>0.01291279970301674</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08549603340342134</v>
+        <v>0.1016204190113108</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006493821516153037</v>
+        <v>0.01434852679462163</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.2080358869647</v>
+        <v>0.3713368426802826</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006484867713096377</v>
+        <v>0.014512554651608</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3538900367074403</v>
+        <v>0.5915226837994547</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006709490285434053</v>
+        <v>0.01450461614855661</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.5152272441667877</v>
+        <v>0.7977568131829388</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007185847825578671</v>
+        <v>0.01452689966589383</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.09297515523471293</v>
+        <v>0.1103180454041926</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007215357240170041</v>
+        <v>0.01594280754957959</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.2210841205526215</v>
+        <v>0.3841860368054492</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007205408570107086</v>
+        <v>0.01612506072400889</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.3708442121778301</v>
+        <v>0.6164896105505664</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007454989206037837</v>
+        <v>0.0161162401650629</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.5568605815334545</v>
+        <v>0.834213150162091</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008085852358961977</v>
+        <v>0.01614099962877092</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.09228597166842474</v>
+        <v>0.1116153547382973</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007936892964187045</v>
+        <v>0.01753708830453755</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.2335408100194487</v>
+        <v>0.3966629772426374</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007925949427117796</v>
+        <v>0.01773756679640977</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4057210212426469</v>
+        <v>0.6414350883436173</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008400033215469175</v>
+        <v>0.01772786418156919</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.5774185580181438</v>
+        <v>0.8607584969760979</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008782702897929486</v>
+        <v>0.01775509959164802</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0894310849286621</v>
+        <v>0.1056038284634687</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00865842868820405</v>
+        <v>0.01913136905949551</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2545814609518393</v>
+        <v>0.4091129009282823</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008925983328285102</v>
+        <v>0.01935007286881066</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4175063314319375</v>
+        <v>0.657500513996337</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008945987047245404</v>
+        <v>0.01933948819807548</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6133063034361281</v>
+        <v>0.8885607705625601</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009581130434104895</v>
+        <v>0.01936919955452511</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.09341309723953052</v>
+        <v>0.1103749480295503</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009379964412221055</v>
+        <v>0.02072564981445347</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2593443704951532</v>
+        <v>0.4203810447988189</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009367031141139213</v>
+        <v>0.02096257894121155</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4383015514835049</v>
+        <v>0.6776272843264557</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009691485967849188</v>
+        <v>0.02095111221458177</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6480787232184716</v>
+        <v>0.9126878878590788</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0103795579702803</v>
+        <v>0.0209832995174022</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.09923461082513531</v>
+        <v>0.1110201948863859</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01010150013623806</v>
+        <v>0.02231993056941143</v>
       </c>
       <c r="J79" t="n">
-        <v>0.273861290440526</v>
+        <v>0.431612645790682</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01008757199814992</v>
+        <v>0.02257508501361244</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4643958360119806</v>
+        <v>0.6911567961517029</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01043698488845297</v>
+        <v>0.02256273623108806</v>
       </c>
       <c r="N79" t="n">
-        <v>0.6758448098474731</v>
+        <v>0.9418077658032548</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01117798550645571</v>
+        <v>0.02259739948027929</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1018982279095819</v>
+        <v>0.1116276558328828</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01082303586025506</v>
+        <v>0.02391421132436939</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2883550509102346</v>
+        <v>0.4402529408403066</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01080811285516063</v>
+        <v>0.02418759108601333</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4873641729475772</v>
+        <v>0.7045304462898083</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01118248380905675</v>
+        <v>0.02417436024759435</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7090135558054321</v>
+        <v>0.9539883213326891</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01197641304263112</v>
+        <v>0.02421149944315638</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1064065507169757</v>
+        <v>0.115207549393571</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01154457158427207</v>
+        <v>0.02550849207932734</v>
       </c>
       <c r="J81" t="n">
-        <v>0.300643001025706</v>
+        <v>0.4458471668841278</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01152865371217134</v>
+        <v>0.02580009715841422</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5123815502205076</v>
+        <v>0.7165896315585025</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01192798272966054</v>
+        <v>0.02578598426410064</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7457939535746486</v>
+        <v>0.977697471384983</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01277484057880653</v>
+        <v>0.02582559940603347</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1137621814714222</v>
+        <v>0.1197402378821262</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01226610730828907</v>
+        <v>0.0271027728342853</v>
       </c>
       <c r="J82" t="n">
-        <v>0.3165424899083668</v>
+        <v>0.4533561302179273</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01224919456918205</v>
+        <v>0.0274126032308151</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5305229557609845</v>
+        <v>0.7218252588440945</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01267348165026432</v>
+        <v>0.02739760828060693</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7782949956374218</v>
+        <v>0.988204459517012</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01357326811498193</v>
+        <v>0.02743969936891056</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1099677223970267</v>
+        <v>0.1232158305469414</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01298764303230607</v>
+        <v>0.02869705358924326</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3302708666796439</v>
+        <v>0.4612117763349477</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01296973542619275</v>
+        <v>0.02902510930321599</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5580633774992201</v>
+        <v>0.7293861724155402</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01341898057086811</v>
+        <v>0.02900923229711322</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8138256744760511</v>
+        <v>1.005505173328077</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01437169565115734</v>
+        <v>0.02905379933178765</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1140257757178946</v>
+        <v>0.1236244366364095</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01370917875632308</v>
+        <v>0.03029133434420122</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3440454804609642</v>
+        <v>0.4655903990237087</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01369027628320347</v>
+        <v>0.03063761537561688</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5779778033654275</v>
+        <v>0.7413592762023922</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01416447949147189</v>
+        <v>0.03062085631361951</v>
       </c>
       <c r="N84" t="n">
-        <v>0.8495949825728356</v>
+        <v>1.012632834329964</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01517012318733275</v>
+        <v>0.03066789929466475</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1079389436581314</v>
+        <v>0.1229561653989233</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01443071448034008</v>
+        <v>0.03188561509915918</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3605836803737541</v>
+        <v>0.4719539316035708</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01441081714021417</v>
+        <v>0.03225012144801778</v>
       </c>
       <c r="L85" t="n">
-        <v>0.599541221289819</v>
+        <v>0.7486840036513427</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01490997841207567</v>
+        <v>0.0322324803301258</v>
       </c>
       <c r="N85" t="n">
-        <v>0.8792119124100749</v>
+        <v>1.030003929939556</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01596855072350816</v>
+        <v>0.03228199925754184</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1167098284418425</v>
+        <v>0.1282011260828758</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01515225020435709</v>
+        <v>0.03347989585411714</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3734028155394407</v>
+        <v>0.4754643073938946</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01513135799722488</v>
+        <v>0.03386262752041866</v>
       </c>
       <c r="L86" t="n">
-        <v>0.6181286192026079</v>
+        <v>0.7591997882090846</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01565547733267946</v>
+        <v>0.03384410434663209</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9065854564700687</v>
+        <v>1.039334947573736</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01676697825968356</v>
+        <v>0.03389609922041894</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1223410322931331</v>
+        <v>0.1243494279366599</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01587378592837409</v>
+        <v>0.0350741766090751</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3881202350794505</v>
+        <v>0.4792834597140408</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01585189885423559</v>
+        <v>0.03547513359281955</v>
       </c>
       <c r="L87" t="n">
-        <v>0.644114985034006</v>
+        <v>0.7658460633223092</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01640097625328324</v>
+        <v>0.03545572836313838</v>
       </c>
       <c r="N87" t="n">
-        <v>0.9278246072351161</v>
+        <v>1.055142374649385</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01756540579585897</v>
+        <v>0.03551019918329603</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1208351574361089</v>
+        <v>0.1323911802086685</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0165953216523911</v>
+        <v>0.03666845736403306</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3965532881152105</v>
+        <v>0.4852733218833699</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0165724397112463</v>
+        <v>0.03708763966522043</v>
       </c>
       <c r="L88" t="n">
-        <v>0.6584753067142264</v>
+        <v>0.7748622624377095</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01714647517388702</v>
+        <v>0.03706735237964467</v>
       </c>
       <c r="N88" t="n">
-        <v>0.9559383571875167</v>
+        <v>1.060142698583388</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01836383333203438</v>
+        <v>0.03712429914617312</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1241948060948752</v>
+        <v>0.1273164921472946</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0173168573764081</v>
+        <v>0.03826273811899102</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4115193237681473</v>
+        <v>0.4890958272212427</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01729298056825701</v>
+        <v>0.03870014573762132</v>
       </c>
       <c r="L89" t="n">
-        <v>0.6783845721734818</v>
+        <v>0.778887819001977</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01789197409449081</v>
+        <v>0.03867897639615096</v>
       </c>
       <c r="N89" t="n">
-        <v>0.9846356988095698</v>
+        <v>1.071752406792627</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01916226086820979</v>
+        <v>0.03873839910905021</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1204225804935373</v>
+        <v>0.1311154730009309</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01803839310042511</v>
+        <v>0.03985701887394898</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4248356911596878</v>
+        <v>0.4947129090470196</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01801352142526771</v>
+        <v>0.04031265181002221</v>
       </c>
       <c r="L90" t="n">
-        <v>0.6994177693419847</v>
+        <v>0.7869621664618047</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01863747301509459</v>
+        <v>0.04029060041265725</v>
       </c>
       <c r="N90" t="n">
-        <v>1.002925624583575</v>
+        <v>1.072987986693985</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0199606884043852</v>
+        <v>0.0403524990719273</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1235210828562007</v>
+        <v>0.1357782320179705</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01875992882444211</v>
+        <v>0.04145129962890694</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4347197394112585</v>
+        <v>0.4977865006800609</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01873406228227843</v>
+        <v>0.0419251578824231</v>
       </c>
       <c r="L91" t="n">
-        <v>0.7121498861499478</v>
+        <v>0.7968247382638842</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01938297193569838</v>
+        <v>0.04190222442916354</v>
       </c>
       <c r="N91" t="n">
-        <v>1.024817126991831</v>
+        <v>1.090865925704344</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0207591159405606</v>
+        <v>0.0419665990348044</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1304929154069709</v>
+        <v>0.1352948784468062</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01948146454845911</v>
+        <v>0.0430455803838649</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4473888176442867</v>
+        <v>0.5004785354397276</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01945460313928913</v>
+        <v>0.04353766395482399</v>
       </c>
       <c r="L92" t="n">
-        <v>0.7344559105275841</v>
+        <v>0.7983149678549077</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02012847085630216</v>
+        <v>0.04351384844566984</v>
       </c>
       <c r="N92" t="n">
-        <v>1.043719198516639</v>
+        <v>1.098102711240587</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02155754347673601</v>
+        <v>0.04358069899768149</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1223406803699531</v>
+        <v>0.135655521535831</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02020300027247612</v>
+        <v>0.04463986113882285</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4564602749801988</v>
+        <v>0.5023509466453804</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02017514399629984</v>
+        <v>0.04515017002722488</v>
       </c>
       <c r="L93" t="n">
-        <v>0.7423108304051054</v>
+        <v>0.7991722886815678</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02087396977690594</v>
+        <v>0.04512547246217612</v>
       </c>
       <c r="N93" t="n">
-        <v>1.061940831640296</v>
+        <v>1.094714830719598</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02235597101291142</v>
+        <v>0.04519479896055858</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1190669799692528</v>
+        <v>0.1368833805402593</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02092453599649312</v>
+        <v>0.04623414189378081</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4665514605404215</v>
+        <v>0.5059656676163794</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02089568485331055</v>
+        <v>0.04676267609962576</v>
       </c>
       <c r="L94" t="n">
-        <v>0.7579896337127252</v>
+        <v>0.8060361341905564</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02161946869750973</v>
+        <v>0.04673709647868241</v>
       </c>
       <c r="N94" t="n">
-        <v>1.063291018845103</v>
+        <v>1.103818771558258</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02315439854908683</v>
+        <v>0.04680889892343567</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1196744164289756</v>
+        <v>0.132876549056205</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02164607172051013</v>
+        <v>0.04782842264873877</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4737797234463819</v>
+        <v>0.5052846316720856</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02161622571032126</v>
+        <v>0.04837518217202665</v>
       </c>
       <c r="L95" t="n">
-        <v>0.7684673083806559</v>
+        <v>0.8045459378285658</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02236496761811351</v>
+        <v>0.0483487204951887</v>
       </c>
       <c r="N95" t="n">
-        <v>1.08197875261336</v>
+        <v>1.107431021173451</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02395282608526223</v>
+        <v>0.04842299888631276</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1331655919732266</v>
+        <v>0.1337992698583718</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02236760744452713</v>
+        <v>0.04942270340369673</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4785624128195063</v>
+        <v>0.5091629219036786</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02233676656733197</v>
+        <v>0.04998768824442754</v>
       </c>
       <c r="L96" t="n">
-        <v>0.7797188423391097</v>
+        <v>0.8114420424852937</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0231104665387173</v>
+        <v>0.04996034451169499</v>
       </c>
       <c r="N96" t="n">
-        <v>1.089613025427364</v>
+        <v>1.113721163066909</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02475125362143764</v>
+        <v>0.05003709884918985</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1225431088261113</v>
+        <v>0.1236401525604714</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02308914316854413</v>
+        <v>0.05101698415865469</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4855168777812218</v>
+        <v>0.5080244677260847</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02305730742434267</v>
+        <v>0.05160019431682843</v>
       </c>
       <c r="L97" t="n">
-        <v>0.7804192235182998</v>
+        <v>0.8060552863631487</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02385596545932108</v>
+        <v>0.05157196852820128</v>
       </c>
       <c r="N97" t="n">
-        <v>1.088202829769417</v>
+        <v>1.107384952300182</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02554968115761305</v>
+        <v>0.05165119881206694</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1328095692117353</v>
+        <v>0.1324044098738342</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02381067889256114</v>
+        <v>0.05261126491361265</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4930604674529551</v>
+        <v>0.5065031405069714</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02377784828135339</v>
+        <v>0.05321270038922932</v>
       </c>
       <c r="L98" t="n">
-        <v>0.7900434398484388</v>
+        <v>0.8039972686445829</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02460146437992486</v>
+        <v>0.05318359254470757</v>
       </c>
       <c r="N98" t="n">
-        <v>1.085663085537588</v>
+        <v>1.111797097875738</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02634810869378846</v>
+        <v>0.05326529877494404</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1319675753542037</v>
+        <v>0.1350972545097905</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02453221461657814</v>
+        <v>0.05420554566857061</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4922105309561329</v>
+        <v>0.5073724317170363</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02449838913836409</v>
+        <v>0.05482520646163021</v>
       </c>
       <c r="L99" t="n">
-        <v>0.7899664792597394</v>
+        <v>0.8033496354719092</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02534696330052865</v>
+        <v>0.05479521656121386</v>
       </c>
       <c r="N99" t="n">
-        <v>1.088042766196496</v>
+        <v>1.111523962195808</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02714653622996387</v>
+        <v>0.05487939873782113</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1330197294776221</v>
+        <v>0.1247238991796707</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02525375034059515</v>
+        <v>0.05579982642352857</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4956844174121821</v>
+        <v>0.5065524035947582</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0252189299953748</v>
+        <v>0.0564377125340311</v>
       </c>
       <c r="L100" t="n">
-        <v>0.7896999737756101</v>
+        <v>0.8029443071653637</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02609246222113243</v>
+        <v>0.05640684057772014</v>
       </c>
       <c r="N100" t="n">
-        <v>1.088427496672943</v>
+        <v>1.099309558800064</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02794496376613927</v>
+        <v>0.05649349870069822</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1329267616118976</v>
+        <v>0.1232895565948053</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02597528606461215</v>
+        <v>0.05739410717848652</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4989043074291741</v>
+        <v>0.5020631183786166</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02593947085238551</v>
+        <v>0.05805021860643199</v>
       </c>
       <c r="L101" t="n">
-        <v>0.7935035137619686</v>
+        <v>0.7989132040451823</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02683796114173621</v>
+        <v>0.05801846459422644</v>
       </c>
       <c r="N101" t="n">
-        <v>1.083782158803166</v>
+        <v>1.105097901228177</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02874339130231468</v>
+        <v>0.05810759866357531</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1286612754346192</v>
+        <v>0.1317994394665246</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02669682178862915</v>
+        <v>0.05898838793344448</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4951730916099941</v>
+        <v>0.5023246383070904</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02666001170939622</v>
+        <v>0.05966272467883287</v>
       </c>
       <c r="L102" t="n">
-        <v>0.7939835887142432</v>
+        <v>0.8014882464316011</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02758346006234</v>
+        <v>0.05963008861073273</v>
       </c>
       <c r="N102" t="n">
-        <v>1.083771634423409</v>
+        <v>1.09873300301982</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02954181883849009</v>
+        <v>0.0597216986264524</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1282439330085204</v>
+        <v>0.132258760506159</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02741835751264616</v>
+        <v>0.06058266868840245</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4969762230222832</v>
+        <v>0.4998570256186587</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02738055256640693</v>
+        <v>0.06127523075123376</v>
       </c>
       <c r="L103" t="n">
-        <v>0.7877741242772378</v>
+        <v>0.7984013546448554</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02832895898294378</v>
+        <v>0.06124171262723901</v>
       </c>
       <c r="N103" t="n">
-        <v>1.072960805369909</v>
+        <v>1.096158877714664</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0303402463746655</v>
+        <v>0.06133579858932949</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1206953964348171</v>
+        <v>0.128672732425039</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02813989323666316</v>
+        <v>0.06217694944336041</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4929477685692563</v>
+        <v>0.4992803425518012</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02810109342341763</v>
+        <v>0.06288773682363465</v>
       </c>
       <c r="L104" t="n">
-        <v>0.7875090460957566</v>
+        <v>0.7971844490051805</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02907445790354756</v>
+        <v>0.06285333664374532</v>
       </c>
       <c r="N104" t="n">
-        <v>1.076514553478907</v>
+        <v>1.089019538852382</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03113867391084091</v>
+        <v>0.06294989855220659</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1260363278147249</v>
+        <v>0.129046567934495</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02886142896068017</v>
+        <v>0.06377123019831836</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4938217951541287</v>
+        <v>0.4948146513449966</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02882163428042835</v>
+        <v>0.06450024289603555</v>
       </c>
       <c r="L105" t="n">
-        <v>0.7875222798146042</v>
+        <v>0.7920694498328131</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02981995682415135</v>
+        <v>0.06446496066025161</v>
       </c>
       <c r="N105" t="n">
-        <v>1.071897760586645</v>
+        <v>1.082358999972647</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03193710144701632</v>
+        <v>0.06456399851508368</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1212873892494597</v>
+        <v>0.1243854797458572</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02958296468469717</v>
+        <v>0.06536551095327632</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4937323696801155</v>
+        <v>0.494980014236724</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02954217513743905</v>
+        <v>0.06611274896843643</v>
       </c>
       <c r="L106" t="n">
-        <v>0.7837477510785846</v>
+        <v>0.7901882774479885</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03056545574475513</v>
+        <v>0.06607658467675788</v>
       </c>
       <c r="N106" t="n">
-        <v>1.062675308529362</v>
+        <v>1.076821274615129</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03273552898319172</v>
+        <v>0.06617809847796079</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1214692428402373</v>
+        <v>0.1216946805704562</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03030450040871418</v>
+        <v>0.06695979170823428</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4889135590504317</v>
+        <v>0.493596493465463</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03026271599444976</v>
+        <v>0.06772525504083732</v>
       </c>
       <c r="L107" t="n">
-        <v>0.7792193855325025</v>
+        <v>0.7859728521709426</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03131095466535892</v>
+        <v>0.06768820869326418</v>
       </c>
       <c r="N107" t="n">
-        <v>1.064212079143297</v>
+        <v>1.071850376319502</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03353395651936713</v>
+        <v>0.06779219844083788</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1226025506882735</v>
+        <v>0.1249793831196224</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03102603613273118</v>
+        <v>0.06855407246319224</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4883994301682923</v>
+        <v>0.4903841512696924</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03098325685146047</v>
+        <v>0.06933776111323821</v>
       </c>
       <c r="L108" t="n">
-        <v>0.7813711088211615</v>
+        <v>0.776755094321911</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0320564535859627</v>
+        <v>0.06929983270977047</v>
       </c>
       <c r="N108" t="n">
-        <v>1.058272954264693</v>
+        <v>1.075090318625437</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03433238405554254</v>
+        <v>0.06940629840371497</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1277079748947842</v>
+        <v>0.126244800104686</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03174757185674818</v>
+        <v>0.0701483532181502</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4878240499369128</v>
+        <v>0.4885630498878916</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03170379770847118</v>
+        <v>0.0709502671856391</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7727368465893663</v>
+        <v>0.7784669242211295</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03280195250656649</v>
+        <v>0.07091145672627676</v>
       </c>
       <c r="N109" t="n">
-        <v>1.053422815729788</v>
+        <v>1.067085115072607</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03513081159171794</v>
+        <v>0.07102039836659206</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.120806177560985</v>
+        <v>0.1254961442369776</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03246910758076519</v>
+        <v>0.07174263397310816</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4840214852595081</v>
+        <v>0.4832532515585397</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03242433856548189</v>
+        <v>0.07256277325803998</v>
       </c>
       <c r="L110" t="n">
-        <v>0.7739505244819209</v>
+        <v>0.7687402621888337</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03354745142717026</v>
+        <v>0.07252308074278306</v>
       </c>
       <c r="N110" t="n">
-        <v>1.047126545374824</v>
+        <v>1.057078779200684</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03592923912789335</v>
+        <v>0.07263449832946915</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1149178207880918</v>
+        <v>0.1157386282278275</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03319064330478219</v>
+        <v>0.07333691472806612</v>
       </c>
       <c r="J111" t="n">
-        <v>0.479925803039293</v>
+        <v>0.4821748185201158</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0331448794224926</v>
+        <v>0.07417527933044087</v>
       </c>
       <c r="L111" t="n">
-        <v>0.77314606814363</v>
+        <v>0.7696070285452599</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03429295034777405</v>
+        <v>0.07413470475928934</v>
       </c>
       <c r="N111" t="n">
-        <v>1.035849025036039</v>
+        <v>1.054515324549339</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03672766666406876</v>
+        <v>0.07424859829234624</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1130635666773204</v>
+        <v>0.1199774647885661</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03391217902879919</v>
+        <v>0.07493119548302409</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4823710701794831</v>
+        <v>0.4804478130110993</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0338654202795033</v>
+        <v>0.07578778540284176</v>
       </c>
       <c r="L112" t="n">
-        <v>0.7646574032192974</v>
+        <v>0.7583991436106434</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03503844926837783</v>
+        <v>0.07574632877579562</v>
       </c>
       <c r="N112" t="n">
-        <v>1.029155136549676</v>
+        <v>1.044038764658245</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03752609420024416</v>
+        <v>0.07586269825522333</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1252640773298866</v>
+        <v>0.1152178666305239</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0346337147528162</v>
+        <v>0.07652547623798203</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4770913535832932</v>
+        <v>0.4765922972699691</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03458596113651401</v>
+        <v>0.07740029147524265</v>
       </c>
       <c r="L113" t="n">
-        <v>0.7617184553537277</v>
+        <v>0.75404852770522</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03578394818898162</v>
+        <v>0.07735795279230193</v>
       </c>
       <c r="N113" t="n">
-        <v>1.025409761751973</v>
+        <v>1.046693113067075</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03832452173641958</v>
+        <v>0.07747679821810043</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1155400148470063</v>
+        <v>0.1174650464650312</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03535525047683321</v>
+        <v>0.07811975699293999</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4749207201539386</v>
+        <v>0.4704283335352044</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03530650199352472</v>
+        <v>0.07901279754764354</v>
       </c>
       <c r="L114" t="n">
-        <v>0.7616631501917248</v>
+        <v>0.7515871011492257</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0365294471095854</v>
+        <v>0.07896957680880821</v>
       </c>
       <c r="N114" t="n">
-        <v>1.023177782479171</v>
+        <v>1.032622383315499</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03912294927259499</v>
+        <v>0.07909089818097752</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1229120413298951</v>
+        <v>0.1256954190642246</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03607678620085021</v>
+        <v>0.07971403774789795</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4742932367946342</v>
+        <v>0.4694759840452848</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03602704285053543</v>
+        <v>0.08062530362004443</v>
       </c>
       <c r="L115" t="n">
-        <v>0.7547254133780932</v>
+        <v>0.745146784262896</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03727494603018919</v>
+        <v>0.0805812008253145</v>
       </c>
       <c r="N115" t="n">
-        <v>1.023324080567511</v>
+        <v>1.029970588943192</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03992137680877039</v>
+        <v>0.08070499814385461</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.115400818879769</v>
+        <v>0.1168214727173336</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03679832192486721</v>
+        <v>0.08130831850285591</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4695429704085952</v>
+        <v>0.4672553110386889</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03674758370754614</v>
+        <v>0.08223780969244532</v>
       </c>
       <c r="L116" t="n">
-        <v>0.754739170557637</v>
+        <v>0.7430587388520071</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03802044495079297</v>
+        <v>0.08219282484182079</v>
       </c>
       <c r="N116" t="n">
-        <v>1.012613537853233</v>
+        <v>1.022181743489823</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0407198043449458</v>
+        <v>0.0823190981067317</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1200270095978436</v>
+        <v>0.121851834889584</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03751985764888422</v>
+        <v>0.08290259925781387</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4703039878990367</v>
+        <v>0.4626510159248141</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03746812456455685</v>
+        <v>0.08385031576484621</v>
       </c>
       <c r="L117" t="n">
-        <v>0.7530383473751605</v>
+        <v>0.7370177761271131</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03876594387139675</v>
+        <v>0.08380444885832708</v>
       </c>
       <c r="N117" t="n">
-        <v>1.015911036172576</v>
+        <v>1.021527256260764</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04151823188112121</v>
+        <v>0.08393319806960879</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1178112755853348</v>
+        <v>0.1118034892175929</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03824139337290122</v>
+        <v>0.08449688001277184</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4674103561691739</v>
+        <v>0.4614390027747418</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03818866542156756</v>
+        <v>0.0854628218372471</v>
       </c>
       <c r="L118" t="n">
-        <v>0.7503568694754683</v>
+        <v>0.7309355083503857</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03951144279200054</v>
+        <v>0.08541607287483337</v>
       </c>
       <c r="N118" t="n">
-        <v>1.009481457361782</v>
+        <v>1.006477131185617</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04231665941729662</v>
+        <v>0.08554729803248588</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1097688978798898</v>
+        <v>0.1136934193379773</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03896292909691822</v>
+        <v>0.0860911607677298</v>
       </c>
       <c r="J119" t="n">
-        <v>0.466896142122222</v>
+        <v>0.4573842526410112</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03890920627857827</v>
+        <v>0.08707532790964798</v>
       </c>
       <c r="L119" t="n">
-        <v>0.7460286625033643</v>
+        <v>0.7256159357407552</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04025694171260432</v>
+        <v>0.08702769689133967</v>
       </c>
       <c r="N119" t="n">
-        <v>1.01108968325709</v>
+        <v>0.9957551606539193</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04311508695347202</v>
+        <v>0.08716139799536297</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1118294605701366</v>
+        <v>0.1125386088873544</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03968446482093523</v>
+        <v>0.08768544152268774</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4650954126613955</v>
+        <v>0.4524521306947317</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03962974713558897</v>
+        <v>0.08868783398204887</v>
       </c>
       <c r="L120" t="n">
-        <v>0.7397876521036528</v>
+        <v>0.7241630585171528</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04100244063320811</v>
+        <v>0.08863932090784594</v>
       </c>
       <c r="N120" t="n">
-        <v>1.005000595694741</v>
+        <v>0.9926047460390907</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04391351448964743</v>
+        <v>0.08877549795824007</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1149615733154495</v>
+        <v>0.1193560415023411</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04040600054495223</v>
+        <v>0.0892797222776457</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4633422346899102</v>
+        <v>0.4481080021070127</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04035028799259968</v>
+        <v>0.09030034005444976</v>
       </c>
       <c r="L121" t="n">
-        <v>0.7388677639211381</v>
+        <v>0.7126808768985089</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04174793955381189</v>
+        <v>0.09025094492435223</v>
       </c>
       <c r="N121" t="n">
-        <v>1.007679076510975</v>
+        <v>0.9787692887145508</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04471194202582283</v>
+        <v>0.09038959792111716</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.114160556702157</v>
+        <v>0.1151627008195545</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04112753626896924</v>
+        <v>0.09087400303260366</v>
       </c>
       <c r="J122" t="n">
-        <v>0.459370675110981</v>
+        <v>0.4466172320489634</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04107082884961039</v>
+        <v>0.09191284612685065</v>
       </c>
       <c r="L122" t="n">
-        <v>0.7398029236006243</v>
+        <v>0.7066733911037542</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04249343847441567</v>
+        <v>0.09186256894085854</v>
       </c>
       <c r="N122" t="n">
-        <v>1.004890007542032</v>
+        <v>0.9722921900537206</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04551036956199825</v>
+        <v>0.09200369788399425</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1194217313165878</v>
+        <v>0.1129755704756116</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04184907199298624</v>
+        <v>0.09246828378756163</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4597148008278229</v>
+        <v>0.4376451856916932</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0417913697066211</v>
+        <v>0.09352535219925152</v>
       </c>
       <c r="L123" t="n">
-        <v>0.7332270567869159</v>
+        <v>0.7022446013518198</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04323893739501945</v>
+        <v>0.09347419295736482</v>
       </c>
       <c r="N123" t="n">
-        <v>1.010378856786096</v>
+        <v>0.9578168514300197</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04630879709817366</v>
+        <v>0.09361779784687134</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1237404177450704</v>
+        <v>0.1048116341071297</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04257060771700325</v>
+        <v>0.09406256454251959</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4608086787436511</v>
+        <v>0.4327572282063114</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04251191056363181</v>
+        <v>0.09513785827165241</v>
       </c>
       <c r="L124" t="n">
-        <v>0.7350740891248171</v>
+        <v>0.6891985078616363</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04398443631562324</v>
+        <v>0.09508581697387111</v>
       </c>
       <c r="N124" t="n">
-        <v>1.008525707622314</v>
+        <v>0.9483866742168686</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04710722463434906</v>
+        <v>0.09523189780974843</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1201119365739333</v>
+        <v>0.1116878753507256</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04329214344102025</v>
+        <v>0.09565684529747755</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4572883072044827</v>
+        <v>0.4325187247639273</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04323245142064252</v>
+        <v>0.09675036434405331</v>
       </c>
       <c r="L125" t="n">
-        <v>0.7364779462591322</v>
+        <v>0.6835391108521343</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04472993523622702</v>
+        <v>0.0966974409903774</v>
       </c>
       <c r="N125" t="n">
-        <v>1.01087378387457</v>
+        <v>0.9423450597876871</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04790565217052447</v>
+        <v>0.09684599777262552</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1225316083895052</v>
+        <v>0.1016129846596286</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04401367916503725</v>
+        <v>0.09725112605243551</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4624790762953334</v>
+        <v>0.4251950405356504</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04395299227765322</v>
+        <v>0.0983628704164542</v>
       </c>
       <c r="L126" t="n">
-        <v>0.7359725538346653</v>
+        <v>0.6764704105422445</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04547543415683081</v>
+        <v>0.09830906500688369</v>
       </c>
       <c r="N126" t="n">
-        <v>1.013559840047947</v>
+        <v>0.9336354095158955</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04870407970669988</v>
+        <v>0.09846009773550261</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1209947537781145</v>
+        <v>0.1014703073502589</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04473521488905426</v>
+        <v>0.09884540680739347</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4629537694786093</v>
+        <v>0.4245515406925898</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04467353313466393</v>
+        <v>0.09997537648885509</v>
       </c>
       <c r="L127" t="n">
-        <v>0.7280918374962209</v>
+        <v>0.671496407150898</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04622093307743459</v>
+        <v>0.09992068902338998</v>
       </c>
       <c r="N127" t="n">
-        <v>1.015520630647529</v>
+        <v>0.923401124774914</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04950250724287528</v>
+        <v>0.1000741976983797</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1174966933260898</v>
+        <v>0.109235774150902</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04545675061307126</v>
+        <v>0.1004396875623514</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4593785281040589</v>
+        <v>0.419959725759447</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04539407399167464</v>
+        <v>0.101587882561256</v>
       </c>
       <c r="L128" t="n">
-        <v>0.7282963556620909</v>
+        <v>0.6637464238897595</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04696643199803837</v>
+        <v>0.1015323130398963</v>
       </c>
       <c r="N128" t="n">
-        <v>1.021992910178401</v>
+        <v>0.9138026803535674</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05030093477905069</v>
+        <v>0.1016882976612568</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1140327476197597</v>
+        <v>0.09793369714235058</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04617828633708827</v>
+        <v>0.1020339683173094</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4639194935214308</v>
+        <v>0.4144936428552873</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04611461484868535</v>
+        <v>0.1032003886336569</v>
       </c>
       <c r="L129" t="n">
-        <v>0.7337746386948707</v>
+        <v>0.6621914189251452</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04771193091864216</v>
+        <v>0.1031439370564026</v>
       </c>
       <c r="N129" t="n">
-        <v>1.034713433145648</v>
+        <v>0.9012297912203654</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0510993623152261</v>
+        <v>0.1033023976241339</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1155982372454527</v>
+        <v>0.09958838840539734</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04689982206110527</v>
+        <v>0.1036282490722674</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4668428070804734</v>
+        <v>0.4069202811857091</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04683515570569606</v>
+        <v>0.1048128947060578</v>
       </c>
       <c r="L130" t="n">
-        <v>0.734157195327223</v>
+        <v>0.6475582459508475</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04845742983924594</v>
+        <v>0.1047555610729088</v>
       </c>
       <c r="N130" t="n">
-        <v>1.043718954054354</v>
+        <v>0.8927560785842014</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05189778985140151</v>
+        <v>0.104916497587011</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1261884827894975</v>
+        <v>0.09822416002083502</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04762135778512228</v>
+        <v>0.1052225298272253</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4694146101309356</v>
+        <v>0.4022332110123041</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04755569656270677</v>
+        <v>0.1064254007784586</v>
       </c>
       <c r="L131" t="n">
-        <v>0.7373387908616027</v>
+        <v>0.6438957813107331</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04920292875984972</v>
+        <v>0.1063671850894151</v>
       </c>
       <c r="N131" t="n">
-        <v>1.046946227409603</v>
+        <v>0.8813868215531354</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05269621738757692</v>
+        <v>0.1065305975498881</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1277988048382225</v>
+        <v>0.09286532406945623</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04834289350913928</v>
+        <v>0.1068168105821833</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4712010440225658</v>
+        <v>0.3999260025966639</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04827623741971748</v>
+        <v>0.1080379068508595</v>
       </c>
       <c r="L132" t="n">
-        <v>0.7401141906004647</v>
+        <v>0.6374529013486678</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04994842768045351</v>
+        <v>0.1079788091059214</v>
       </c>
       <c r="N132" t="n">
-        <v>1.05373200771648</v>
+        <v>0.8739272992352284</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05349464492375232</v>
+        <v>0.1081446975127652</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1254245239779563</v>
+        <v>0.09853619263205372</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04906442923315629</v>
+        <v>0.1084110913371412</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4695682501051124</v>
+        <v>0.3953922262003805</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04899677827672819</v>
+        <v>0.1096504129232604</v>
       </c>
       <c r="L133" t="n">
-        <v>0.7467781598462639</v>
+        <v>0.6292784824085185</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05069392660105729</v>
+        <v>0.1095904331224277</v>
       </c>
       <c r="N133" t="n">
-        <v>1.05911304948007</v>
+        <v>0.8603827907385405</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05429307245992774</v>
+        <v>0.1097587974756423</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1170609607950276</v>
+        <v>0.09526107778942015</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04978596495717329</v>
+        <v>0.1100053720920992</v>
       </c>
       <c r="J134" t="n">
-        <v>0.475882369728324</v>
+        <v>0.3904254520850455</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0497173191337389</v>
+        <v>0.1112629189956613</v>
       </c>
       <c r="L134" t="n">
-        <v>0.7521254639014561</v>
+        <v>0.6211214008341515</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05143942552166107</v>
+        <v>0.111202057138934</v>
       </c>
       <c r="N134" t="n">
-        <v>1.071426107205455</v>
+        <v>0.8549585751711329</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05509149999610314</v>
+        <v>0.1113728974385193</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1257034358757648</v>
+        <v>0.09006429162234823</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0505075006811903</v>
+        <v>0.1115996528470571</v>
       </c>
       <c r="J135" t="n">
-        <v>0.4769095442419495</v>
+        <v>0.3814192505122508</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0504378599907496</v>
+        <v>0.1128754250680622</v>
       </c>
       <c r="L135" t="n">
-        <v>0.7572508680684955</v>
+        <v>0.6113305329694332</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05218492444226486</v>
+        <v>0.1128136811554403</v>
       </c>
       <c r="N135" t="n">
-        <v>1.084507935397722</v>
+        <v>0.8363599316410654</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05588992753227855</v>
+        <v>0.1129869974013964</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1203472698064964</v>
+        <v>0.0889701462116307</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0512290364052073</v>
+        <v>0.1131939336020151</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4802159149957371</v>
+        <v>0.3783671917435886</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05115840084776031</v>
+        <v>0.1144879311404631</v>
       </c>
       <c r="L136" t="n">
-        <v>0.7647491376498379</v>
+        <v>0.6070547551582293</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05293042336286864</v>
+        <v>0.1144253051719466</v>
       </c>
       <c r="N136" t="n">
-        <v>1.084295288561954</v>
+        <v>0.8327921392563989</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05668835506845396</v>
+        <v>0.1146010973642735</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1269877831735511</v>
+        <v>0.0960029536380602</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0519505721292243</v>
+        <v>0.114788214356973</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4804676233394357</v>
+        <v>0.37576284604065</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05187894170477102</v>
+        <v>0.116100437212864</v>
       </c>
       <c r="L137" t="n">
-        <v>0.7671150379479375</v>
+        <v>0.6009429437444072</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05367592228347242</v>
+        <v>0.1160369291884529</v>
       </c>
       <c r="N137" t="n">
-        <v>1.089724921203236</v>
+        <v>0.823260477125194</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05748678260462937</v>
+        <v>0.1162151973271506</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1236202965632575</v>
+        <v>0.09418702598242941</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0526721078532413</v>
+        <v>0.116382495111931</v>
       </c>
       <c r="J138" t="n">
-        <v>0.4842308106227937</v>
+        <v>0.3686997836650274</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05259948256178173</v>
+        <v>0.1177129432852649</v>
       </c>
       <c r="L138" t="n">
-        <v>0.76924333426525</v>
+        <v>0.5935439750718325</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0544214212040762</v>
+        <v>0.1176485532049592</v>
       </c>
       <c r="N138" t="n">
-        <v>1.098333587826652</v>
+        <v>0.8163702243555117</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05828521014080477</v>
+        <v>0.1178292972900277</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.119240130561944</v>
+        <v>0.09554667532553103</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05339364357725831</v>
+        <v>0.117976775866889</v>
       </c>
       <c r="J139" t="n">
-        <v>0.4871716181955594</v>
+        <v>0.3669715748783126</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05332002341879244</v>
+        <v>0.1193254493576657</v>
       </c>
       <c r="L139" t="n">
-        <v>0.7743287919042299</v>
+        <v>0.583406725484372</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05516692012468</v>
+        <v>0.1192601772214655</v>
       </c>
       <c r="N139" t="n">
-        <v>1.106558042937287</v>
+        <v>0.8059266600554117</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05908363767698017</v>
+        <v>0.1194433972529048</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1248426057559393</v>
+        <v>0.08610621374815776</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05411517930127532</v>
+        <v>0.1195710566218469</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4920561874074818</v>
+        <v>0.3649717899420969</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05404056427580314</v>
+        <v>0.1209379554300666</v>
       </c>
       <c r="L140" t="n">
-        <v>0.7821661761673331</v>
+        <v>0.5834800713258919</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05591241904528378</v>
+        <v>0.1208718012379717</v>
       </c>
       <c r="N140" t="n">
-        <v>1.109635041040225</v>
+        <v>0.804135063332955</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05988206521315559</v>
+        <v>0.1210574972157819</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1254230427315718</v>
+        <v>0.09488995333110233</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05483671502529232</v>
+        <v>0.1211653373768049</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4924506596083092</v>
+        <v>0.3654939991179724</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05476110513281386</v>
+        <v>0.1225504615024675</v>
       </c>
       <c r="L141" t="n">
-        <v>0.7842502523570138</v>
+        <v>0.5745128889402584</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05665791796588757</v>
+        <v>0.122483425254478</v>
       </c>
       <c r="N141" t="n">
-        <v>1.113721163066909</v>
+        <v>0.7915007132962023</v>
       </c>
       <c r="O141" t="n">
-        <v>0.060680492749331</v>
+        <v>0.122671597178659</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1239767620751702</v>
+        <v>0.09587878164078469</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05555825074930933</v>
+        <v>0.1227596181317629</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4945211761477905</v>
+        <v>0.3611317726675312</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05548164598982457</v>
+        <v>0.1241629675748684</v>
       </c>
       <c r="L142" t="n">
-        <v>0.7919757857757277</v>
+        <v>0.5752540546713385</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05740341688649134</v>
+        <v>0.1240950492709843</v>
       </c>
       <c r="N142" t="n">
-        <v>1.111821113708761</v>
+        <v>0.7940288890532136</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0614789202855064</v>
+        <v>0.1242856971415361</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.122499084373063</v>
+        <v>0.08891969870135126</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05627978647332633</v>
+        <v>0.1243538988867208</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4994338783756737</v>
+        <v>0.3640554100766322</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05620218684683527</v>
+        <v>0.1257754736472693</v>
       </c>
       <c r="L143" t="n">
-        <v>0.7955375417259289</v>
+        <v>0.573791321290356</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05814891580709512</v>
+        <v>0.1257066732874906</v>
       </c>
       <c r="N143" t="n">
-        <v>1.112519140573396</v>
+        <v>0.7916126964090587</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06227734782168182</v>
+        <v>0.1258997971044132</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1269853302115788</v>
+        <v>0.08899530416450772</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05700132219734333</v>
+        <v>0.1259481796416788</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4980549076417078</v>
+        <v>0.3619583264952904</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05692272770384597</v>
+        <v>0.1273879797196702</v>
       </c>
       <c r="L144" t="n">
-        <v>0.8004302855100736</v>
+        <v>0.5771697085030376</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05889441472769891</v>
+        <v>0.1273182973039969</v>
       </c>
       <c r="N144" t="n">
-        <v>1.110214333386564</v>
+        <v>0.7933019465863754</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06307577535785722</v>
+        <v>0.1275138970672903</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1354308201770461</v>
+        <v>0.0911038115874135</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05772285792136033</v>
+        <v>0.1275424603966367</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5022504052956414</v>
+        <v>0.3642957671685449</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05764326856085669</v>
+        <v>0.1290004857920711</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8005487824306161</v>
+        <v>0.5753615311918472</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0596399136483027</v>
+        <v>0.1289299213205032</v>
       </c>
       <c r="N145" t="n">
-        <v>1.105206755091575</v>
+        <v>0.7858878187509811</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06387420289403263</v>
+        <v>0.1291279970301674</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1328308748557935</v>
+        <v>0.08624343452722809</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05844439364537733</v>
+        <v>0.1291367411515947</v>
       </c>
       <c r="J146" t="n">
-        <v>0.5015865126872228</v>
+        <v>0.3616608565876588</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0583638094178674</v>
+        <v>0.130612991864472</v>
       </c>
       <c r="L146" t="n">
-        <v>0.8093877977900119</v>
+        <v>0.5757558499772681</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06038541256890648</v>
+        <v>0.1305415453370095</v>
       </c>
       <c r="N146" t="n">
-        <v>1.102896468631739</v>
+        <v>0.7894552290687923</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06467263043020803</v>
+        <v>0.1307420969930445</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1311808148341496</v>
+        <v>0.09141238654111099</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05916592936939435</v>
+        <v>0.1307310219065526</v>
       </c>
       <c r="J147" t="n">
-        <v>0.5065293711662007</v>
+        <v>0.3646467192438946</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05908435027487811</v>
+        <v>0.1322254979368729</v>
       </c>
       <c r="L147" t="n">
-        <v>0.8114420424852937</v>
+        <v>0.5818417254797843</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06113091148951027</v>
+        <v>0.1321531693535158</v>
       </c>
       <c r="N147" t="n">
-        <v>1.113583536950366</v>
+        <v>0.7958890937057251</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06547105796638344</v>
+        <v>0.1323561969559216</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1244759606984428</v>
+        <v>0.08860888118622161</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05988746509341135</v>
+        <v>0.1323253026615106</v>
       </c>
       <c r="J148" t="n">
-        <v>0.5048451220823237</v>
+        <v>0.3640464796285153</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05980489113188881</v>
+        <v>0.1338380040092738</v>
       </c>
       <c r="L148" t="n">
-        <v>0.8040802110804288</v>
+        <v>0.581608218319879</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06187641041011404</v>
+        <v>0.1337647933700221</v>
       </c>
       <c r="N148" t="n">
-        <v>1.104168022990766</v>
+        <v>0.7993743288276957</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06626948550255884</v>
+        <v>0.1339702969187987</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1347116330350019</v>
+        <v>0.08783113201971944</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06060900081742835</v>
+        <v>0.1339195834164686</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5091629219036786</v>
+        <v>0.3633532622327841</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06052543198889953</v>
+        <v>0.1354505100816746</v>
       </c>
       <c r="L149" t="n">
-        <v>0.809264147139271</v>
+        <v>0.5837443891180361</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06262190933071783</v>
+        <v>0.1353764173865284</v>
       </c>
       <c r="N149" t="n">
-        <v>1.11334998969625</v>
+        <v>0.7911958506006204</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06706791303873426</v>
+        <v>0.1355843968816758</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1368833805402593</v>
+        <v>0.09407735259876394</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06133053654144536</v>
+        <v>0.1355138641714265</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5080598666249991</v>
+        <v>0.3643601915479634</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06124597284591023</v>
+        <v>0.1370630161540755</v>
       </c>
       <c r="L150" t="n">
-        <v>0.8063298243306616</v>
+        <v>0.5800392984947389</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06336740825132162</v>
+        <v>0.1369880414030347</v>
       </c>
       <c r="N150" t="n">
-        <v>1.113029500010128</v>
+        <v>0.7974385751904157</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06786634057490967</v>
+        <v>0.1371984968445528</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1300198975544733</v>
+        <v>0.09334575648051462</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06205207226546236</v>
+        <v>0.1371081449263845</v>
       </c>
       <c r="J151" t="n">
-        <v>0.5056270173304017</v>
+        <v>0.3670603920653165</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06196651370292094</v>
+        <v>0.1386755222264764</v>
       </c>
       <c r="L151" t="n">
-        <v>0.8086772202141068</v>
+        <v>0.5863820070704713</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0641129071719254</v>
+        <v>0.1385996654195409</v>
       </c>
       <c r="N151" t="n">
-        <v>1.102806616875709</v>
+        <v>0.7981874187629981</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06866476811108507</v>
+        <v>0.1388125968074299</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1251544298692137</v>
+        <v>0.08663455722213088</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06277360798947935</v>
+        <v>0.1387024256813424</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5051026706097422</v>
+        <v>0.368246988276106</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06268705455993165</v>
+        <v>0.1402880282988773</v>
       </c>
       <c r="L152" t="n">
-        <v>0.8077063123491119</v>
+        <v>0.5885615754657167</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06485840609252919</v>
+        <v>0.1402112894360472</v>
       </c>
       <c r="N152" t="n">
-        <v>1.111681403236304</v>
+        <v>0.804227297484284</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06946319564726049</v>
+        <v>0.140426696770307</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1332865126786186</v>
+        <v>0.08994196838077227</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06349514371349636</v>
+        <v>0.1402967064363004</v>
       </c>
       <c r="J153" t="n">
-        <v>0.5044950206766704</v>
+        <v>0.3698131046715951</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06340759541694237</v>
+        <v>0.1419005343712782</v>
       </c>
       <c r="L153" t="n">
-        <v>0.8095170782951835</v>
+        <v>0.583467064300959</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06560390501313297</v>
+        <v>0.1418229134525535</v>
       </c>
       <c r="N153" t="n">
-        <v>1.109553922035223</v>
+        <v>0.8000431275201897</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07026162318343589</v>
+        <v>0.1420407967331841</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1254159091953567</v>
+        <v>0.08727954877046</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06421667943751337</v>
+        <v>0.1418909871912584</v>
       </c>
       <c r="J154" t="n">
-        <v>0.5038098754889523</v>
+        <v>0.3712518657430464</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06412813627395307</v>
+        <v>0.1435130404436791</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8085094956118279</v>
+        <v>0.5884875341966813</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06634940393373674</v>
+        <v>0.1434345374690598</v>
       </c>
       <c r="N154" t="n">
-        <v>1.105524236215777</v>
+        <v>0.8070198250366308</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0710600507196113</v>
+        <v>0.1436548966960612</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1255423826320964</v>
+        <v>0.09785821809235738</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06493821516153038</v>
+        <v>0.1434852679462163</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5045530430043547</v>
+        <v>0.3706574557514322</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06484867713096377</v>
+        <v>0.14512554651608</v>
       </c>
       <c r="L155" t="n">
-        <v>0.810683541858551</v>
+        <v>0.5911220967704689</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06709490285434053</v>
+        <v>0.1450461614855661</v>
       </c>
       <c r="N155" t="n">
-        <v>1.109992408721274</v>
+        <v>0.8094423061995245</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0718584782557867</v>
+        <v>0.1452689966589383</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1366656962015063</v>
+        <v>0.09271015259054428</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06565975088554739</v>
+        <v>0.1450795487011743</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5036303311806439</v>
+        <v>0.3716570073267363</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06556921798797448</v>
+        <v>0.1467380525884809</v>
       </c>
       <c r="L156" t="n">
-        <v>0.8095391945948585</v>
+        <v>0.5946598097071563</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06784040177494431</v>
+        <v>0.1466577855020724</v>
       </c>
       <c r="N156" t="n">
-        <v>1.105358502495026</v>
+        <v>0.8134249419580527</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07265690579196211</v>
+        <v>0.1468830966218154</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1357856131162548</v>
+        <v>0.09978142386739862</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06638128660956438</v>
+        <v>0.1466738294561322</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5065475479755861</v>
+        <v>0.3767445381499432</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0662897588449852</v>
+        <v>0.1483505586608817</v>
       </c>
       <c r="L157" t="n">
-        <v>0.8101764313802566</v>
+        <v>0.5993099955954606</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0685859006955481</v>
+        <v>0.1482694095185787</v>
       </c>
       <c r="N157" t="n">
-        <v>1.106322580480342</v>
+        <v>0.8191346147442825</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07345533332813753</v>
+        <v>0.1484971965846925</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1369018965890105</v>
+        <v>0.1030181035252982</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06710282233358139</v>
+        <v>0.1482681102110902</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5032105013469481</v>
+        <v>0.3814124932069117</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0670102997019959</v>
+        <v>0.1499630647332826</v>
       </c>
       <c r="L158" t="n">
-        <v>0.8094952297742513</v>
+        <v>0.6082424209709159</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06933139961615188</v>
+        <v>0.149881033535085</v>
       </c>
       <c r="N158" t="n">
-        <v>1.106984705620533</v>
+        <v>0.8333220106433775</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07425376086431293</v>
+        <v>0.1501112965475696</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.138014309832442</v>
+        <v>0.1053662631666209</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06782435805759839</v>
+        <v>0.1498623909660482</v>
       </c>
       <c r="J159" t="n">
-        <v>0.503924999252496</v>
+        <v>0.3824533174835004</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06773084055900661</v>
+        <v>0.1515755708056835</v>
       </c>
       <c r="L159" t="n">
-        <v>0.8137955673363488</v>
+        <v>0.6101268523690555</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07007689853675567</v>
+        <v>0.1514926575515912</v>
       </c>
       <c r="N159" t="n">
-        <v>1.109444940858909</v>
+        <v>0.8388317851104844</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07505218840048833</v>
+        <v>0.1517253965104467</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1371226160592177</v>
+        <v>0.1047719743937447</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06854589378161539</v>
+        <v>0.1514566717210061</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5049968496499965</v>
+        <v>0.389559455965568</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06845138141601731</v>
+        <v>0.1531880768780844</v>
       </c>
       <c r="L160" t="n">
-        <v>0.8114774216260552</v>
+        <v>0.6154330563254136</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07082239745735945</v>
+        <v>0.1531042815680975</v>
       </c>
       <c r="N160" t="n">
-        <v>1.10280334913878</v>
+        <v>0.844908593600748</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07585061593666374</v>
+        <v>0.1533394964733238</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.138226578482006</v>
+        <v>0.09918130880904717</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0692674295056324</v>
+        <v>0.1530509524759641</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5043318604972157</v>
+        <v>0.3929233536389731</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06917192227302803</v>
+        <v>0.1548005829504853</v>
       </c>
       <c r="L161" t="n">
-        <v>0.8101407702028762</v>
+        <v>0.6309307993755233</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07156789637796324</v>
+        <v>0.1547159055846039</v>
       </c>
       <c r="N161" t="n">
-        <v>1.105859993403456</v>
+        <v>0.8610970915693151</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07664904347283916</v>
+        <v>0.1549535964362009</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1253259603134758</v>
+        <v>0.1085403380149065</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06998896522964941</v>
+        <v>0.154645233230922</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5039358397519201</v>
+        <v>0.3976374554895747</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06989246313003873</v>
+        <v>0.1564130890228862</v>
       </c>
       <c r="L162" t="n">
-        <v>0.8176855906263185</v>
+        <v>0.6362898480549186</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07231339529856702</v>
+        <v>0.1563275296011101</v>
       </c>
       <c r="N162" t="n">
-        <v>1.109814936596246</v>
+        <v>0.8692419344713304</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07744747100901456</v>
+        <v>0.1565676963990779</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1324205247662953</v>
+        <v>0.1027951336137003</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07071050095366642</v>
+        <v>0.15623951398588</v>
       </c>
       <c r="J163" t="n">
-        <v>0.5026145953718762</v>
+        <v>0.4054942065032316</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07061300398704944</v>
+        <v>0.1580255950952871</v>
       </c>
       <c r="L163" t="n">
-        <v>0.8140118604558875</v>
+        <v>0.6438799688991332</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07305889421917081</v>
+        <v>0.1579391536176164</v>
       </c>
       <c r="N163" t="n">
-        <v>1.107468241660463</v>
+        <v>0.8773877777619404</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07824589854518997</v>
+        <v>0.158181796361955</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1365100350531332</v>
+        <v>0.1008917939054595</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07143203667768341</v>
+        <v>0.1578337947408379</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4984739353148506</v>
+        <v>0.4100860516658023</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07133354484406015</v>
+        <v>0.159638101167688</v>
       </c>
       <c r="L164" t="n">
-        <v>0.813019557251089</v>
+        <v>0.6489709284437006</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07380439313977459</v>
+        <v>0.1595507776341227</v>
       </c>
       <c r="N164" t="n">
-        <v>1.108314577410962</v>
+        <v>0.8893792768962904</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07904432608136538</v>
+        <v>0.1597958963248321</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.136594254386658</v>
+        <v>0.1028819245605493</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07215357240170042</v>
+        <v>0.1594280754957959</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4977196675386095</v>
+        <v>0.4112054359631455</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07205408570107086</v>
+        <v>0.1612506072400889</v>
       </c>
       <c r="L165" t="n">
-        <v>0.8164086585714301</v>
+        <v>0.6592324932241547</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07454989206037838</v>
+        <v>0.161162401650629</v>
       </c>
       <c r="N165" t="n">
-        <v>1.102334241862975</v>
+        <v>0.9064610873295268</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07984275361754078</v>
+        <v>0.1614099962877092</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.131672945979538</v>
+        <v>0.1138480010679138</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07287510812571742</v>
+        <v>0.1610223562507539</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4971576000009194</v>
+        <v>0.4177468691768836</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07277462655808158</v>
+        <v>0.1628631133124897</v>
       </c>
       <c r="L166" t="n">
-        <v>0.8128791419764159</v>
+        <v>0.6679784980172678</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07529539098098215</v>
+        <v>0.1627740256671353</v>
       </c>
       <c r="N166" t="n">
-        <v>1.103983798529704</v>
+        <v>0.9150973686830092</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08064118115371618</v>
+        <v>0.1630240962505863</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1277458730444421</v>
+        <v>0.1017917341986383</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07359664384973442</v>
+        <v>0.1626166370057118</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4953935406595467</v>
+        <v>0.4226914978897242</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07349516741509228</v>
+        <v>0.1644756193848906</v>
       </c>
       <c r="L167" t="n">
-        <v>0.8168309850255528</v>
+        <v>0.6694761395140547</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07604088990158593</v>
+        <v>0.1643856496836416</v>
       </c>
       <c r="N167" t="n">
-        <v>1.11127092516105</v>
+        <v>0.9232962065074278</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0814396086898916</v>
+        <v>0.1646381962134634</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1338127987940386</v>
+        <v>0.1157148347238083</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07431817957375142</v>
+        <v>0.1642109177606698</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4959332974722576</v>
+        <v>0.424750396508087</v>
       </c>
       <c r="K168" t="n">
-        <v>0.074215708272103</v>
+        <v>0.1660881254572915</v>
       </c>
       <c r="L168" t="n">
-        <v>0.8124641652783466</v>
+        <v>0.6785378603861205</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07678638882218972</v>
+        <v>0.1659972737001479</v>
       </c>
       <c r="N168" t="n">
-        <v>1.104403299506915</v>
+        <v>0.9311057674856876</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08223803622606701</v>
+        <v>0.1662522961763405</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.126873486440996</v>
+        <v>0.1066190134145091</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07503971529776844</v>
+        <v>0.1658051985156277</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4976826783968189</v>
+        <v>0.4297301493017164</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0749362491291137</v>
+        <v>0.1677006315296924</v>
       </c>
       <c r="L169" t="n">
-        <v>0.819578660294304</v>
+        <v>0.6788741366328896</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0775318877427935</v>
+        <v>0.1676088977166542</v>
       </c>
       <c r="N169" t="n">
-        <v>1.101688599317204</v>
+        <v>0.9349404965172404</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08303646376224241</v>
+        <v>0.1678663961392176</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1359276991979829</v>
+        <v>0.1055059810418261</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07576125102178544</v>
+        <v>0.1673994792705857</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4960474913909967</v>
+        <v>0.4318373405403565</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07565678998612441</v>
+        <v>0.1693131376020933</v>
       </c>
       <c r="L170" t="n">
-        <v>0.8189744476329304</v>
+        <v>0.6875954442537862</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07827738666339729</v>
+        <v>0.1692205217331605</v>
       </c>
       <c r="N170" t="n">
-        <v>1.099134502341817</v>
+        <v>0.9379148385015376</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08383489129841781</v>
+        <v>0.1694804961020947</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1339752002776678</v>
+        <v>0.1103774483768447</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07648278674580244</v>
+        <v>0.1689937600255437</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4962335444125577</v>
+        <v>0.4368785544937518</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07637733084313511</v>
+        <v>0.1709256436744942</v>
       </c>
       <c r="L171" t="n">
-        <v>0.8176515048537321</v>
+        <v>0.6936122592482343</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07902288558400107</v>
+        <v>0.1708321457496667</v>
       </c>
       <c r="N171" t="n">
-        <v>1.103448686330658</v>
+        <v>0.9542432383380298</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08463331883459324</v>
+        <v>0.1710945960649718</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1270157528927193</v>
+        <v>0.1062351261906503</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07720432246981945</v>
+        <v>0.1705880407805016</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4918466454192681</v>
+        <v>0.4374603754316462</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07709787170014583</v>
+        <v>0.1725381497468951</v>
       </c>
       <c r="L172" t="n">
-        <v>0.817409809516215</v>
+        <v>0.6953350576156581</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07976838450460484</v>
+        <v>0.172443769766173</v>
       </c>
       <c r="N172" t="n">
-        <v>1.104038829033629</v>
+        <v>0.9617401409261691</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08543174637076864</v>
+        <v>0.1727086960278489</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1280491202558058</v>
+        <v>0.1180807252543282</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07792585819383645</v>
+        <v>0.1721823215354596</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4933926023688945</v>
+        <v>0.4393893876237841</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07781841255715653</v>
+        <v>0.174150655819296</v>
       </c>
       <c r="L173" t="n">
-        <v>0.8207493391798852</v>
+        <v>0.7035743153554819</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08051388342520864</v>
+        <v>0.1740553937826793</v>
       </c>
       <c r="N173" t="n">
-        <v>1.104912608200633</v>
+        <v>0.9666199911654064</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08623017390694404</v>
+        <v>0.1743227959907259</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1290750655795959</v>
+        <v>0.1199159563389639</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07864739391785346</v>
+        <v>0.1737766022904176</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4942772232192032</v>
+        <v>0.44377217533991</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07853895341416724</v>
+        <v>0.1757631618916969</v>
       </c>
       <c r="L174" t="n">
-        <v>0.8183700714042492</v>
+        <v>0.7066405084671294</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08125938234581243</v>
+        <v>0.1756670177991856</v>
       </c>
       <c r="N174" t="n">
-        <v>1.102077701581572</v>
+        <v>0.9745972339551933</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08702860144311945</v>
+        <v>0.175936895953603</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.138093352076758</v>
+        <v>0.1157425302156427</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07936892964187045</v>
+        <v>0.1753708830453755</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4915063159279607</v>
+        <v>0.4491153228497677</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07925949427117794</v>
+        <v>0.1773756679640977</v>
       </c>
       <c r="L175" t="n">
-        <v>0.8167719837488121</v>
+        <v>0.712444112950025</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08200488126641621</v>
+        <v>0.1772786418156919</v>
       </c>
       <c r="N175" t="n">
-        <v>1.099441786926349</v>
+        <v>0.976186314194981</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08782702897929487</v>
+        <v>0.1775509959164801</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1271037429599609</v>
+        <v>0.1155695623522583</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08009046536588747</v>
+        <v>0.1769651638003334</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4908856884529331</v>
+        <v>0.4484254144231018</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07998003512818866</v>
+        <v>0.1789881740364986</v>
       </c>
       <c r="L176" t="n">
-        <v>0.8140550537730806</v>
+        <v>0.7183956048035931</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08275038018702</v>
+        <v>0.1788902658321982</v>
       </c>
       <c r="N176" t="n">
-        <v>1.094012541984867</v>
+        <v>0.9797016767842209</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08862545651547027</v>
+        <v>0.1791650958793572</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1271054118802448</v>
+        <v>0.1224430616193286</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08081200108990447</v>
+        <v>0.1785594445552914</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4908211487518873</v>
+        <v>0.4550372294164453</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08070057598519936</v>
+        <v>0.1806006801088995</v>
       </c>
       <c r="L177" t="n">
-        <v>0.8212192590365606</v>
+        <v>0.7222600702330002</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08349587910762378</v>
+        <v>0.1805018898487045</v>
       </c>
       <c r="N177" t="n">
-        <v>1.092397644507027</v>
+        <v>0.9926985368717375</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08942388405164567</v>
+        <v>0.1807791958422343</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1280829371402261</v>
+        <v>0.1163464703546002</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08153353681392148</v>
+        <v>0.1801537253102494</v>
       </c>
       <c r="J178" t="n">
-        <v>0.4899080382786808</v>
+        <v>0.4588252736100547</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08142111684221007</v>
+        <v>0.1822131861813004</v>
       </c>
       <c r="L178" t="n">
-        <v>0.8159645770987582</v>
+        <v>0.7307097934629367</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08424137802822755</v>
+        <v>0.1821135138652108</v>
       </c>
       <c r="N178" t="n">
-        <v>1.097304772242733</v>
+        <v>0.9968653071158836</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09022231158782108</v>
+        <v>0.1823932958051114</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1340305340568121</v>
+        <v>0.1162504005281617</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08225507253793847</v>
+        <v>0.1817480060652073</v>
       </c>
       <c r="J179" t="n">
-        <v>0.4886179449500669</v>
+        <v>0.4624252426585623</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08214165769922077</v>
+        <v>0.1838256922537013</v>
       </c>
       <c r="L179" t="n">
-        <v>0.8188909855191797</v>
+        <v>0.7296292234290866</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08498687694883134</v>
+        <v>0.1837251378817171</v>
       </c>
       <c r="N179" t="n">
-        <v>1.088641602941887</v>
+        <v>1.002598453890011</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0910207391239965</v>
+        <v>0.1840073957679885</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1289494712829089</v>
+        <v>0.1241254641101015</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08297660826195548</v>
+        <v>0.1833422868201653</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4922476672173152</v>
+        <v>0.4642240304206251</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08286219855623149</v>
+        <v>0.1854381983261022</v>
       </c>
       <c r="L180" t="n">
-        <v>0.8160975905305075</v>
+        <v>0.7368384009381599</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08573237586943512</v>
+        <v>0.1853367618982233</v>
       </c>
       <c r="N180" t="n">
-        <v>1.083615814354391</v>
+        <v>1.014249839298423</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0918191666601719</v>
+        <v>0.1856214957308656</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1318410174714223</v>
+        <v>0.1199422730705081</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08369814398597249</v>
+        <v>0.1849365675751233</v>
       </c>
       <c r="J181" t="n">
-        <v>0.4893959017794998</v>
+        <v>0.4672085307548995</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08358273941324219</v>
+        <v>0.187050704398503</v>
       </c>
       <c r="L181" t="n">
-        <v>0.813892384270368</v>
+        <v>0.7417573667968662</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08647787479003891</v>
+        <v>0.1869483859147296</v>
       </c>
       <c r="N181" t="n">
-        <v>1.089735084230149</v>
+        <v>1.014871325445423</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09261759419634731</v>
+        <v>0.1872355956937427</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1307064412752581</v>
+        <v>0.11867143937947</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08441967970998948</v>
+        <v>0.1865308483300812</v>
       </c>
       <c r="J182" t="n">
-        <v>0.4892613453356949</v>
+        <v>0.4677656375200423</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08430328027025291</v>
+        <v>0.188663210470904</v>
       </c>
       <c r="L182" t="n">
-        <v>0.8175179946898101</v>
+        <v>0.7523061618119147</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08722337371064269</v>
+        <v>0.1885600099312359</v>
       </c>
       <c r="N182" t="n">
-        <v>1.085707090319063</v>
+        <v>1.022114774435317</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09341602173252272</v>
+        <v>0.1888496956566198</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1355470113473224</v>
+        <v>0.1262835750070757</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0851412154340065</v>
+        <v>0.1881251290850392</v>
       </c>
       <c r="J183" t="n">
-        <v>0.4917426945849749</v>
+        <v>0.47138224457471</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08502382112726362</v>
+        <v>0.1902757165433048</v>
       </c>
       <c r="L183" t="n">
-        <v>0.8155806954552263</v>
+        <v>0.7543048267900161</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08796887263124648</v>
+        <v>0.1901716339477422</v>
       </c>
       <c r="N183" t="n">
-        <v>1.079139510371034</v>
+        <v>1.030332048372407</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09421444926869812</v>
+        <v>0.1904637956194969</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1303639963405209</v>
+        <v>0.1287492919234136</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0858627511580235</v>
+        <v>0.1897194098399971</v>
       </c>
       <c r="J184" t="n">
-        <v>0.4895386462264137</v>
+        <v>0.4773452457775595</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08574436198427433</v>
+        <v>0.1918882226157057</v>
       </c>
       <c r="L184" t="n">
-        <v>0.8189867602330085</v>
+        <v>0.756073402537879</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08871437155185025</v>
+        <v>0.1917832579642485</v>
       </c>
       <c r="N184" t="n">
-        <v>1.075340022135967</v>
+        <v>1.042875009360997</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09501287680487353</v>
+        <v>0.192077895582374</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1251586649077597</v>
+        <v>0.117087383362277</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08658428688204051</v>
+        <v>0.1913136905949551</v>
       </c>
       <c r="J185" t="n">
-        <v>0.487047896959086</v>
+        <v>0.4786415349872475</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08646490284128504</v>
+        <v>0.1935007286881066</v>
       </c>
       <c r="L185" t="n">
-        <v>0.8190424626895489</v>
+        <v>0.7575319298622134</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08945987047245403</v>
+        <v>0.1933948819807548</v>
       </c>
       <c r="N185" t="n">
-        <v>1.073516303363762</v>
+        <v>1.040695519505392</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09581130434104894</v>
+        <v>0.193691995545251</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1339322857019445</v>
+        <v>0.1224118777279744</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0873058226060575</v>
+        <v>0.1929079713499131</v>
       </c>
       <c r="J186" t="n">
-        <v>0.4882691434820656</v>
+        <v>0.4756962814017689</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08718544369829574</v>
+        <v>0.1951132347605075</v>
       </c>
       <c r="L186" t="n">
-        <v>0.8141540764912401</v>
+        <v>0.761621567680236</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09020536939305783</v>
+        <v>0.1950065059972611</v>
       </c>
       <c r="N186" t="n">
-        <v>1.078076031804323</v>
+        <v>1.04127172338725</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09660973187722435</v>
+        <v>0.1953060955081281</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1356861273759812</v>
+        <v>0.1287293386482746</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08802735833007451</v>
+        <v>0.194502252104871</v>
       </c>
       <c r="J187" t="n">
-        <v>0.4861010824944269</v>
+        <v>0.4768140985476246</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08790598455530645</v>
+        <v>0.1967257408329084</v>
       </c>
       <c r="L187" t="n">
-        <v>0.8117278753044741</v>
+        <v>0.7612595180967028</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09095086831366161</v>
+        <v>0.1966181300137674</v>
       </c>
       <c r="N187" t="n">
-        <v>1.078626885207554</v>
+        <v>1.049542617153794</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09740815941339975</v>
+        <v>0.1969201954710052</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1294214585827758</v>
+        <v>0.1230396579712508</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08874889405409152</v>
+        <v>0.196096532859829</v>
       </c>
       <c r="J188" t="n">
-        <v>0.4858424106952439</v>
+        <v>0.4778051026378842</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08862652541231716</v>
+        <v>0.1983382469053093</v>
       </c>
       <c r="L188" t="n">
-        <v>0.8133701327956433</v>
+        <v>0.7635547559468812</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0916963672342654</v>
+        <v>0.1982297540302737</v>
       </c>
       <c r="N188" t="n">
-        <v>1.076176541323355</v>
+        <v>1.046054814623143</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09820658694957517</v>
+        <v>0.1985342954338823</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1331395479752343</v>
+        <v>0.1233427275449761</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08947042977810851</v>
+        <v>0.1976908136147869</v>
       </c>
       <c r="J189" t="n">
-        <v>0.4896918247835911</v>
+        <v>0.4799688774266424</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08934706626932787</v>
+        <v>0.1999507529777102</v>
       </c>
       <c r="L189" t="n">
-        <v>0.8143871226311399</v>
+        <v>0.7701066189565888</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09244186615486918</v>
+        <v>0.19984137804678</v>
       </c>
       <c r="N189" t="n">
-        <v>1.071932677901629</v>
+        <v>1.048007402614266</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09900501448575057</v>
+        <v>0.2001483953967594</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1308416642062622</v>
+        <v>0.1276384392175238</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09019196550212553</v>
+        <v>0.1992850943697449</v>
       </c>
       <c r="J190" t="n">
-        <v>0.4876480214585425</v>
+        <v>0.4818050066679939</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09006760712633857</v>
+        <v>0.2015632590501111</v>
       </c>
       <c r="L190" t="n">
-        <v>0.8127851184773562</v>
+        <v>0.770314444851643</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09318736507547296</v>
+        <v>0.2014530020632863</v>
       </c>
       <c r="N190" t="n">
-        <v>1.06830297269228</v>
+        <v>1.057599467946128</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09980344202192598</v>
+        <v>0.2017624953596365</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1365290759287658</v>
+        <v>0.1309266848369672</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09091350122614253</v>
+        <v>0.2008793751247028</v>
       </c>
       <c r="J191" t="n">
-        <v>0.4894096974191724</v>
+        <v>0.4844130741160331</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09078814798334928</v>
+        <v>0.203175765122512</v>
       </c>
       <c r="L191" t="n">
-        <v>0.8071703940006842</v>
+        <v>0.7689775713578604</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09393286399607674</v>
+        <v>0.2030646260797926</v>
       </c>
       <c r="N191" t="n">
-        <v>1.069195103445209</v>
+        <v>1.058830097437696</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1006018695581014</v>
+        <v>0.2033765953225136</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1312030517956508</v>
+        <v>0.1232073562513794</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09163503695015954</v>
+        <v>0.2024736558796608</v>
       </c>
       <c r="J192" t="n">
-        <v>0.4843755493645548</v>
+        <v>0.4845926635248549</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09150868884035999</v>
+        <v>0.2047882711949129</v>
       </c>
       <c r="L192" t="n">
-        <v>0.8040492228675165</v>
+        <v>0.7734953362010586</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09467836291668053</v>
+        <v>0.2046762500962988</v>
       </c>
       <c r="N192" t="n">
-        <v>1.06541674791032</v>
+        <v>1.056798377907936</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1014002970942768</v>
+        <v>0.2049906952853907</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1328648604598231</v>
+        <v>0.1254803453088338</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09235657267417653</v>
+        <v>0.2040679366346188</v>
       </c>
       <c r="J193" t="n">
-        <v>0.4869442739937644</v>
+        <v>0.4882433586485538</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0922292296973707</v>
+        <v>0.2064007772673137</v>
       </c>
       <c r="L193" t="n">
-        <v>0.8031278787442451</v>
+        <v>0.7707670771070538</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09542386183728431</v>
+        <v>0.2062878741128051</v>
       </c>
       <c r="N193" t="n">
-        <v>1.060775583837514</v>
+        <v>1.066503396175816</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1021987246304522</v>
+        <v>0.2066047952482678</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1355157705741886</v>
+        <v>0.1237455438574034</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09307810839819354</v>
+        <v>0.2056622173895767</v>
       </c>
       <c r="J194" t="n">
-        <v>0.486814568005875</v>
+        <v>0.4882647432412249</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0929497705543814</v>
+        <v>0.2080132833397146</v>
       </c>
       <c r="L194" t="n">
-        <v>0.8005126352972627</v>
+        <v>0.7763921318016644</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09616936075788809</v>
+        <v>0.2078994981293114</v>
       </c>
       <c r="N194" t="n">
-        <v>1.059579288976694</v>
+        <v>1.068444239060301</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1029971521666276</v>
+        <v>0.2082188952111449</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1331570507916533</v>
+        <v>0.1280028437451616</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09379964412221053</v>
+        <v>0.2072564981445347</v>
       </c>
       <c r="J195" t="n">
-        <v>0.4848851280999609</v>
+        <v>0.4859564010569625</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09367031141139212</v>
+        <v>0.2096257894121155</v>
       </c>
       <c r="L195" t="n">
-        <v>0.8035097661929609</v>
+        <v>0.7783698380107071</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09691485967849188</v>
+        <v>0.2095111221458177</v>
       </c>
       <c r="N195" t="n">
-        <v>1.053635541077764</v>
+        <v>1.063919993380358</v>
       </c>
       <c r="O195" t="n">
-        <v>0.103795579702803</v>
+        <v>0.209832995174022</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.126789969765123</v>
+        <v>0.1272521368201815</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09452117984622754</v>
+        <v>0.2088507788994927</v>
       </c>
       <c r="J196" t="n">
-        <v>0.4868546509750962</v>
+        <v>0.489617915849861</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09439085226840283</v>
+        <v>0.2112382954845164</v>
       </c>
       <c r="L196" t="n">
-        <v>0.8002255450977325</v>
+        <v>0.7775995334599983</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09766035859909566</v>
+        <v>0.211122746162324</v>
       </c>
       <c r="N196" t="n">
-        <v>1.054552017890625</v>
+        <v>1.063429745954954</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1045940072389784</v>
+        <v>0.211447095136899</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1224157961475035</v>
+        <v>0.1274933149305364</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09524271557024455</v>
+        <v>0.2104450596544506</v>
       </c>
       <c r="J197" t="n">
-        <v>0.4850218333303553</v>
+        <v>0.4895488713740157</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09511139312541354</v>
+        <v>0.2128508015569173</v>
       </c>
       <c r="L197" t="n">
-        <v>0.7944662456779692</v>
+        <v>0.7769805558753562</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09840585751969944</v>
+        <v>0.2127343701788303</v>
       </c>
       <c r="N197" t="n">
-        <v>1.054536397165179</v>
+        <v>1.066972583603055</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1053924347751538</v>
+        <v>0.2130611950997761</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1230357985917009</v>
+        <v>0.1217262699242995</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09596425129426156</v>
+        <v>0.2120393404094086</v>
       </c>
       <c r="J198" t="n">
-        <v>0.4838853718648124</v>
+        <v>0.488848851383521</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09583193398242425</v>
+        <v>0.2144633076293181</v>
       </c>
       <c r="L198" t="n">
-        <v>0.7961381416000639</v>
+        <v>0.7785122429825977</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09915135644030322</v>
+        <v>0.2143459941953366</v>
       </c>
       <c r="N198" t="n">
-        <v>1.048796356651331</v>
+        <v>1.071047593143629</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1061908623113292</v>
+        <v>0.2146752950626532</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.132651245750621</v>
+        <v>0.1239508936495441</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09668578701827857</v>
+        <v>0.2136336211643665</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4833439632775417</v>
+        <v>0.4923174396324714</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09655247483943497</v>
+        <v>0.2160758137017191</v>
       </c>
       <c r="L199" t="n">
-        <v>0.7964475065304084</v>
+        <v>0.7794939325075396</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09989685536090702</v>
+        <v>0.2159576182118429</v>
       </c>
       <c r="N199" t="n">
-        <v>1.047439574098981</v>
+        <v>1.07985386139564</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1069892898475046</v>
+        <v>0.2162893950255303</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1272634062771696</v>
+        <v>0.1301670779543433</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09740732274229556</v>
+        <v>0.2152279019193245</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4843963042676173</v>
+        <v>0.4920542198749618</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09727301569644567</v>
+        <v>0.21768831977412</v>
       </c>
       <c r="L200" t="n">
-        <v>0.7932006141353949</v>
+        <v>0.7812249621759995</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1006423542815108</v>
+        <v>0.2175692422283492</v>
       </c>
       <c r="N200" t="n">
-        <v>1.053473727258032</v>
+        <v>1.075390475178057</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1077877173836801</v>
+        <v>0.2179034949884074</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1318735488242527</v>
+        <v>0.1273747146867704</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09812885846631257</v>
+        <v>0.2168221826742824</v>
       </c>
       <c r="J201" t="n">
-        <v>0.4856410915341133</v>
+        <v>0.4909587758650867</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09799355655345637</v>
+        <v>0.2193008258465208</v>
       </c>
       <c r="L201" t="n">
-        <v>0.7851037380814161</v>
+        <v>0.7843046697137939</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1013878532021146</v>
+        <v>0.2191808662448554</v>
       </c>
       <c r="N201" t="n">
-        <v>1.046806493878388</v>
+        <v>1.077656521309845</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1085861449198555</v>
+        <v>0.2195175949512845</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1284829420447762</v>
+        <v>0.1305736956948986</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09885039419032957</v>
+        <v>0.2184164634292404</v>
       </c>
       <c r="J202" t="n">
-        <v>0.4868770217761044</v>
+        <v>0.4924306913569411</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09871409741046708</v>
+        <v>0.2209133319189217</v>
       </c>
       <c r="L202" t="n">
-        <v>0.783763152034864</v>
+        <v>0.7871323928467406</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1021333521227184</v>
+        <v>0.2207924902613617</v>
       </c>
       <c r="N202" t="n">
-        <v>1.042135940538048</v>
+        <v>1.080051086609971</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1093845724560309</v>
+        <v>0.2211316949141616</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1230928545916459</v>
+        <v>0.1297639128268012</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09957192991434657</v>
+        <v>0.2200107441841984</v>
       </c>
       <c r="J203" t="n">
-        <v>0.4834027916926644</v>
+        <v>0.4947695501046192</v>
       </c>
       <c r="K203" t="n">
-        <v>0.0994346382674778</v>
+        <v>0.2225258379913226</v>
       </c>
       <c r="L203" t="n">
-        <v>0.7818851296621305</v>
+        <v>0.7842074693006562</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1028788510433221</v>
+        <v>0.222404114277868</v>
       </c>
       <c r="N203" t="n">
-        <v>1.041587263706721</v>
+        <v>1.086773257897401</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1101829999922063</v>
+        <v>0.2227457948770387</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1197045551177679</v>
+        <v>0.1209452579305513</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1002934656383636</v>
+        <v>0.2216050249391563</v>
       </c>
       <c r="J204" t="n">
-        <v>0.4855170979828676</v>
+        <v>0.494874935862216</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1001551791244885</v>
+        <v>0.2241383440637235</v>
       </c>
       <c r="L204" t="n">
-        <v>0.7775759446296087</v>
+        <v>0.7890292368013583</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1036243499639259</v>
+        <v>0.2240157382943743</v>
       </c>
       <c r="N204" t="n">
-        <v>1.038843126211894</v>
+        <v>1.082322121991103</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1109814275283817</v>
+        <v>0.2243598948399158</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1233193122760478</v>
+        <v>0.1301176228542222</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1010150013623806</v>
+        <v>0.2231993056941143</v>
       </c>
       <c r="J205" t="n">
-        <v>0.4832186373457883</v>
+        <v>0.4950464323838262</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1008757199814992</v>
+        <v>0.2257508501361244</v>
       </c>
       <c r="L205" t="n">
-        <v>0.7793418706036901</v>
+        <v>0.7899970330746642</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1043698488845297</v>
+        <v>0.2256273623108806</v>
       </c>
       <c r="N205" t="n">
-        <v>1.044403653931836</v>
+        <v>1.084096765710043</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1117798550645571</v>
+        <v>0.2259739948027929</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1259383947193917</v>
+        <v>0.1252808994458871</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1017365370863976</v>
+        <v>0.2247935864490722</v>
       </c>
       <c r="J206" t="n">
-        <v>0.4832061064805003</v>
+        <v>0.497083623423544</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1015962608385099</v>
+        <v>0.2273633562085253</v>
       </c>
       <c r="L206" t="n">
-        <v>0.7795891812507674</v>
+        <v>0.7938101958463901</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1051153478051335</v>
+        <v>0.2272389863273869</v>
       </c>
       <c r="N206" t="n">
-        <v>1.045068972744814</v>
+        <v>1.084496275873187</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1125782826007325</v>
+        <v>0.22758809476567</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1305630711007055</v>
+        <v>0.1224349795536192</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1024580728104146</v>
+        <v>0.2263878672040302</v>
       </c>
       <c r="J207" t="n">
-        <v>0.4830782020860785</v>
+        <v>0.4984860927354645</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1023168016955206</v>
+        <v>0.2289758622809261</v>
       </c>
       <c r="L207" t="n">
-        <v>0.7749241502372326</v>
+        <v>0.7943680628423542</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1058608467257373</v>
+        <v>0.2288506103438932</v>
       </c>
       <c r="N207" t="n">
-        <v>1.044439208529094</v>
+        <v>1.088419739299501</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1133767101369079</v>
+        <v>0.2292021947285471</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.125194610072895</v>
+        <v>0.1345797550254919</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1031796085344316</v>
+        <v>0.2279821479589882</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4802336208615966</v>
+        <v>0.4984534240736823</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1030373425525313</v>
+        <v>0.2305883683533271</v>
       </c>
       <c r="L208" t="n">
-        <v>0.7736530512294779</v>
+        <v>0.7950699717883734</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1066063456463411</v>
+        <v>0.2304622343603995</v>
       </c>
       <c r="N208" t="n">
-        <v>1.040414487162944</v>
+        <v>1.089366242807953</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1141751376730833</v>
+        <v>0.2308162946914241</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1298342802888661</v>
+        <v>0.1327151177095781</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1039011442584486</v>
+        <v>0.2295764287139461</v>
       </c>
       <c r="J209" t="n">
-        <v>0.480671059506129</v>
+        <v>0.4961852011922921</v>
       </c>
       <c r="K209" t="n">
-        <v>0.103757883409542</v>
+        <v>0.232200874425728</v>
       </c>
       <c r="L209" t="n">
-        <v>0.7678821578938957</v>
+        <v>0.7975152604102644</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1073518445669448</v>
+        <v>0.2320738583769058</v>
       </c>
       <c r="N209" t="n">
-        <v>1.032694934524632</v>
+        <v>1.091234873217509</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1149735652092587</v>
+        <v>0.2324303946543012</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1174833504015247</v>
+        <v>0.1278409594539513</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1046226799824656</v>
+        <v>0.2311707094689041</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4836892147187499</v>
+        <v>0.4968810078453886</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1044784242665527</v>
+        <v>0.2338133804981288</v>
       </c>
       <c r="L210" t="n">
-        <v>0.7653177438968783</v>
+        <v>0.7956032664338442</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1080973434875486</v>
+        <v>0.233685482393412</v>
       </c>
       <c r="N210" t="n">
-        <v>1.035780676492426</v>
+        <v>1.086624717347136</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1157719927454341</v>
+        <v>0.2340444946171783</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1241430890637768</v>
+        <v>0.1289571721066846</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1053442157064826</v>
+        <v>0.232764990223862</v>
       </c>
       <c r="J211" t="n">
-        <v>0.4789867831985334</v>
+        <v>0.4978404277870663</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1051989651235635</v>
+        <v>0.2354258865705297</v>
       </c>
       <c r="L211" t="n">
-        <v>0.7624660829048178</v>
+        <v>0.7971333275849311</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1088428424081524</v>
+        <v>0.2352971064099184</v>
       </c>
       <c r="N211" t="n">
-        <v>1.037871838944592</v>
+        <v>1.0870348620158</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1165704202816095</v>
+        <v>0.2356585945800554</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1198147649285281</v>
+        <v>0.1350636475158514</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1060657514304996</v>
+        <v>0.23435927097882</v>
       </c>
       <c r="J212" t="n">
-        <v>0.4826624616445538</v>
+        <v>0.5008630447714199</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1059195059805742</v>
+        <v>0.2370383926429306</v>
       </c>
       <c r="L212" t="n">
-        <v>0.7626147285367346</v>
+        <v>0.7986047815893411</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1095883413287562</v>
+        <v>0.2369087304264247</v>
       </c>
       <c r="N212" t="n">
-        <v>1.032268547759397</v>
+        <v>1.097764394042467</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1173688478177849</v>
+        <v>0.2372726945429325</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1154996466486847</v>
+        <v>0.1251602775295246</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1067872871545166</v>
+        <v>0.2359535517337779</v>
       </c>
       <c r="J213" t="n">
-        <v>0.4803149467558854</v>
+        <v>0.5015484425525442</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1066400468375849</v>
+        <v>0.2386508987153315</v>
       </c>
       <c r="L213" t="n">
-        <v>0.7575774291991375</v>
+        <v>0.7939169661728922</v>
       </c>
       <c r="M213" t="n">
-        <v>0.11033384024936</v>
+        <v>0.2385203544429309</v>
       </c>
       <c r="N213" t="n">
-        <v>1.03197092881511</v>
+        <v>1.095612400246105</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1181672753539603</v>
+        <v>0.2388867945058096</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1231915462341722</v>
+        <v>0.1352469539957777</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1075088228785336</v>
+        <v>0.2375478324887359</v>
       </c>
       <c r="J214" t="n">
-        <v>0.4825429352316022</v>
+        <v>0.4988962048845338</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1073605876945956</v>
+        <v>0.2402634047877324</v>
       </c>
       <c r="L214" t="n">
-        <v>0.7551433006537758</v>
+        <v>0.7964692190614007</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1110793391699638</v>
+        <v>0.2401319784594372</v>
       </c>
       <c r="N214" t="n">
-        <v>1.035379107989997</v>
+        <v>1.094377967445679</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1189657028901358</v>
+        <v>0.2405008944686867</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1268827533310928</v>
+        <v>0.1313235687626838</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1082303586025506</v>
+        <v>0.2391421132436939</v>
       </c>
       <c r="J215" t="n">
-        <v>0.4802451237707785</v>
+        <v>0.4999059155214832</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1080811285516063</v>
+        <v>0.2418759108601333</v>
       </c>
       <c r="L215" t="n">
-        <v>0.7553131832903119</v>
+        <v>0.7969608779806847</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1118248380905676</v>
+        <v>0.2417436024759435</v>
       </c>
       <c r="N215" t="n">
-        <v>1.024393211162326</v>
+        <v>1.097760182460156</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1197641304263112</v>
+        <v>0.2421149944315638</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1255732617805049</v>
+        <v>0.1313900136783162</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1089518943265676</v>
+        <v>0.2407363939986518</v>
       </c>
       <c r="J216" t="n">
-        <v>0.4799202090724886</v>
+        <v>0.5023771582174874</v>
       </c>
       <c r="K216" t="n">
-        <v>0.108801669408617</v>
+        <v>0.2434884169325342</v>
       </c>
       <c r="L216" t="n">
-        <v>0.7513879174984113</v>
+        <v>0.7992912806565602</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1125703370111713</v>
+        <v>0.2433552264924498</v>
       </c>
       <c r="N216" t="n">
-        <v>1.025013364210364</v>
+        <v>1.096058132108503</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1205625579624866</v>
+        <v>0.2437290943944409</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1252630693073148</v>
+        <v>0.129446180590748</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1096734300505846</v>
+        <v>0.2423306747536098</v>
       </c>
       <c r="J217" t="n">
-        <v>0.4785653637680858</v>
+        <v>0.5036095167266409</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1095222102656277</v>
+        <v>0.2451009230049351</v>
       </c>
       <c r="L217" t="n">
-        <v>0.751268343667737</v>
+        <v>0.8020597648148451</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1133158359317751</v>
+        <v>0.2449668505089561</v>
       </c>
       <c r="N217" t="n">
-        <v>1.02613969301238</v>
+        <v>1.097970903209688</v>
       </c>
       <c r="O217" t="n">
-        <v>0.121360985498662</v>
+        <v>0.245343194357318</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1159521736364287</v>
+        <v>0.1354919613480526</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1103949657746016</v>
+        <v>0.2439249555085677</v>
       </c>
       <c r="J218" t="n">
-        <v>0.4797092133065303</v>
+        <v>0.4991025748030383</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1102427511226384</v>
+        <v>0.2467134290773359</v>
       </c>
       <c r="L218" t="n">
-        <v>0.7419553021879532</v>
+        <v>0.8008656681813564</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1140613348523789</v>
+        <v>0.2465784745254624</v>
       </c>
       <c r="N218" t="n">
-        <v>1.029372323446639</v>
+        <v>1.093097582582674</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1221594130348374</v>
+        <v>0.2469572943201951</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1266405724927527</v>
+        <v>0.122527247798303</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1111165014986187</v>
+        <v>0.2455192362635257</v>
       </c>
       <c r="J219" t="n">
-        <v>0.4758151683772663</v>
+        <v>0.5027559162007745</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1109632919796491</v>
+        <v>0.2483259351497368</v>
       </c>
       <c r="L219" t="n">
-        <v>0.7395496334487235</v>
+        <v>0.8016083284819115</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1148068337729827</v>
+        <v>0.2481900985419687</v>
       </c>
       <c r="N219" t="n">
-        <v>1.02881138139141</v>
+        <v>1.10093725704643</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1229578405710128</v>
+        <v>0.2485713942830722</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1133282636011931</v>
+        <v>0.1255519317895726</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1118380372226356</v>
+        <v>0.2471135170184837</v>
       </c>
       <c r="J220" t="n">
-        <v>0.4742857897759997</v>
+        <v>0.5019691246739439</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1116838328366598</v>
+        <v>0.2499384412221377</v>
       </c>
       <c r="L220" t="n">
-        <v>0.7410521778397119</v>
+        <v>0.8003870834423272</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1155523326935865</v>
+        <v>0.2498017225584749</v>
       </c>
       <c r="N220" t="n">
-        <v>1.019256992724959</v>
+        <v>1.094589013419923</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1237562681071882</v>
+        <v>0.2501854942459493</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1220152446866558</v>
+        <v>0.1355659051699347</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1125595729466527</v>
+        <v>0.2487077977734416</v>
       </c>
       <c r="J221" t="n">
-        <v>0.4766236382984365</v>
+        <v>0.5024417839766412</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1124043736936705</v>
+        <v>0.2515509472945386</v>
       </c>
       <c r="L221" t="n">
-        <v>0.7357637757505826</v>
+        <v>0.7989012707884211</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1162978316141902</v>
+        <v>0.2514133465749813</v>
       </c>
       <c r="N221" t="n">
-        <v>1.025809283325554</v>
+        <v>1.101251938522118</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1245546956433636</v>
+        <v>0.2517995942088264</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1137015134740473</v>
+        <v>0.1225617530861032</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1132811086706697</v>
+        <v>0.2503020785283996</v>
       </c>
       <c r="J222" t="n">
-        <v>0.4721312747402833</v>
+        <v>0.5033734778629613</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1131249145506812</v>
+        <v>0.2531634533669395</v>
       </c>
       <c r="L222" t="n">
-        <v>0.7333852675709991</v>
+        <v>0.8017502282460096</v>
       </c>
       <c r="M222" t="n">
-        <v>0.117043330534794</v>
+        <v>0.2530249705914875</v>
       </c>
       <c r="N222" t="n">
-        <v>1.015868379071464</v>
+        <v>1.097525119171982</v>
       </c>
       <c r="O222" t="n">
-        <v>0.125353123179539</v>
+        <v>0.2534136941717035</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1213870676882734</v>
+        <v>0.1283267054562395</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1140026443946867</v>
+        <v>0.2518963592833576</v>
       </c>
       <c r="J223" t="n">
-        <v>0.4719112598972459</v>
+        <v>0.5019309309525548</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1138454554076919</v>
+        <v>0.2547759594393404</v>
       </c>
       <c r="L223" t="n">
-        <v>0.7279174936906252</v>
+        <v>0.7952702979025494</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1177888294553978</v>
+        <v>0.2546365946079938</v>
       </c>
       <c r="N223" t="n">
-        <v>1.013334405840954</v>
+        <v>1.092956944281416</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1261515507157144</v>
+        <v>0.2550277941345805</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1220719050542406</v>
+        <v>0.1257873883347406</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1147241801187037</v>
+        <v>0.2534906400383155</v>
       </c>
       <c r="J224" t="n">
-        <v>0.4721661545650305</v>
+        <v>0.501516249837769</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1145659962647027</v>
+        <v>0.2563884655117413</v>
       </c>
       <c r="L224" t="n">
-        <v>0.7271612944991248</v>
+        <v>0.7944170568766855</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1185343283760016</v>
+        <v>0.2562482186245001</v>
       </c>
       <c r="N224" t="n">
-        <v>1.020007489512292</v>
+        <v>1.098841839821893</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1269499782518898</v>
+        <v>0.2566418940974576</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1147560232968549</v>
+        <v>0.130977517369084</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1154457158427207</v>
+        <v>0.2550849207932734</v>
       </c>
       <c r="J225" t="n">
-        <v>0.4677985195393436</v>
+        <v>0.4972133880226636</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1152865371217134</v>
+        <v>0.2580009715841422</v>
       </c>
       <c r="L225" t="n">
-        <v>0.7236175103861622</v>
+        <v>0.7886360222023838</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1192798272966054</v>
+        <v>0.2578598426410064</v>
       </c>
       <c r="N225" t="n">
-        <v>1.012987755963746</v>
+        <v>1.092830543115558</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1277484057880653</v>
+        <v>0.2582559940603347</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1144394201410225</v>
+        <v>0.1199308082067472</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1161672515667377</v>
+        <v>0.2566792015482314</v>
       </c>
       <c r="J226" t="n">
-        <v>0.4674109156158911</v>
+        <v>0.4920521074137209</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1160070779787241</v>
+        <v>0.2596134776565431</v>
       </c>
       <c r="L226" t="n">
-        <v>0.7211869817414007</v>
+        <v>0.7900336534735533</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1200253262172092</v>
+        <v>0.2594714666575127</v>
       </c>
       <c r="N226" t="n">
-        <v>1.020075331073583</v>
+        <v>1.07600773230662</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1285468333242407</v>
+        <v>0.2598700940232119</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1141220933116495</v>
+        <v>0.1296809764952078</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1168887872907547</v>
+        <v>0.2582734823031894</v>
       </c>
       <c r="J227" t="n">
-        <v>0.4671059035903794</v>
+        <v>0.4902621699174231</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1167276188357348</v>
+        <v>0.261225983728944</v>
       </c>
       <c r="L227" t="n">
-        <v>0.7152705489545046</v>
+        <v>0.7816164102841037</v>
       </c>
       <c r="M227" t="n">
-        <v>0.120770825137813</v>
+        <v>0.261083090674019</v>
       </c>
       <c r="N227" t="n">
-        <v>1.01407034072007</v>
+        <v>1.073458085539286</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1293452608604161</v>
+        <v>0.261484193986089</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1138040405336422</v>
+        <v>0.1172617378819435</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1176103230147717</v>
+        <v>0.2598677630581473</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4660860442585144</v>
+        <v>0.4834733374402529</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1174481596927455</v>
+        <v>0.2628384898013448</v>
       </c>
       <c r="L228" t="n">
-        <v>0.7122690524151376</v>
+        <v>0.7749907522279436</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1215163240584168</v>
+        <v>0.2626947146905253</v>
       </c>
       <c r="N228" t="n">
-        <v>1.009972910781476</v>
+        <v>1.054366280957761</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1301436883965915</v>
+        <v>0.2630982939489661</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1214852595319067</v>
+        <v>0.1167068080144315</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1183318587387887</v>
+        <v>0.2614620438131053</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4597538984160024</v>
+        <v>0.4795153718886922</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1181687005497562</v>
+        <v>0.2644509958737457</v>
       </c>
       <c r="L229" t="n">
-        <v>0.7060833325129636</v>
+        <v>0.7611631388989823</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1222618229790205</v>
+        <v>0.2643063387070315</v>
       </c>
       <c r="N229" t="n">
-        <v>1.015383167136066</v>
+        <v>1.045516996706255</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1309421159327669</v>
+        <v>0.2647123939118431</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1221657480313492</v>
+        <v>0.1160499025401498</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1190533944628057</v>
+        <v>0.2630563245680633</v>
       </c>
       <c r="J230" t="n">
-        <v>0.4591120268585497</v>
+        <v>0.4704180351692235</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1188892414067669</v>
+        <v>0.2660635019461466</v>
       </c>
       <c r="L230" t="n">
-        <v>0.7035142296376464</v>
+        <v>0.7521400298911296</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1230073218996243</v>
+        <v>0.2659179627235378</v>
       </c>
       <c r="N230" t="n">
-        <v>1.010601235662109</v>
+        <v>1.033494910928972</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1317405434689423</v>
+        <v>0.2663264938747202</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1128455037568757</v>
+        <v>0.1173247371065756</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1197749301868227</v>
+        <v>0.2646506053230212</v>
       </c>
       <c r="J231" t="n">
-        <v>0.4567629903818624</v>
+        <v>0.4649110891883292</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1196097822637776</v>
+        <v>0.2676760080185475</v>
       </c>
       <c r="L231" t="n">
-        <v>0.69346258417885</v>
+        <v>0.7459278847982935</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1237528208202281</v>
+        <v>0.2675295867400442</v>
       </c>
       <c r="N231" t="n">
-        <v>1.006327242237872</v>
+        <v>1.019184701770122</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1325389710051177</v>
+        <v>0.2679405938375973</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1105245244333926</v>
+        <v>0.1195650273611867</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1204964659108397</v>
+        <v>0.2662448860779792</v>
       </c>
       <c r="J232" t="n">
-        <v>0.4537093497816465</v>
+        <v>0.4612242958524918</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1203303231207884</v>
+        <v>0.2692885140909484</v>
       </c>
       <c r="L232" t="n">
-        <v>0.6909292365262383</v>
+        <v>0.7346331632143843</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1244983197408319</v>
+        <v>0.2691412107565505</v>
       </c>
       <c r="N232" t="n">
-        <v>1.004661312741622</v>
+        <v>1.00707104737391</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1333373985412931</v>
+        <v>0.2695546938004744</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.117202807785806</v>
+        <v>0.1178044889514605</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1212180016348567</v>
+        <v>0.2678391668329371</v>
       </c>
       <c r="J233" t="n">
-        <v>0.4553536658536083</v>
+        <v>0.4514874170681935</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1210508639777991</v>
+        <v>0.2709010201633493</v>
       </c>
       <c r="L233" t="n">
-        <v>0.6893150270694748</v>
+        <v>0.7180623247333104</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1252438186614357</v>
+        <v>0.2707528347730567</v>
       </c>
       <c r="N233" t="n">
-        <v>1.007403573051627</v>
+        <v>0.9922386258845443</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1341358260774685</v>
+        <v>0.2711687937633515</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1178803515390219</v>
+        <v>0.1090768375248746</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1219395373588737</v>
+        <v>0.2694334475878951</v>
       </c>
       <c r="J234" t="n">
-        <v>0.449998499393454</v>
+        <v>0.4484302147419165</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1217714048348098</v>
+        <v>0.2725135262357501</v>
       </c>
       <c r="L234" t="n">
-        <v>0.6820207961982239</v>
+        <v>0.7091218289489813</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1259893175820394</v>
+        <v>0.272364458789563</v>
       </c>
       <c r="N234" t="n">
-        <v>1.001954149046154</v>
+        <v>0.9725721154462313</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1349342536136439</v>
+        <v>0.2727828937262286</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1095571534179467</v>
+        <v>0.1144157887289066</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1226610730828907</v>
+        <v>0.271027728342853</v>
       </c>
       <c r="J235" t="n">
-        <v>0.4489464111968899</v>
+        <v>0.438082450780143</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1224919456918205</v>
+        <v>0.2741260323081511</v>
       </c>
       <c r="L235" t="n">
-        <v>0.6788473843021492</v>
+        <v>0.697318135455306</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1267348165026432</v>
+        <v>0.2739760828060693</v>
       </c>
       <c r="N235" t="n">
-        <v>1.00871316660347</v>
+        <v>0.9596561942031788</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1357326811498193</v>
+        <v>0.2743969936891057</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1132332111474864</v>
+        <v>0.109855058211034</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1233826088069077</v>
+        <v>0.272622009097811</v>
       </c>
       <c r="J236" t="n">
-        <v>0.447399962059622</v>
+        <v>0.4320738870893557</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1232124865488312</v>
+        <v>0.275738538380552</v>
       </c>
       <c r="L236" t="n">
-        <v>0.6712956317709144</v>
+        <v>0.6942577038461937</v>
       </c>
       <c r="M236" t="n">
-        <v>0.127480315423247</v>
+        <v>0.2755877068225756</v>
       </c>
       <c r="N236" t="n">
-        <v>1.004180751601844</v>
+        <v>0.9481755402995936</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1365311086859947</v>
+        <v>0.2760110936519828</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1199085224525473</v>
+        <v>0.112424846333002</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1241041445309247</v>
+        <v>0.274216289852769</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4415617127773565</v>
+        <v>0.4265342855760367</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1239330274058419</v>
+        <v>0.2773510444529528</v>
       </c>
       <c r="L237" t="n">
-        <v>0.6714663789941837</v>
+        <v>0.6863469937155537</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1282258143438508</v>
+        <v>0.2771993308390819</v>
       </c>
       <c r="N237" t="n">
-        <v>0.9982570299195405</v>
+        <v>0.9369148318796822</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1373295362221701</v>
+        <v>0.2776251936148599</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1125830850580355</v>
+        <v>0.1060392516147202</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1248256802549417</v>
+        <v>0.275810570607727</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4377342241457995</v>
+        <v>0.4230238395322671</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1246535682628526</v>
+        <v>0.2789635505253537</v>
       </c>
       <c r="L238" t="n">
-        <v>0.6673604663616208</v>
+        <v>0.6777487195909413</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1289713132644546</v>
+        <v>0.2788109548555882</v>
       </c>
       <c r="N238" t="n">
-        <v>1.001442127434829</v>
+        <v>0.9282033335773835</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1381279637583455</v>
+        <v>0.279239293577737</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1072568966888571</v>
+        <v>0.1076485395344287</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1255472159789587</v>
+        <v>0.2774048513626848</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4374200569606574</v>
+        <v>0.4161973368444206</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1253741091198633</v>
+        <v>0.2805760565977546</v>
       </c>
       <c r="L239" t="n">
-        <v>0.6646787342628897</v>
+        <v>0.6659234763786368</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1297168121850584</v>
+        <v>0.2804225788720944</v>
       </c>
       <c r="N239" t="n">
-        <v>0.9959361700259771</v>
+        <v>0.9173608831389742</v>
       </c>
       <c r="O239" t="n">
-        <v>0.138926391294521</v>
+        <v>0.2808533935406141</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1189299550699184</v>
+        <v>0.1102526302185082</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1262687517029757</v>
+        <v>0.2789991321176428</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4310217720176361</v>
+        <v>0.4152511444221078</v>
       </c>
       <c r="K240" t="n">
-        <v>0.126094649976874</v>
+        <v>0.2821885626701555</v>
       </c>
       <c r="L240" t="n">
-        <v>0.6525220230876541</v>
+        <v>0.657466881685844</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1304623111056621</v>
+        <v>0.2820342028886008</v>
       </c>
       <c r="N240" t="n">
-        <v>0.9998392835712512</v>
+        <v>0.9033752956834841</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1397248188306964</v>
+        <v>0.2824674935034912</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1166022579261255</v>
+        <v>0.1088514437933396</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1269902874269927</v>
+        <v>0.2805934128726008</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4285419301124422</v>
+        <v>0.4061849548545602</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1268151908338847</v>
+        <v>0.2838010687425564</v>
       </c>
       <c r="L241" t="n">
-        <v>0.6516911732255781</v>
+        <v>0.65307844640213</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1312078100262659</v>
+        <v>0.283645826905107</v>
       </c>
       <c r="N241" t="n">
-        <v>0.9993515939489187</v>
+        <v>0.8944458967978338</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1405232463668718</v>
+        <v>0.2840815934663682</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1102738029823845</v>
+        <v>0.09644490038530369</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1277118231510097</v>
+        <v>0.2821876936275587</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4247830920407816</v>
+        <v>0.4039984607310098</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1275357316908954</v>
+        <v>0.2854135748149573</v>
       </c>
       <c r="L242" t="n">
-        <v>0.6473870250663254</v>
+        <v>0.6446576814170597</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1319533089468697</v>
+        <v>0.2852574509216133</v>
       </c>
       <c r="N242" t="n">
-        <v>0.9933732270372476</v>
+        <v>0.883072012068942</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1413216739030472</v>
+        <v>0.2856956934292453</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1089445879636017</v>
+        <v>0.1070329201207813</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1284333588750267</v>
+        <v>0.2837819743825167</v>
       </c>
       <c r="J243" t="n">
-        <v>0.4219478185983601</v>
+        <v>0.395191354640688</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1282562725479061</v>
+        <v>0.2870260808873581</v>
       </c>
       <c r="L243" t="n">
-        <v>0.63751041899956</v>
+        <v>0.6304040976201988</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1326988078674735</v>
+        <v>0.2868690749381196</v>
       </c>
       <c r="N243" t="n">
-        <v>1.001004308714505</v>
+        <v>0.8711529670837294</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1421201014392226</v>
+        <v>0.2873097933921224</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1146146105946832</v>
+        <v>0.1046154231261534</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1291548945990438</v>
+        <v>0.2853762551374747</v>
       </c>
       <c r="J244" t="n">
-        <v>0.4201386705808846</v>
+        <v>0.3932633291728261</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1289768134049168</v>
+        <v>0.288638586959759</v>
       </c>
       <c r="L244" t="n">
-        <v>0.6354621954149455</v>
+        <v>0.622017205901114</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1334443067880773</v>
+        <v>0.2884806989546259</v>
       </c>
       <c r="N244" t="n">
-        <v>0.9989449648589573</v>
+        <v>0.861988087429114</v>
       </c>
       <c r="O244" t="n">
-        <v>0.142918528975398</v>
+        <v>0.2889238933549995</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1172838686005351</v>
+        <v>0.1021923295278007</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1298764303230608</v>
+        <v>0.2869705358924327</v>
       </c>
       <c r="J245" t="n">
-        <v>0.4159582087840609</v>
+        <v>0.3857140769166559</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1296973542619275</v>
+        <v>0.2902510930321599</v>
       </c>
       <c r="L245" t="n">
-        <v>0.6320431947021459</v>
+        <v>0.6182965171493702</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1341898057086811</v>
+        <v>0.2900923229711322</v>
       </c>
       <c r="N245" t="n">
-        <v>0.9888953213488735</v>
+        <v>0.8464766986920164</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1437169565115734</v>
+        <v>0.2905379933178766</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1129523597060637</v>
+        <v>0.09876355945210406</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1305979660470778</v>
+        <v>0.2885648166473906</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4104089940035951</v>
+        <v>0.3798432904614086</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1304178951189383</v>
+        <v>0.2918635991045608</v>
       </c>
       <c r="L246" t="n">
-        <v>0.6264542572508254</v>
+        <v>0.6081415422545335</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1349353046292849</v>
+        <v>0.2917039469876385</v>
       </c>
       <c r="N246" t="n">
-        <v>0.9923555040625202</v>
+        <v>0.8387181264593558</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1445153840477488</v>
+        <v>0.2921520932807537</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1116200816361751</v>
+        <v>0.09632903302544425</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1313195017710948</v>
+        <v>0.2901590974023486</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4070935870351936</v>
+        <v>0.3744506623963159</v>
       </c>
       <c r="K247" t="n">
-        <v>0.131138435975949</v>
+        <v>0.2934761051769617</v>
       </c>
       <c r="L247" t="n">
-        <v>0.6164962234506475</v>
+        <v>0.5949517921061698</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1356808035498886</v>
+        <v>0.2933155710041448</v>
       </c>
       <c r="N247" t="n">
-        <v>0.9970256388781645</v>
+        <v>0.8243116963180518</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1453138115839242</v>
+        <v>0.2937661932436308</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1042870321157755</v>
+        <v>0.08788867037420219</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1320410374951118</v>
+        <v>0.2917533781573065</v>
       </c>
       <c r="J248" t="n">
-        <v>0.4077145486745624</v>
+        <v>0.3698358853106092</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1318589768329597</v>
+        <v>0.2950886112493626</v>
       </c>
       <c r="L248" t="n">
-        <v>0.6126699336912762</v>
+        <v>0.5872267775938447</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1364263024704924</v>
+        <v>0.2949271950206511</v>
       </c>
       <c r="N248" t="n">
-        <v>0.9910058516740746</v>
+        <v>0.8126567338550238</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1461122391200996</v>
+        <v>0.2953802932065079</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.112953208869771</v>
+        <v>0.09044239162475869</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1327625732191288</v>
+        <v>0.2933476589122645</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4042744397174077</v>
+        <v>0.3645986517935204</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1325795176899704</v>
+        <v>0.2967011173217635</v>
       </c>
       <c r="L249" t="n">
-        <v>0.6124762283623753</v>
+        <v>0.5800660096071242</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1371718013910962</v>
+        <v>0.2965388190371573</v>
       </c>
       <c r="N249" t="n">
-        <v>0.9840962683285169</v>
+        <v>0.7976525646571911</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1469106666562751</v>
+        <v>0.296994393169385</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1046186096230678</v>
+        <v>0.09299011690349458</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1334841089431458</v>
+        <v>0.2949419396672224</v>
       </c>
       <c r="J250" t="n">
-        <v>0.4003758209594357</v>
+        <v>0.3610386544342803</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1333000585469811</v>
+        <v>0.2983136233941643</v>
       </c>
       <c r="L250" t="n">
-        <v>0.6030159478536086</v>
+        <v>0.5708689990355738</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1379173003117</v>
+        <v>0.2981504430536637</v>
       </c>
       <c r="N250" t="n">
-        <v>0.9931970147197594</v>
+        <v>0.7848985143114738</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1477090941924505</v>
+        <v>0.2986084931322621</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1142832321005721</v>
+        <v>0.09453176633679065</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1342056446671628</v>
+        <v>0.2965362204221804</v>
       </c>
       <c r="J251" t="n">
-        <v>0.3919212531963526</v>
+        <v>0.3511555858221209</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1340205994039918</v>
+        <v>0.2999261294665653</v>
       </c>
       <c r="L251" t="n">
-        <v>0.5966899325546402</v>
+        <v>0.5615352567687593</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1386627992323038</v>
+        <v>0.2997620670701699</v>
       </c>
       <c r="N251" t="n">
-        <v>0.9868082167260691</v>
+        <v>0.773993908404791</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1485075217286259</v>
+        <v>0.3002225930951392</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.11594707402719</v>
+        <v>0.08406726005102778</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1349271803911798</v>
+        <v>0.2981305011771384</v>
       </c>
       <c r="J252" t="n">
-        <v>0.3908132972238647</v>
+        <v>0.3503491385462739</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1347411402610025</v>
+        <v>0.3015386355389661</v>
       </c>
       <c r="L252" t="n">
-        <v>0.5951990228551338</v>
+        <v>0.5527642936962469</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1394082981529076</v>
+        <v>0.3013736910866762</v>
       </c>
       <c r="N252" t="n">
-        <v>0.9911300002257141</v>
+        <v>0.7598380725240624</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1493059492648013</v>
+        <v>0.3018366930580162</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1026101331278277</v>
+        <v>0.09059651817258678</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1356487161151968</v>
+        <v>0.2997247819320963</v>
       </c>
       <c r="J253" t="n">
-        <v>0.3850545138376779</v>
+        <v>0.3439190051959706</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1354616811180132</v>
+        <v>0.303151141611367</v>
       </c>
       <c r="L253" t="n">
-        <v>0.5853440591447534</v>
+        <v>0.5482556207076019</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1401537970735113</v>
+        <v>0.3029853151031825</v>
       </c>
       <c r="N253" t="n">
-        <v>0.9910624910969607</v>
+        <v>0.7517303322562071</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1501043768009767</v>
+        <v>0.3034507930208933</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1072724071273914</v>
+        <v>0.08411946082784853</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1363702518392138</v>
+        <v>0.3013190626870543</v>
       </c>
       <c r="J254" t="n">
-        <v>0.3818474638334987</v>
+        <v>0.3389648783604424</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1361822219750239</v>
+        <v>0.3047636476837679</v>
       </c>
       <c r="L254" t="n">
-        <v>0.5817258818131632</v>
+        <v>0.5400087486923906</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1408992959941151</v>
+        <v>0.3045969391196888</v>
       </c>
       <c r="N254" t="n">
-        <v>0.9796058152180772</v>
+        <v>0.7370700131881452</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1509028043371521</v>
+        <v>0.3050648929837704</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1069338937507873</v>
+        <v>0.08763600814319385</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1370917875632308</v>
+        <v>0.3029133434420122</v>
       </c>
       <c r="J255" t="n">
-        <v>0.377594708007033</v>
+        <v>0.3330864506289211</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1369027628320346</v>
+        <v>0.3063761537561688</v>
       </c>
       <c r="L255" t="n">
-        <v>0.5764453312500262</v>
+        <v>0.5290231885401782</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1416447949147189</v>
+        <v>0.3062085631361951</v>
       </c>
       <c r="N255" t="n">
-        <v>0.9867600984673305</v>
+        <v>0.7227564409067958</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1517012318733275</v>
+        <v>0.3066789929466475</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1065945907229214</v>
+        <v>0.08714608024500346</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1378133232872478</v>
+        <v>0.3045076241969702</v>
       </c>
       <c r="J256" t="n">
-        <v>0.3728988071539868</v>
+        <v>0.3262834145906378</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1376233036890454</v>
+        <v>0.3079886598285697</v>
       </c>
       <c r="L256" t="n">
-        <v>0.5671032478450069</v>
+        <v>0.5179984511405311</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1423902938353227</v>
+        <v>0.3078201871527014</v>
       </c>
       <c r="N256" t="n">
-        <v>0.9773254667229881</v>
+        <v>0.7134889409990789</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1524996594095029</v>
+        <v>0.3082930929095246</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1032544957687</v>
+        <v>0.08664959725965833</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1385348590112648</v>
+        <v>0.3061019049519281</v>
       </c>
       <c r="J257" t="n">
-        <v>0.3685623220700669</v>
+        <v>0.3191554628348244</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1383438445460561</v>
+        <v>0.3096011659009706</v>
       </c>
       <c r="L257" t="n">
-        <v>0.5656004719877692</v>
+        <v>0.5075340473830143</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1431357927559265</v>
+        <v>0.3094318111692077</v>
       </c>
       <c r="N257" t="n">
-        <v>0.9846020458633172</v>
+        <v>0.6952668390519133</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1532980869456783</v>
+        <v>0.3099071928724017</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1029136066130293</v>
+        <v>0.07514647931353922</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1392563947352818</v>
+        <v>0.3076961857068861</v>
       </c>
       <c r="J258" t="n">
-        <v>0.3645878135509789</v>
+        <v>0.3163022879507124</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1390643854030668</v>
+        <v>0.3112136719733715</v>
       </c>
       <c r="L258" t="n">
-        <v>0.5534378440679766</v>
+        <v>0.5015294881571943</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1438812916765302</v>
+        <v>0.311043435185714</v>
       </c>
       <c r="N258" t="n">
-        <v>0.9757899617665854</v>
+        <v>0.6936894606522189</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1540965144818537</v>
+        <v>0.3115212928352788</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1015719209808154</v>
+        <v>0.08163664653302695</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1399779304592988</v>
+        <v>0.309290466461844</v>
       </c>
       <c r="J259" t="n">
-        <v>0.3609778423924295</v>
+        <v>0.308123582527533</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1397849262600775</v>
+        <v>0.3128261780457723</v>
       </c>
       <c r="L259" t="n">
-        <v>0.5528162044752931</v>
+        <v>0.4924842843526367</v>
       </c>
       <c r="M259" t="n">
-        <v>0.144626790597134</v>
+        <v>0.3126550592022203</v>
       </c>
       <c r="N259" t="n">
-        <v>0.98478934031106</v>
+        <v>0.6707561313869154</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1548949420180291</v>
+        <v>0.3131353927981559</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1072294365969644</v>
+        <v>0.0771200190445024</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1406994661833158</v>
+        <v>0.310884747216802</v>
       </c>
       <c r="J260" t="n">
-        <v>0.3596349693901244</v>
+        <v>0.3019190391545181</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1405054671170882</v>
+        <v>0.3144386841181732</v>
       </c>
       <c r="L260" t="n">
-        <v>0.5485363935993828</v>
+        <v>0.4809979468589076</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1453722895177378</v>
+        <v>0.3142666832187265</v>
       </c>
       <c r="N260" t="n">
-        <v>0.9803003073750086</v>
+        <v>0.660466176842922</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1556933695542045</v>
+        <v>0.314749492761033</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1028861511863826</v>
+        <v>0.0775965169743464</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1414210019073328</v>
+        <v>0.31247902797176</v>
       </c>
       <c r="J261" t="n">
-        <v>0.35156175533977</v>
+        <v>0.2969883504208989</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1412260079740989</v>
+        <v>0.3160511901905741</v>
       </c>
       <c r="L261" t="n">
-        <v>0.5410992518299096</v>
+        <v>0.4748699865655718</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1461177884383416</v>
+        <v>0.3158783072352329</v>
       </c>
       <c r="N261" t="n">
-        <v>0.974822988836698</v>
+        <v>0.6480189226071588</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1564917970903799</v>
+        <v>0.3163635927239101</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1085420624739761</v>
+        <v>0.07306606044893978</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1421425376313498</v>
+        <v>0.314073308726718</v>
       </c>
       <c r="J262" t="n">
-        <v>0.3467607610370723</v>
+        <v>0.2902312089159071</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1419465488311096</v>
+        <v>0.317663696262975</v>
       </c>
       <c r="L262" t="n">
-        <v>0.536205619556537</v>
+        <v>0.4685999143621959</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1468632873589454</v>
+        <v>0.3174899312517391</v>
       </c>
       <c r="N262" t="n">
-        <v>0.9796575105743962</v>
+        <v>0.6415136942665441</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1572902246265553</v>
+        <v>0.3179776926867872</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1121971681846511</v>
+        <v>0.06552856959466331</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1428640733553668</v>
+        <v>0.3156675894816759</v>
       </c>
       <c r="J263" t="n">
-        <v>0.3470345472777376</v>
+        <v>0.2848473072287744</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1426670896881203</v>
+        <v>0.3192762023353759</v>
       </c>
       <c r="L263" t="n">
-        <v>0.5298563371689291</v>
+        <v>0.4591872411383457</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1476087862795492</v>
+        <v>0.3191015552682454</v>
       </c>
       <c r="N263" t="n">
-        <v>0.9780039984663701</v>
+        <v>0.6199498174079986</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1580886521627308</v>
+        <v>0.3195917926496643</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1088514660433137</v>
+        <v>0.07198396453789792</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1435856090793838</v>
+        <v>0.3172618702366339</v>
       </c>
       <c r="J264" t="n">
-        <v>0.3424856748574723</v>
+        <v>0.279636337948732</v>
       </c>
       <c r="K264" t="n">
-        <v>0.143387630545131</v>
+        <v>0.3208887084077768</v>
       </c>
       <c r="L264" t="n">
-        <v>0.5224522450567497</v>
+        <v>0.4427314777835866</v>
       </c>
       <c r="M264" t="n">
-        <v>0.148354285200153</v>
+        <v>0.3207131792847517</v>
       </c>
       <c r="N264" t="n">
-        <v>0.9776625783908875</v>
+        <v>0.6081266176184414</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1588870796989062</v>
+        <v>0.3212058926125413</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1401.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1401.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3981849768479517</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06337193543530521</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06337193543530521</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1013950966964883</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.2275936902701297</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06844169027012965</v>
+        <v>0.2545814609518393</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002399661719383405</v>
+        <v>0.008925983328285102</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03802316126118313</v>
+        <v>0.03169156251616559</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007998872397944683</v>
+        <v>0.0005948331649321729</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.09549120000000003</v>
+        <v>0.03169156251616559</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.002008833296842105</v>
+        <v>0.0005948331649321729</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1554912</v>
+        <v>0.07948116385409387</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001950323589167092</v>
+        <v>0.001010398004893006</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.2154912</v>
+        <v>0.1121728750254374</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002114561365096953</v>
+        <v>0.001009966395211955</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06844169027012965</v>
+        <v>0.06178810612408453</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002399661719383405</v>
+        <v>0.001189666329864346</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.147241697651294</v>
+        <v>0.06178810612408453</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003225012144801777</v>
+        <v>0.001189666329864346</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.2506294979227123</v>
+        <v>0.1554912</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00322324803301258</v>
+        <v>0.002049829894736842</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.3135772743081836</v>
+        <v>0.2154912</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003228199925754184</v>
+        <v>0.002049829894736842</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.07790504122845728</v>
+        <v>0.09549120000000003</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004782842264873877</v>
+        <v>0.002008833296842105</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.2200568934104311</v>
+        <v>0.09549120000000003</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004837518217202665</v>
+        <v>0.002008833296842105</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.3557581177189955</v>
+        <v>0.1983976818675096</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00483487204951887</v>
+        <v>0.003031194014679018</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.4608620755945352</v>
+        <v>0.2768774479791266</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004842299888631277</v>
+        <v>0.003029899185635864</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.08092568042071814</v>
+        <v>0.1076922913076338</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006377123019831836</v>
+        <v>0.002379332659728691</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.2545814609518393</v>
+        <v>0.1076922913076338</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006026499890526317</v>
+        <v>0.002379332659728691</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.4057210212426468</v>
+        <v>0.2479533126570239</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.005850970767501277</v>
+        <v>0.004041592019572024</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.5568605815334546</v>
+        <v>0.3372215090085755</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006343684095290858</v>
+        <v>0.004039865580847819</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0007998872397944683</v>
+        <v>0.002008833296842105</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03802316126118313</v>
+        <v>0.09549120000000003</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.08599711385514001</v>
+        <v>0.126919835895973</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007971403774789795</v>
+        <v>0.002974165824660864</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.2853127905711343</v>
+        <v>0.126919835895973</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008062530362004444</v>
+        <v>0.002974165824660864</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.4640125508598008</v>
+        <v>0.286284004824479</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008058120082531451</v>
+        <v>0.005051990024465029</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.6112632248628499</v>
+        <v>0.3988823484119886</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00807049981438546</v>
+        <v>0.005049831976059773</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09721082298156657</v>
+        <v>0.1455375106461331</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009565684529747754</v>
+        <v>0.003568998989593037</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.3086033688125637</v>
+        <v>0.1455375106461331</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009675036434405331</v>
+        <v>0.003568998989593037</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.4962792416204549</v>
+        <v>0.3191441582088803</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009669744099037741</v>
+        <v>0.006062388029358035</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.6704426918785958</v>
+        <v>0.439395058536275</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009684599777262553</v>
+        <v>0.006059798371271728</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.09365828924984142</v>
+        <v>0.1633568848937215</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01115996528470571</v>
+        <v>0.00416383215452521</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.3312407456202748</v>
+        <v>0.1633568848937215</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01128754250680622</v>
+        <v>0.00416383215452521</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.5361588961521289</v>
+        <v>0.3524881726492328</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01128136811554403</v>
+        <v>0.007072786034251041</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.716139500978792</v>
+        <v>0.4878947317283441</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01129869974013964</v>
+        <v>0.007069764766483682</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.09443099410980828</v>
+        <v>0.1801895279743457</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01275424603966367</v>
+        <v>0.004758665319457383</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.3521701579307029</v>
+        <v>0.1801895279743457</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01290004857920711</v>
+        <v>0.004758665319457383</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.5652929112725522</v>
+        <v>0.3793704479845417</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01289299213205032</v>
+        <v>0.008083184039144048</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.7576215691010394</v>
+        <v>0.5265164603351054</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01291279970301674</v>
+        <v>0.008079731161695638</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1016204190113108</v>
+        <v>0.1958470092236132</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01434852679462163</v>
+        <v>0.005353498484389555</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.3713368426802826</v>
+        <v>0.1958470092236132</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.014512554651608</v>
+        <v>0.005353498484389555</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.5915226837994547</v>
+        <v>0.4057210212426468</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01450461614855661</v>
+        <v>0.008914320963355041</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.7977568131829388</v>
+        <v>0.5568605815334546</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01452689966589383</v>
+        <v>0.008828430636825835</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1103180454041926</v>
+        <v>0.2101408979771315</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01594280754957959</v>
+        <v>0.005948331649321729</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.3841860368054492</v>
+        <v>0.2101408979771315</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01612506072400889</v>
+        <v>0.005948331649321729</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.6164896105505664</v>
+        <v>0.432896351044068</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0161162401650629</v>
+        <v>0.01010398004893006</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.834213150162091</v>
+        <v>0.5968418559293469</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01614099962877092</v>
+        <v>0.01009966395211955</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1116153547382973</v>
+        <v>0.222882763570508</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01753708830453755</v>
+        <v>0.006543164814253902</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.3966629772426374</v>
+        <v>0.222882763570508</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01773756679640977</v>
+        <v>0.006543164814253902</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.6414350883436173</v>
+        <v>0.4514885184595219</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01772786418156919</v>
+        <v>0.01111437805382306</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.8607584969760979</v>
+        <v>0.6305798912147859</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01775509959164802</v>
+        <v>0.0111096303473315</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1056038284634687</v>
+        <v>0.2338841753393504</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01913136905949551</v>
+        <v>0.007137997979186074</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4091129009282823</v>
+        <v>0.2338841753393504</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01935007286881066</v>
+        <v>0.007137997979186074</v>
       </c>
       <c r="L77" t="n">
-        <v>0.657500513996337</v>
+        <v>0.476492663075222</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01933948819807548</v>
+        <v>0.01212477605871607</v>
       </c>
       <c r="N77" t="n">
-        <v>0.8885607705625601</v>
+        <v>0.6560381407148929</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01936919955452511</v>
+        <v>0.01211959674254346</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1103749480295503</v>
+        <v>0.242956702619266</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02072564981445347</v>
+        <v>0.007732831144118247</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4203810447988189</v>
+        <v>0.242956702619266</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02096257894121155</v>
+        <v>0.007732831144118247</v>
       </c>
       <c r="L78" t="n">
-        <v>0.6776272843264557</v>
+        <v>0.5042375473592484</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02095111221458177</v>
+        <v>0.01313517406360908</v>
       </c>
       <c r="N78" t="n">
-        <v>0.9126878878590788</v>
+        <v>0.6856199092286174</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0209832995174022</v>
+        <v>0.01312956313775541</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1110201948863859</v>
+        <v>0.2499119147458624</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02231993056941143</v>
+        <v>0.008327664309050421</v>
       </c>
       <c r="J79" t="n">
-        <v>0.431612645790682</v>
+        <v>0.2499119147458624</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02257508501361244</v>
+        <v>0.008327664309050421</v>
       </c>
       <c r="L79" t="n">
-        <v>0.6911567961517029</v>
+        <v>0.5232519337796819</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02256273623108806</v>
+        <v>0.01414557206850208</v>
       </c>
       <c r="N79" t="n">
-        <v>0.9418077658032548</v>
+        <v>0.7207285015549095</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02259739948027929</v>
+        <v>0.01413952953296736</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1116276558328828</v>
+        <v>0.2545814609518393</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02391421132436939</v>
+        <v>0.008925983328285102</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4402529408403066</v>
+        <v>0.2545814609518393</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02418759108601333</v>
+        <v>0.008925983328285102</v>
       </c>
       <c r="L80" t="n">
-        <v>0.7045304462898083</v>
+        <v>0.5471645848046029</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02417436024759435</v>
+        <v>0.01515597007339509</v>
       </c>
       <c r="N80" t="n">
-        <v>0.9539883213326891</v>
+        <v>0.756467222492719</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02421149944315638</v>
+        <v>0.01514949592817932</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.115207549393571</v>
+        <v>0.2579536737758489</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02550849207932734</v>
+        <v>0.009517330638914766</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4458471668841278</v>
+        <v>0.2579536737758489</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02580009715841422</v>
+        <v>0.009517330638914766</v>
       </c>
       <c r="L81" t="n">
-        <v>0.7165896315585025</v>
+        <v>0.5722042629020914</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02578598426410064</v>
+        <v>0.0161663680782881</v>
       </c>
       <c r="N81" t="n">
-        <v>0.977697471384983</v>
+        <v>0.7886393768409959</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02582559940603347</v>
+        <v>0.01615946232339128</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1197402378821262</v>
+        <v>0.261291679675655</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0271027728342853</v>
+        <v>0.01011216380384694</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4533561302179273</v>
+        <v>0.261291679675655</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0274126032308151</v>
+        <v>0.01011216380384694</v>
       </c>
       <c r="L82" t="n">
-        <v>0.7218252588440945</v>
+        <v>0.590699730540228</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02739760828060693</v>
+        <v>0.0171767660831811</v>
       </c>
       <c r="N82" t="n">
-        <v>0.988204459517012</v>
+        <v>0.8079482693986898</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02743969936891056</v>
+        <v>0.01716942871860323</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1232158305469414</v>
+        <v>0.2645757708229088</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02869705358924326</v>
+        <v>0.01070699696877911</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4612117763349477</v>
+        <v>0.2645757708229088</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02902510930321599</v>
+        <v>0.01070699696877911</v>
       </c>
       <c r="L83" t="n">
-        <v>0.7293861724155402</v>
+        <v>0.6132797501870926</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02900923229711322</v>
+        <v>0.01818716408807411</v>
       </c>
       <c r="N83" t="n">
-        <v>1.005505173328077</v>
+        <v>0.8476972049647505</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02905379933178765</v>
+        <v>0.01817939511381518</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1236244366364095</v>
+        <v>0.2678062773830518</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03029133434420122</v>
+        <v>0.01130183013371128</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4655903990237087</v>
+        <v>0.2678062773830518</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03063761537561688</v>
+        <v>0.01130183013371128</v>
       </c>
       <c r="L84" t="n">
-        <v>0.7413592762023922</v>
+        <v>0.6328730843107662</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03062085631361951</v>
+        <v>0.01919756209296711</v>
       </c>
       <c r="N84" t="n">
-        <v>1.012632834329964</v>
+        <v>0.8715894883381282</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03066789929466475</v>
+        <v>0.01918936150902714</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1229561653989233</v>
+        <v>0.2709835295215249</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03188561509915918</v>
+        <v>0.01189666329864346</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4719539316035708</v>
+        <v>0.2709835295215249</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03225012144801778</v>
+        <v>0.01189666329864346</v>
       </c>
       <c r="L85" t="n">
-        <v>0.7486840036513427</v>
+        <v>0.6548084953793289</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0322324803301258</v>
+        <v>0.02020796009786012</v>
       </c>
       <c r="N85" t="n">
-        <v>1.030003929939556</v>
+        <v>0.8994284243177723</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03228199925754184</v>
+        <v>0.02019932790423909</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1282011260828758</v>
+        <v>0.2741078574037694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03347989585411714</v>
+        <v>0.01249149646357563</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4754643073938946</v>
+        <v>0.2741078574037694</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03386262752041866</v>
+        <v>0.01249149646357563</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7591997882090846</v>
+        <v>0.6731147458608608</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03384410434663209</v>
+        <v>0.02121835810275312</v>
       </c>
       <c r="N86" t="n">
-        <v>1.039334947573736</v>
+        <v>0.9176173177026331</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03389609922041894</v>
+        <v>0.02120929429945105</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1243494279366599</v>
+        <v>0.2771795911952265</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0350741766090751</v>
+        <v>0.0130863296285078</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4792834597140408</v>
+        <v>0.2771795911952265</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03547513359281955</v>
+        <v>0.0130863296285078</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7658460633223092</v>
+        <v>0.6911205982234427</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03545572836313838</v>
+        <v>0.02222875610764613</v>
       </c>
       <c r="N87" t="n">
-        <v>1.055142374649385</v>
+        <v>0.95205947329166</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03551019918329603</v>
+        <v>0.022219260694663</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1323911802086685</v>
+        <v>0.2801990610613373</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03666845736403306</v>
+        <v>0.01368116279343998</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4852733218833699</v>
+        <v>0.2801990610613373</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03708763966522043</v>
+        <v>0.01368116279343998</v>
       </c>
       <c r="L88" t="n">
-        <v>0.7748622624377095</v>
+        <v>0.705354814935155</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03706735237964467</v>
+        <v>0.02323915411253914</v>
       </c>
       <c r="N88" t="n">
-        <v>1.060142698583388</v>
+        <v>0.969058195883803</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03712429914617312</v>
+        <v>0.02322922708987496</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1273164921472946</v>
+        <v>0.2831665971675432</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03826273811899102</v>
+        <v>0.01427599595837215</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4890958272212427</v>
+        <v>0.2831665971675432</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03870014573762132</v>
+        <v>0.01427599595837215</v>
       </c>
       <c r="L89" t="n">
-        <v>0.778887819001977</v>
+        <v>0.7196461584640774</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03867897639615096</v>
+        <v>0.02424955211743214</v>
       </c>
       <c r="N89" t="n">
-        <v>1.071752406792627</v>
+        <v>0.9906167902780122</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03873839910905021</v>
+        <v>0.02423919348508691</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1311154730009309</v>
+        <v>0.2860825296792853</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03985701887394898</v>
+        <v>0.01487082912330432</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4947129090470196</v>
+        <v>0.2860825296792853</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04031265181002221</v>
+        <v>0.01487082912330432</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7869621664618047</v>
+        <v>0.7390233912782909</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04029060041265725</v>
+        <v>0.02525995012232515</v>
       </c>
       <c r="N90" t="n">
-        <v>1.072987986693985</v>
+        <v>1.013438561273237</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0403524990719273</v>
+        <v>0.02524915988029887</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1357782320179705</v>
+        <v>0.2889471887620049</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04145129962890694</v>
+        <v>0.01546566228823649</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4977865006800609</v>
+        <v>0.2889471887620049</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0419251578824231</v>
+        <v>0.01546566228823649</v>
       </c>
       <c r="L91" t="n">
-        <v>0.7968247382638842</v>
+        <v>0.7500152758458758</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04190222442916354</v>
+        <v>0.02627034812721815</v>
       </c>
       <c r="N91" t="n">
-        <v>1.090865925704344</v>
+        <v>1.035626813668427</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0419665990348044</v>
+        <v>0.02625912627551082</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1352948784468062</v>
+        <v>0.2917609045811429</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0430455803838649</v>
+        <v>0.01606049545316867</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5004785354397276</v>
+        <v>0.2917609045811429</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04353766395482399</v>
+        <v>0.01606049545316867</v>
       </c>
       <c r="L92" t="n">
-        <v>0.7983149678549077</v>
+        <v>0.7609505746349119</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04351384844566984</v>
+        <v>0.02728074613211116</v>
       </c>
       <c r="N92" t="n">
-        <v>1.098102711240587</v>
+        <v>1.051784852262533</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04358069899768149</v>
+        <v>0.02726909267072277</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.135655521535831</v>
+        <v>0.2945240073021409</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04463986113882285</v>
+        <v>0.01665532861810084</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5023509466453804</v>
+        <v>0.2945240073021409</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04515017002722488</v>
+        <v>0.01665532861810084</v>
       </c>
       <c r="L93" t="n">
-        <v>0.7991722886815678</v>
+        <v>0.7712580501134803</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04512547246217612</v>
+        <v>0.02829114413700417</v>
       </c>
       <c r="N93" t="n">
-        <v>1.094714830719598</v>
+        <v>1.062215981854504</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04519479896055858</v>
+        <v>0.02827905906593473</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1368833805402593</v>
+        <v>0.2972368270904399</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04623414189378081</v>
+        <v>0.01725016178303301</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5059656676163794</v>
+        <v>0.2972368270904399</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04676267609962576</v>
+        <v>0.01725016178303301</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8060361341905564</v>
+        <v>0.7848664647496608</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04673709647868241</v>
+        <v>0.02930154214189717</v>
       </c>
       <c r="N94" t="n">
-        <v>1.103818771558258</v>
+        <v>1.07082350724329</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04680889892343567</v>
+        <v>0.02928902546114669</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.132876549056205</v>
+        <v>0.299899694111481</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04782842264873877</v>
+        <v>0.01784499494796518</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5052846316720856</v>
+        <v>0.299899694111481</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04837518217202665</v>
+        <v>0.01784499494796518</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8045459378285658</v>
+        <v>0.7887045810115341</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0483487204951887</v>
+        <v>0.03031194014679017</v>
       </c>
       <c r="N95" t="n">
-        <v>1.107431021173451</v>
+        <v>1.085010733227842</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04842299888631276</v>
+        <v>0.03029899185635864</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1337992698583718</v>
+        <v>0.3025129385307056</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04942270340369673</v>
+        <v>0.01843982811289736</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5091629219036786</v>
+        <v>0.3025129385307056</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04998768824442754</v>
+        <v>0.01843982811289736</v>
       </c>
       <c r="L96" t="n">
-        <v>0.8114420424852937</v>
+        <v>0.7944011613671806</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04996034451169499</v>
+        <v>0.03132233815168319</v>
       </c>
       <c r="N96" t="n">
-        <v>1.113721163066909</v>
+        <v>1.096780964607108</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05003709884918985</v>
+        <v>0.0313089582515706</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1236401525604714</v>
+        <v>0.3050768905135548</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05101698415865469</v>
+        <v>0.01903466127782953</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5080244677260847</v>
+        <v>0.3050768905135548</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05160019431682843</v>
+        <v>0.01903466127782953</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8060552863631487</v>
+        <v>0.8053849682846803</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05157196852820128</v>
+        <v>0.03233273615657619</v>
       </c>
       <c r="N97" t="n">
-        <v>1.107384952300182</v>
+        <v>1.098437506180039</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05165119881206694</v>
+        <v>0.03231892464678255</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1324044098738342</v>
+        <v>0.3075918802254698</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05261126491361265</v>
+        <v>0.0196294944427617</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5065031405069714</v>
+        <v>0.3075918802254698</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05321270038922932</v>
+        <v>0.0196294944427617</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8039972686445829</v>
+        <v>0.8089847642321135</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05318359254470757</v>
+        <v>0.03334313416146919</v>
       </c>
       <c r="N98" t="n">
-        <v>1.111797097875738</v>
+        <v>1.113721163066909</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05326529877494404</v>
+        <v>0.0333288910419945</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1350972545097905</v>
+        <v>0.310058237831892</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05420554566857061</v>
+        <v>0.02022432760769387</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5073724317170363</v>
+        <v>0.310058237831892</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05482520646163021</v>
+        <v>0.02022432760769387</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8033496354719092</v>
+        <v>0.8114420424852937</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05479521656121386</v>
+        <v>0.0343535321663622</v>
       </c>
       <c r="N99" t="n">
-        <v>1.111523962195808</v>
+        <v>1.107222739102693</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05487939873782113</v>
+        <v>0.03433885743720646</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1247238991796707</v>
+        <v>0.3124762934982622</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05579982642352857</v>
+        <v>0.02081916077262605</v>
       </c>
       <c r="J100" t="n">
-        <v>0.5065524035947582</v>
+        <v>0.3124762934982622</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0564377125340311</v>
+        <v>0.02081916077262605</v>
       </c>
       <c r="L100" t="n">
-        <v>0.8029443071653637</v>
+        <v>0.8050747851160098</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05640684057772014</v>
+        <v>0.03536393017125521</v>
       </c>
       <c r="N100" t="n">
-        <v>1.099309558800064</v>
+        <v>1.103821649512624</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05649349870069822</v>
+        <v>0.03534882383241841</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1232895565948053</v>
+        <v>0.3148463773900221</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05739410717848652</v>
+        <v>0.02141399393755822</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5020631183786166</v>
+        <v>0.3148463773900221</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05805021860643199</v>
+        <v>0.02141399393755822</v>
       </c>
       <c r="L101" t="n">
-        <v>0.7989132040451823</v>
+        <v>0.8054190042078864</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05801846459422644</v>
+        <v>0.03637432817614821</v>
       </c>
       <c r="N101" t="n">
-        <v>1.105097901228177</v>
+        <v>1.106464915763518</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05810759866357531</v>
+        <v>0.03635879022763037</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1317994394665246</v>
+        <v>0.3171688196726126</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05898838793344448</v>
+        <v>0.0220088271024904</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5023246383070904</v>
+        <v>0.3171688196726126</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05966272467883287</v>
+        <v>0.0220088271024904</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8014882464316011</v>
+        <v>0.8056771584114562</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05963008861073273</v>
+        <v>0.03738472618104122</v>
       </c>
       <c r="N102" t="n">
-        <v>1.09873300301982</v>
+        <v>1.10955820045886</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0597216986264524</v>
+        <v>0.03736875662284232</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.132258760506159</v>
+        <v>0.3194439505114747</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06058266868840245</v>
+        <v>0.02260366026742257</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4998570256186587</v>
+        <v>0.3194439505114747</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06127523075123376</v>
+        <v>0.02260366026742257</v>
       </c>
       <c r="L103" t="n">
-        <v>0.7984013546448554</v>
+        <v>0.8061716209885019</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06124171262723901</v>
+        <v>0.03839512418593422</v>
       </c>
       <c r="N103" t="n">
-        <v>1.096158877714664</v>
+        <v>1.102023993905373</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06133579858932949</v>
+        <v>0.03837872301805428</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.128672732425039</v>
+        <v>0.32167210007205</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06217694944336041</v>
+        <v>0.02319849343235474</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4992803425518012</v>
+        <v>0.32167210007205</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06288773682363465</v>
+        <v>0.02319849343235474</v>
       </c>
       <c r="L104" t="n">
-        <v>0.7971844490051805</v>
+        <v>0.801824765200807</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06285333664374532</v>
+        <v>0.03940552219082723</v>
       </c>
       <c r="N104" t="n">
-        <v>1.089019538852382</v>
+        <v>1.106184786409779</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06294989855220659</v>
+        <v>0.03938868941326623</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.129046567934495</v>
+        <v>0.3238535985197797</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06377123019831836</v>
+        <v>0.02379332659728691</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4948146513449966</v>
+        <v>0.3238535985197797</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06450024289603555</v>
+        <v>0.02379332659728691</v>
       </c>
       <c r="L105" t="n">
-        <v>0.7920694498328131</v>
+        <v>0.8052589643101549</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06446496066025161</v>
+        <v>0.04041592019572023</v>
       </c>
       <c r="N105" t="n">
-        <v>1.082358999972647</v>
+        <v>1.105863068278802</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06456399851508368</v>
+        <v>0.04039865580847819</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1243854797458572</v>
+        <v>0.3259887760201046</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06536551095327632</v>
+        <v>0.02438815976221909</v>
       </c>
       <c r="J106" t="n">
-        <v>0.494980014236724</v>
+        <v>0.3259887760201046</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06611274896843643</v>
+        <v>0.02438815976221909</v>
       </c>
       <c r="L106" t="n">
-        <v>0.7901882774479885</v>
+        <v>0.7985965915783284</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06607658467675788</v>
+        <v>0.04142631820061324</v>
       </c>
       <c r="N106" t="n">
-        <v>1.076821274615129</v>
+        <v>1.105981329819163</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06617809847796079</v>
+        <v>0.04140862220369014</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1216946805704562</v>
+        <v>0.3280779627384663</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06695979170823428</v>
+        <v>0.02498299292715126</v>
       </c>
       <c r="J107" t="n">
-        <v>0.493596493465463</v>
+        <v>0.3280779627384663</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06772525504083732</v>
+        <v>0.02498299292715126</v>
       </c>
       <c r="L107" t="n">
-        <v>0.7859728521709426</v>
+        <v>0.8022600202671106</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06768820869326418</v>
+        <v>0.04243671620550624</v>
       </c>
       <c r="N107" t="n">
-        <v>1.071850376319502</v>
+        <v>1.095662061337585</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06779219844083788</v>
+        <v>0.04241858859890209</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1249793831196224</v>
+        <v>0.3301214888403058</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06855407246319224</v>
+        <v>0.02557782609208343</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4903841512696924</v>
+        <v>0.3301214888403058</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06933776111323821</v>
+        <v>0.02557782609208343</v>
       </c>
       <c r="L108" t="n">
-        <v>0.776755094321911</v>
+        <v>0.799971623638285</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06929983270977047</v>
+        <v>0.04344711421039925</v>
       </c>
       <c r="N108" t="n">
-        <v>1.075090318625437</v>
+        <v>1.09342775314079</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06940629840371497</v>
+        <v>0.04342855499411405</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.126244800104686</v>
+        <v>0.3321196844910644</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0701483532181502</v>
+        <v>0.02617265925701561</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4885630498878916</v>
+        <v>0.3321196844910644</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0709502671856391</v>
+        <v>0.02617265925701561</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7784669242211295</v>
+        <v>0.795553774953635</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07091145672627676</v>
+        <v>0.04445751221529225</v>
       </c>
       <c r="N109" t="n">
-        <v>1.067085115072607</v>
+        <v>1.098200895535501</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07102039836659206</v>
+        <v>0.044438521389326</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1254961442369776</v>
+        <v>0.3340728798561833</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07174263397310816</v>
+        <v>0.02676749242194778</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4832532515585397</v>
+        <v>0.3340728798561833</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07256277325803998</v>
+        <v>0.02676749242194778</v>
       </c>
       <c r="L110" t="n">
-        <v>0.7687402621888337</v>
+        <v>0.7908288474749432</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07252308074278306</v>
+        <v>0.04546791022018527</v>
       </c>
       <c r="N110" t="n">
-        <v>1.057078779200684</v>
+        <v>1.091703978828441</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07263449832946915</v>
+        <v>0.04544848778453796</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1157386282278275</v>
+        <v>0.3359814051011037</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07333691472806612</v>
+        <v>0.02736232558687995</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4821748185201158</v>
+        <v>0.3359814051011037</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07417527933044087</v>
+        <v>0.02736232558687995</v>
       </c>
       <c r="L111" t="n">
-        <v>0.7696070285452599</v>
+        <v>0.794019214463993</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07413470475928934</v>
+        <v>0.04647830822507827</v>
       </c>
       <c r="N111" t="n">
-        <v>1.054515324549339</v>
+        <v>1.083359493326331</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07424859829234624</v>
+        <v>0.04645845417974991</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1199774647885661</v>
+        <v>0.3378455903912668</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07493119548302409</v>
+        <v>0.02795715875181212</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4804478130110993</v>
+        <v>0.3378455903912668</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07578778540284176</v>
+        <v>0.02795715875181212</v>
       </c>
       <c r="L112" t="n">
-        <v>0.7583991436106434</v>
+        <v>0.7895472491825677</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07574632877579562</v>
+        <v>0.04748870622997128</v>
       </c>
       <c r="N112" t="n">
-        <v>1.044038764658245</v>
+        <v>1.080489929335895</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07586269825522333</v>
+        <v>0.04746842057496187</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1152178666305239</v>
+        <v>0.3396657658921137</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07652547623798203</v>
+        <v>0.0285519919167443</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4765922972699691</v>
+        <v>0.3396657658921137</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07740029147524265</v>
+        <v>0.0285519919167443</v>
       </c>
       <c r="L113" t="n">
-        <v>0.75404852770522</v>
+        <v>0.7904353248924503</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07735795279230193</v>
+        <v>0.04849910423486428</v>
       </c>
       <c r="N113" t="n">
-        <v>1.046693113067075</v>
+        <v>1.082017777163855</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07747679821810043</v>
+        <v>0.04847838697017382</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1174650464650312</v>
+        <v>0.3414422617690858</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07811975699293999</v>
+        <v>0.02914682508167647</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4704283335352044</v>
+        <v>0.3414422617690858</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07901279754764354</v>
+        <v>0.02914682508167647</v>
       </c>
       <c r="L114" t="n">
-        <v>0.7515871011492257</v>
+        <v>0.782705814855424</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07896957680880821</v>
+        <v>0.04950950223975729</v>
       </c>
       <c r="N114" t="n">
-        <v>1.032622383315499</v>
+        <v>1.080665527116933</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07909089818097752</v>
+        <v>0.04948835336538578</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1256954190642246</v>
+        <v>0.3431754081876239</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07971403774789795</v>
+        <v>0.02974165824660864</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4694759840452848</v>
+        <v>0.3431754081876239</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08062530362004443</v>
+        <v>0.02974165824660864</v>
       </c>
       <c r="L115" t="n">
-        <v>0.745146784262896</v>
+        <v>0.785481092333272</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0805812008253145</v>
+        <v>0.05051990024465029</v>
       </c>
       <c r="N115" t="n">
-        <v>1.029970588943192</v>
+        <v>1.077855669501852</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08070499814385461</v>
+        <v>0.05049831976059773</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1168214727173336</v>
+        <v>0.3448655353131699</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08130831850285591</v>
+        <v>0.03033649141154082</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4672553110386889</v>
+        <v>0.3448655353131699</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08223780969244532</v>
+        <v>0.03033649141154082</v>
       </c>
       <c r="L116" t="n">
-        <v>0.7430587388520071</v>
+        <v>0.7810835305877779</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08219282484182079</v>
+        <v>0.0515302982495433</v>
       </c>
       <c r="N116" t="n">
-        <v>1.022181743489823</v>
+        <v>1.072610694625335</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0823190981067317</v>
+        <v>0.05150828615580969</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.121851834889584</v>
+        <v>0.3465129733111643</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08290259925781387</v>
+        <v>0.03093132457647299</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4626510159248141</v>
+        <v>0.3465129733111643</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08385031576484621</v>
+        <v>0.03093132457647299</v>
       </c>
       <c r="L117" t="n">
-        <v>0.7370177761271131</v>
+        <v>0.7815355028807238</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08380444885832708</v>
+        <v>0.0525406962544363</v>
       </c>
       <c r="N117" t="n">
-        <v>1.021527256260764</v>
+        <v>1.064453092794102</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08393319806960879</v>
+        <v>0.05251825255102164</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1118034892175929</v>
+        <v>0.3481180523470486</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08449688001277184</v>
+        <v>0.03152615774140516</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4614390027747418</v>
+        <v>0.3481180523470486</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0854628218372471</v>
+        <v>0.03152615774140516</v>
       </c>
       <c r="L118" t="n">
-        <v>0.7309355083503857</v>
+        <v>0.775559382473894</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08541607287483337</v>
+        <v>0.05355109425932931</v>
       </c>
       <c r="N118" t="n">
-        <v>1.006477131185617</v>
+        <v>1.063905354314879</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08554729803248588</v>
+        <v>0.05352821894623359</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1136934193379773</v>
+        <v>0.3496811025862642</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0860911607677298</v>
+        <v>0.03212099090633733</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4573842526410112</v>
+        <v>0.3496811025862642</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08707532790964798</v>
+        <v>0.03212099090633733</v>
       </c>
       <c r="L119" t="n">
-        <v>0.7256159357407552</v>
+        <v>0.7728775426290713</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08702769689133967</v>
+        <v>0.05456149226422232</v>
       </c>
       <c r="N119" t="n">
-        <v>0.9957551606539193</v>
+        <v>1.065689969494387</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08716139799536297</v>
+        <v>0.05453818534144555</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1125386088873544</v>
+        <v>0.3512024541942519</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08768544152268774</v>
+        <v>0.03271582407126951</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4524521306947317</v>
+        <v>0.3512024541942519</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08868783398204887</v>
+        <v>0.03271582407126951</v>
       </c>
       <c r="L120" t="n">
-        <v>0.7241630585171528</v>
+        <v>0.7696123566080386</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08863932090784594</v>
+        <v>0.05557189026911532</v>
       </c>
       <c r="N120" t="n">
-        <v>0.9926047460390907</v>
+        <v>1.054629428639348</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08877549795824007</v>
+        <v>0.05554815173665751</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1193560415023411</v>
+        <v>0.3526824373364532</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0892797222776457</v>
+        <v>0.03331065723620168</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4481080021070127</v>
+        <v>0.3526824373364532</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09030034005444976</v>
+        <v>0.03331065723620168</v>
       </c>
       <c r="L121" t="n">
-        <v>0.7126808768985089</v>
+        <v>0.7715861976725795</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09025094492435223</v>
+        <v>0.05658228827400833</v>
       </c>
       <c r="N121" t="n">
-        <v>0.9787692887145508</v>
+        <v>1.054946222056484</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09038959792111716</v>
+        <v>0.05655811813186946</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1151627008195545</v>
+        <v>0.3541213821783091</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09087400303260366</v>
+        <v>0.03390549040113385</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4466172320489634</v>
+        <v>0.3541213821783091</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09191284612685065</v>
+        <v>0.03390549040113385</v>
       </c>
       <c r="L122" t="n">
-        <v>0.7066733911037542</v>
+        <v>0.7672214390844769</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09186256894085854</v>
+        <v>0.05759268627890134</v>
       </c>
       <c r="N122" t="n">
-        <v>0.9722921900537206</v>
+        <v>1.054162840052519</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09200369788399425</v>
+        <v>0.05756808452708141</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1129755704756116</v>
+        <v>0.355519618885261</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09246828378756163</v>
+        <v>0.03450032356606603</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4376451856916932</v>
+        <v>0.355519618885261</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09352535219925152</v>
+        <v>0.03450032356606603</v>
       </c>
       <c r="L123" t="n">
-        <v>0.7022446013518198</v>
+        <v>0.7658404541055142</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09347419295736482</v>
+        <v>0.05860308428379433</v>
       </c>
       <c r="N123" t="n">
-        <v>0.9578168514300197</v>
+        <v>1.043801772934175</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09361779784687134</v>
+        <v>0.05857805092229337</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1048116341071297</v>
+        <v>0.3568774776227501</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09406256454251959</v>
+        <v>0.03509515673099819</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4327572282063114</v>
+        <v>0.3568774776227501</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09513785827165241</v>
+        <v>0.03509515673099819</v>
       </c>
       <c r="L124" t="n">
-        <v>0.6891985078616363</v>
+        <v>0.765165615997474</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09508581697387111</v>
+        <v>0.05961348228868735</v>
       </c>
       <c r="N124" t="n">
-        <v>0.9483866742168686</v>
+        <v>1.044585511008174</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09523189780974843</v>
+        <v>0.05958801731750532</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1116878753507256</v>
+        <v>0.3581952885562174</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09565684529747755</v>
+        <v>0.03568998989593037</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4325187247639273</v>
+        <v>0.3581952885562174</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09675036434405331</v>
+        <v>0.03568998989593037</v>
       </c>
       <c r="L125" t="n">
-        <v>0.6835391108521343</v>
+        <v>0.7623192980221403</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0966974409903774</v>
+        <v>0.06062388029358035</v>
       </c>
       <c r="N125" t="n">
-        <v>0.9423450597876871</v>
+        <v>1.040136544581239</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09684599777262552</v>
+        <v>0.06059798371271728</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1016129846596286</v>
+        <v>0.3594733818511042</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09725112605243551</v>
+        <v>0.03628482306086254</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4251950405356504</v>
+        <v>0.3594733818511042</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0983628704164542</v>
+        <v>0.03628482306086254</v>
       </c>
       <c r="L126" t="n">
-        <v>0.6764704105422445</v>
+        <v>0.7649238734412958</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09830906500688369</v>
+        <v>0.06163427829847336</v>
       </c>
       <c r="N126" t="n">
-        <v>0.9336354095158955</v>
+        <v>1.036477363960092</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09846009773550261</v>
+        <v>0.06160795010792924</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1014703073502589</v>
+        <v>0.3607120876728518</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09884540680739347</v>
+        <v>0.03687965622579472</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4245515406925898</v>
+        <v>0.3607120876728518</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09997537648885509</v>
+        <v>0.03687965622579472</v>
       </c>
       <c r="L127" t="n">
-        <v>0.671496407150898</v>
+        <v>0.7644824026949426</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09992068902338998</v>
+        <v>0.06264467630336637</v>
       </c>
       <c r="N127" t="n">
-        <v>0.923401124774914</v>
+        <v>1.033493468328906</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1000741976983797</v>
+        <v>0.06261791650314119</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.109235774150902</v>
+        <v>0.3619117361869013</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1004396875623514</v>
+        <v>0.03747448939072689</v>
       </c>
       <c r="J128" t="n">
-        <v>0.419959725759447</v>
+        <v>0.3619117361869013</v>
       </c>
       <c r="K128" t="n">
-        <v>0.101587882561256</v>
+        <v>0.03747448939072689</v>
       </c>
       <c r="L128" t="n">
-        <v>0.6637464238897595</v>
+        <v>0.7602278620760325</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1015323130398963</v>
+        <v>0.06365507430825937</v>
       </c>
       <c r="N128" t="n">
-        <v>0.9138026803535674</v>
+        <v>1.036239669906708</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1016882976612568</v>
+        <v>0.06362788289835315</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09793369714235058</v>
+        <v>0.363072657558694</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1020339683173094</v>
+        <v>0.03806932255565906</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4144936428552873</v>
+        <v>0.363072657558694</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1032003886336569</v>
+        <v>0.03806932255565906</v>
       </c>
       <c r="L129" t="n">
-        <v>0.6621914189251452</v>
+        <v>0.7636137916205616</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1031439370564026</v>
+        <v>0.06466547231315238</v>
       </c>
       <c r="N129" t="n">
-        <v>0.9012297912203654</v>
+        <v>1.039081684781265</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1033023976241339</v>
+        <v>0.0646378492935651</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09958838840539734</v>
+        <v>0.364195181953671</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1036282490722674</v>
+        <v>0.03866415572059124</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4069202811857091</v>
+        <v>0.364195181953671</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1048128947060578</v>
+        <v>0.03866415572059124</v>
       </c>
       <c r="L130" t="n">
-        <v>0.6475582459508475</v>
+        <v>0.7591366050395592</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1047555610729088</v>
+        <v>0.06567587031804538</v>
       </c>
       <c r="N130" t="n">
-        <v>0.8927560785842014</v>
+        <v>1.031637655251301</v>
       </c>
       <c r="O130" t="n">
-        <v>0.104916497587011</v>
+        <v>0.06564781568877705</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09822416002083502</v>
+        <v>0.3652796395372735</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1052225298272253</v>
+        <v>0.03925898888552341</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4022332110123041</v>
+        <v>0.3652796395372735</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1064254007784586</v>
+        <v>0.03925898888552341</v>
       </c>
       <c r="L131" t="n">
-        <v>0.6438957813107331</v>
+        <v>0.7581927160440556</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1063671850894151</v>
+        <v>0.06668626832293838</v>
       </c>
       <c r="N131" t="n">
-        <v>0.8813868215531354</v>
+        <v>1.024525723615545</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1065305975498881</v>
+        <v>0.06665778208398901</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09286532406945623</v>
+        <v>0.3663263604749428</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1068168105821833</v>
+        <v>0.03985382205045558</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3999260025966639</v>
+        <v>0.3663263604749428</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1080379068508595</v>
+        <v>0.03985382205045558</v>
       </c>
       <c r="L132" t="n">
-        <v>0.6374529013486678</v>
+        <v>0.7633785383450808</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1079788091059214</v>
+        <v>0.06769666632783139</v>
       </c>
       <c r="N132" t="n">
-        <v>0.8739272992352284</v>
+        <v>1.028664032172723</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1081446975127652</v>
+        <v>0.06766774847920096</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09853619263205372</v>
+        <v>0.36733567493212</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1084110913371412</v>
+        <v>0.04044865521538775</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3953922262003805</v>
+        <v>0.36733567493212</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1096504129232604</v>
+        <v>0.04044865521538775</v>
       </c>
       <c r="L133" t="n">
-        <v>0.6292784824085185</v>
+        <v>0.7587904856536654</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1095904331224277</v>
+        <v>0.0687070643327244</v>
       </c>
       <c r="N133" t="n">
-        <v>0.8603827907385405</v>
+        <v>1.02147072322156</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1097587974756423</v>
+        <v>0.06867771487441292</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.09526107778942015</v>
+        <v>0.3683079130742464</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1100053720920992</v>
+        <v>0.04104348838031992</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3904254520850455</v>
+        <v>0.3683079130742464</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1112629189956613</v>
+        <v>0.04104348838031992</v>
       </c>
       <c r="L134" t="n">
-        <v>0.6211214008341515</v>
+        <v>0.7577249716808387</v>
       </c>
       <c r="M134" t="n">
-        <v>0.111202057138934</v>
+        <v>0.0697174623376174</v>
       </c>
       <c r="N134" t="n">
-        <v>0.8549585751711329</v>
+        <v>1.022863939060786</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1113728974385193</v>
+        <v>0.06968768126962488</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09006429162234823</v>
+        <v>0.369243405066763</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1115996528470571</v>
+        <v>0.0416383215452521</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3814192505122508</v>
+        <v>0.369243405066763</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1128754250680622</v>
+        <v>0.0416383215452521</v>
       </c>
       <c r="L135" t="n">
-        <v>0.6113305329694332</v>
+        <v>0.7628784101376316</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1128136811554403</v>
+        <v>0.07072786034251041</v>
       </c>
       <c r="N135" t="n">
-        <v>0.8363599316410654</v>
+        <v>1.019561821989125</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1129869974013964</v>
+        <v>0.07069764766483683</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0889701462116307</v>
+        <v>0.3701424810751113</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1131939336020151</v>
+        <v>0.04223315471018427</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3783671917435886</v>
+        <v>0.3701424810751113</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1144879311404631</v>
+        <v>0.04223315471018427</v>
       </c>
       <c r="L136" t="n">
-        <v>0.6070547551582293</v>
+        <v>0.7609472147350735</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1144253051719466</v>
+        <v>0.07173825834740341</v>
       </c>
       <c r="N136" t="n">
-        <v>0.8327921392563989</v>
+        <v>1.020082514305305</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1146010973642735</v>
+        <v>0.07170761406004879</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0960029536380602</v>
+        <v>0.3710054712647323</v>
       </c>
       <c r="G137" t="n">
-        <v>0.114788214356973</v>
+        <v>0.04282798787511644</v>
       </c>
       <c r="J137" t="n">
-        <v>0.37576284604065</v>
+        <v>0.3710054712647323</v>
       </c>
       <c r="K137" t="n">
-        <v>0.116100437212864</v>
+        <v>0.04282798787511644</v>
       </c>
       <c r="L137" t="n">
-        <v>0.6009429437444072</v>
+        <v>0.7559277991841946</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1160369291884529</v>
+        <v>0.07274865635229642</v>
       </c>
       <c r="N137" t="n">
-        <v>0.823260477125194</v>
+        <v>1.010444158308053</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1162151973271506</v>
+        <v>0.07271758045526074</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09418702598242941</v>
+        <v>0.3718327058010672</v>
       </c>
       <c r="G138" t="n">
-        <v>0.116382495111931</v>
+        <v>0.04342282104004862</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3686997836650274</v>
+        <v>0.3718327058010672</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1177129432852649</v>
+        <v>0.04342282104004862</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5935439750718325</v>
+        <v>0.7616165771960255</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1176485532049592</v>
+        <v>0.07375905435718944</v>
       </c>
       <c r="N138" t="n">
-        <v>0.8163702243555117</v>
+        <v>1.004764896296094</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1178292972900277</v>
+        <v>0.07372754685047268</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09554667532553103</v>
+        <v>0.3726245148495575</v>
       </c>
       <c r="G139" t="n">
-        <v>0.117976775866889</v>
+        <v>0.04401765420498079</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3669715748783126</v>
+        <v>0.3726245148495575</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1193254493576657</v>
+        <v>0.04401765420498079</v>
       </c>
       <c r="L139" t="n">
-        <v>0.583406725484372</v>
+        <v>0.7571099624815958</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1192601772214655</v>
+        <v>0.07476945236208243</v>
       </c>
       <c r="N139" t="n">
-        <v>0.8059266600554117</v>
+        <v>1.003862870568157</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1194433972529048</v>
+        <v>0.07473751324568464</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.08610621374815776</v>
+        <v>0.3733812285756439</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1195710566218469</v>
+        <v>0.04461248736991296</v>
       </c>
       <c r="J140" t="n">
-        <v>0.3649717899420969</v>
+        <v>0.3733812285756439</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1209379554300666</v>
+        <v>0.04461248736991296</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5834800713258919</v>
+        <v>0.7589043687519357</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1208718012379717</v>
+        <v>0.07577985036697543</v>
       </c>
       <c r="N140" t="n">
-        <v>0.804135063332955</v>
+        <v>1.008956223422968</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1210574972157819</v>
+        <v>0.07574747964089661</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.09488995333110233</v>
+        <v>0.374103177144768</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1211653373768049</v>
+        <v>0.04520732053484514</v>
       </c>
       <c r="J141" t="n">
-        <v>0.3654939991179724</v>
+        <v>0.374103177144768</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1225504615024675</v>
+        <v>0.04520732053484514</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5745128889402584</v>
+        <v>0.7620962097180752</v>
       </c>
       <c r="M141" t="n">
-        <v>0.122483425254478</v>
+        <v>0.07679024837186844</v>
       </c>
       <c r="N141" t="n">
-        <v>0.7915007132962023</v>
+        <v>0.997463097159253</v>
       </c>
       <c r="O141" t="n">
-        <v>0.122671597178659</v>
+        <v>0.07675744603610855</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.09587878164078469</v>
+        <v>0.3747906907223708</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1227596181317629</v>
+        <v>0.0458021536997773</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3611317726675312</v>
+        <v>0.3747906907223708</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1241629675748684</v>
+        <v>0.0458021536997773</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5752540546713385</v>
+        <v>0.7612818990910444</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1240950492709843</v>
+        <v>0.07780064637676144</v>
       </c>
       <c r="N142" t="n">
-        <v>0.7940288890532136</v>
+        <v>1.005301634075739</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1242856971415361</v>
+        <v>0.07776741243132052</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.08891969870135126</v>
+        <v>0.3754440994738937</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1243538988867208</v>
+        <v>0.04639698686470948</v>
       </c>
       <c r="J143" t="n">
-        <v>0.3640554100766322</v>
+        <v>0.3754440994738937</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1257754736472693</v>
+        <v>0.04639698686470948</v>
       </c>
       <c r="L143" t="n">
-        <v>0.573791321290356</v>
+        <v>0.7560578505818736</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1257066732874906</v>
+        <v>0.07881104438165445</v>
       </c>
       <c r="N143" t="n">
-        <v>0.7916126964090587</v>
+        <v>0.9974899764711532</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1258997971044132</v>
+        <v>0.07877737882653246</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.08899530416450772</v>
+        <v>0.3760637335647778</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1259481796416788</v>
+        <v>0.04699182002964165</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3619583264952904</v>
+        <v>0.3760637335647778</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1273879797196702</v>
+        <v>0.04699182002964165</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5771697085030376</v>
+        <v>0.7618204779015927</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1273182973039969</v>
+        <v>0.07982144238654747</v>
       </c>
       <c r="N144" t="n">
-        <v>0.7933019465863754</v>
+        <v>1.002246266644222</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1275138970672903</v>
+        <v>0.07978734522174441</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0911038115874135</v>
+        <v>0.3766499231604641</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1275424603966367</v>
+        <v>0.04758665319457383</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3642957671685449</v>
+        <v>0.3766499231604641</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1290004857920711</v>
+        <v>0.04758665319457383</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5753615311918472</v>
+        <v>0.753766194761232</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1289299213205032</v>
+        <v>0.08083184039144047</v>
       </c>
       <c r="N145" t="n">
-        <v>0.7858878187509811</v>
+        <v>0.9898886468936724</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1291279970301674</v>
+        <v>0.08079731161695637</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08624343452722809</v>
+        <v>0.377202998426394</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1291367411515947</v>
+        <v>0.048181486359506</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3616608565876588</v>
+        <v>0.377202998426394</v>
       </c>
       <c r="K146" t="n">
-        <v>0.130612991864472</v>
+        <v>0.048181486359506</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5757558499772681</v>
+        <v>0.7615914148718212</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1305415453370095</v>
+        <v>0.08184223839633348</v>
       </c>
       <c r="N146" t="n">
-        <v>0.7894552290687923</v>
+        <v>0.990235259518231</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1307420969930445</v>
+        <v>0.08180727801216832</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.09141238654111099</v>
+        <v>0.3777232895280088</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1307310219065526</v>
+        <v>0.04877631952443817</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3646467192438946</v>
+        <v>0.3777232895280088</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1322254979368729</v>
+        <v>0.04877631952443817</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5818417254797843</v>
+        <v>0.7581925519443904</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1321531693535158</v>
+        <v>0.08285263640122649</v>
       </c>
       <c r="N147" t="n">
-        <v>0.7958890937057251</v>
+        <v>0.9924042468166242</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1323561969559216</v>
+        <v>0.08281724440738028</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08860888118622161</v>
+        <v>0.3782111266307497</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1323253026615106</v>
+        <v>0.04937115268937035</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3640464796285153</v>
+        <v>0.3782111266307497</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1338380040092738</v>
+        <v>0.04937115268937035</v>
       </c>
       <c r="L148" t="n">
-        <v>0.581608218319879</v>
+        <v>0.7535660196899703</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1337647933700221</v>
+        <v>0.08386303440611949</v>
       </c>
       <c r="N148" t="n">
-        <v>0.7993743288276957</v>
+        <v>0.9959137510875792</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1339702969187987</v>
+        <v>0.08382721080259224</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08783113201971944</v>
+        <v>0.3786668399000577</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1339195834164686</v>
+        <v>0.04996598585430252</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3633532622327841</v>
+        <v>0.3786668399000577</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1354505100816746</v>
+        <v>0.04996598585430252</v>
       </c>
       <c r="L149" t="n">
-        <v>0.5837443891180361</v>
+        <v>0.7558082318195904</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1353764173865284</v>
+        <v>0.08487343241101249</v>
       </c>
       <c r="N149" t="n">
-        <v>0.7911958506006204</v>
+        <v>0.986681914629823</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1355843968816758</v>
+        <v>0.08483717719780419</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.09407735259876394</v>
+        <v>0.3790907595013739</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1355138641714265</v>
+        <v>0.05056081901923469</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3643601915479634</v>
+        <v>0.3790907595013739</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1370630161540755</v>
+        <v>0.05056081901923469</v>
       </c>
       <c r="L150" t="n">
-        <v>0.5800392984947389</v>
+        <v>0.7566156020442807</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1369880414030347</v>
+        <v>0.08588383041590548</v>
       </c>
       <c r="N150" t="n">
-        <v>0.7974385751904157</v>
+        <v>0.9891268797420817</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1371984968445528</v>
+        <v>0.08584714359301615</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.09334575648051462</v>
+        <v>0.37948321560014</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1371081449263845</v>
+        <v>0.05115565218416687</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3670603920653165</v>
+        <v>0.37948321560014</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1386755222264764</v>
+        <v>0.05115565218416687</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5863820070704713</v>
+        <v>0.7542845440750718</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1385996654195409</v>
+        <v>0.0868942284207985</v>
       </c>
       <c r="N151" t="n">
-        <v>0.7981874187629981</v>
+        <v>0.9888667887230821</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1388125968074299</v>
+        <v>0.0868571099882281</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08663455722213088</v>
+        <v>0.3798445383617968</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1387024256813424</v>
+        <v>0.05175048534909904</v>
       </c>
       <c r="J152" t="n">
-        <v>0.368246988276106</v>
+        <v>0.3798445383617968</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1402880282988773</v>
+        <v>0.05175048534909904</v>
       </c>
       <c r="L152" t="n">
-        <v>0.5885615754657167</v>
+        <v>0.7550998804817641</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1402112894360472</v>
+        <v>0.08790462642569151</v>
       </c>
       <c r="N152" t="n">
-        <v>0.804227297484284</v>
+        <v>0.9909956341390164</v>
       </c>
       <c r="O152" t="n">
-        <v>0.140426696770307</v>
+        <v>0.08786707638344005</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.08994196838077227</v>
+        <v>0.3801750579517856</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1402967064363004</v>
+        <v>0.05234531851403122</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3698131046715951</v>
+        <v>0.3801750579517856</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1419005343712782</v>
+        <v>0.05234531851403122</v>
       </c>
       <c r="L153" t="n">
-        <v>0.583467064300959</v>
+        <v>0.7534467138016432</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1418229134525535</v>
+        <v>0.08891502443058451</v>
       </c>
       <c r="N153" t="n">
-        <v>0.8000431275201897</v>
+        <v>0.995482711929781</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1420407967331841</v>
+        <v>0.08887704277865201</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.08727954877046</v>
+        <v>0.3804751045355476</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1418909871912584</v>
+        <v>0.05294015167896339</v>
       </c>
       <c r="J154" t="n">
-        <v>0.3712518657430464</v>
+        <v>0.3804751045355476</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1435130404436791</v>
+        <v>0.05294015167896339</v>
       </c>
       <c r="L154" t="n">
-        <v>0.5884875341966813</v>
+        <v>0.7561274937772464</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1434345374690598</v>
+        <v>0.08992542243547752</v>
       </c>
       <c r="N154" t="n">
-        <v>0.8070198250366308</v>
+        <v>0.9883246626685599</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1436548966960612</v>
+        <v>0.08988700917386397</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.09785821809235738</v>
+        <v>0.380745008278524</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1434852679462163</v>
+        <v>0.05353498484389555</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3706574557514322</v>
+        <v>0.380745008278524</v>
       </c>
       <c r="K155" t="n">
-        <v>0.14512554651608</v>
+        <v>0.05353498484389555</v>
       </c>
       <c r="L155" t="n">
-        <v>0.5911220967704689</v>
+        <v>0.7550447391706685</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1450461614855661</v>
+        <v>0.09093582044037053</v>
       </c>
       <c r="N155" t="n">
-        <v>0.8094423061995245</v>
+        <v>0.9883181823528852</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1452689966589383</v>
+        <v>0.09089697556907592</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.09271015259054428</v>
+        <v>0.380985099346156</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1450795487011743</v>
+        <v>0.05412981800882773</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3716570073267363</v>
+        <v>0.380985099346156</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1467380525884809</v>
+        <v>0.05412981800882773</v>
       </c>
       <c r="L156" t="n">
-        <v>0.5946598097071563</v>
+        <v>0.7549009687440043</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1466577855020724</v>
+        <v>0.09194621844526353</v>
       </c>
       <c r="N156" t="n">
-        <v>0.8134249419580527</v>
+        <v>0.9885599669802886</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1468830966218154</v>
+        <v>0.09190694196428788</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.09978142386739862</v>
+        <v>0.3811957079038849</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1466738294561322</v>
+        <v>0.0547246511737599</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3767445381499432</v>
+        <v>0.3811957079038849</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1483505586608817</v>
+        <v>0.0547246511737599</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5993099955954606</v>
+        <v>0.7499987012593488</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1482694095185787</v>
+        <v>0.09295661645015654</v>
       </c>
       <c r="N157" t="n">
-        <v>0.8191346147442825</v>
+        <v>0.9959467125483025</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1484971965846925</v>
+        <v>0.09291690835949983</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1030181035252982</v>
+        <v>0.3813771641171517</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1482681102110902</v>
+        <v>0.05531948433869208</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3814124932069117</v>
+        <v>0.3813771641171517</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1499630647332826</v>
+        <v>0.05531948433869208</v>
       </c>
       <c r="L158" t="n">
-        <v>0.6082424209709159</v>
+        <v>0.7532404554787975</v>
       </c>
       <c r="M158" t="n">
-        <v>0.149881033535085</v>
+        <v>0.09396701445504956</v>
       </c>
       <c r="N158" t="n">
-        <v>0.8333220106433775</v>
+        <v>0.989375115054458</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1501112965475696</v>
+        <v>0.09392687475471177</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1053662631666209</v>
+        <v>0.3815297981513978</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1498623909660482</v>
+        <v>0.05591431750362424</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3824533174835004</v>
+        <v>0.3815297981513978</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1515755708056835</v>
+        <v>0.05591431750362424</v>
       </c>
       <c r="L159" t="n">
-        <v>0.6101268523690555</v>
+        <v>0.7467287501644455</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1514926575515912</v>
+        <v>0.09497741245994255</v>
       </c>
       <c r="N159" t="n">
-        <v>0.8388317851104844</v>
+        <v>0.993841870496288</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1517253965104467</v>
+        <v>0.09493684114992373</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1047719743937447</v>
+        <v>0.3816539401720643</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1514566717210061</v>
+        <v>0.05650915066855642</v>
       </c>
       <c r="J160" t="n">
-        <v>0.389559455965568</v>
+        <v>0.3816539401720643</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1531880768780844</v>
+        <v>0.05650915066855642</v>
       </c>
       <c r="L160" t="n">
-        <v>0.6154330563254136</v>
+        <v>0.7486661040783875</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1531042815680975</v>
+        <v>0.09598781046483555</v>
       </c>
       <c r="N160" t="n">
-        <v>0.844908593600748</v>
+        <v>0.9924436748713242</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1533394964733238</v>
+        <v>0.0959468075451357</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.09918130880904717</v>
+        <v>0.3817499203445925</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1530509524759641</v>
+        <v>0.05710398383348859</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3929233536389731</v>
+        <v>0.3817499203445925</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1548005829504853</v>
+        <v>0.05710398383348859</v>
       </c>
       <c r="L161" t="n">
-        <v>0.6309307993755233</v>
+        <v>0.7517550359827185</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1547159055846039</v>
+        <v>0.09699820846972856</v>
       </c>
       <c r="N161" t="n">
-        <v>0.8610970915693151</v>
+        <v>0.9949772241770983</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1549535964362009</v>
+        <v>0.09695677394034764</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1085403380149065</v>
+        <v>0.3818180688344236</v>
       </c>
       <c r="G162" t="n">
-        <v>0.154645233230922</v>
+        <v>0.05769881699842077</v>
       </c>
       <c r="J162" t="n">
-        <v>0.3976374554895747</v>
+        <v>0.3818180688344236</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1564130890228862</v>
+        <v>0.05769881699842077</v>
       </c>
       <c r="L162" t="n">
-        <v>0.6362898480549186</v>
+        <v>0.7438980646395337</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1563275296011101</v>
+        <v>0.09800860647462156</v>
       </c>
       <c r="N162" t="n">
-        <v>0.8692419344713304</v>
+        <v>0.9912392144111427</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1565676963990779</v>
+        <v>0.0979667403355596</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1027951336137003</v>
+        <v>0.3818587158069986</v>
       </c>
       <c r="G163" t="n">
-        <v>0.15623951398588</v>
+        <v>0.05829365016335294</v>
       </c>
       <c r="J163" t="n">
-        <v>0.4054942065032316</v>
+        <v>0.3818587158069986</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1580255950952871</v>
+        <v>0.05829365016335294</v>
       </c>
       <c r="L163" t="n">
-        <v>0.6438799688991332</v>
+        <v>0.7432977088109283</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1579391536176164</v>
+        <v>0.09901900447951457</v>
       </c>
       <c r="N163" t="n">
-        <v>0.8773877777619404</v>
+        <v>0.9955263415709891</v>
       </c>
       <c r="O163" t="n">
-        <v>0.158181796361955</v>
+        <v>0.09897670673077155</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1008917939054595</v>
+        <v>0.3818721914277591</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1578337947408379</v>
+        <v>0.05888848332828511</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4100860516658023</v>
+        <v>0.3818721914277591</v>
       </c>
       <c r="K164" t="n">
-        <v>0.159638101167688</v>
+        <v>0.05888848332828511</v>
       </c>
       <c r="L164" t="n">
-        <v>0.6489709284437006</v>
+        <v>0.7487564872589967</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1595507776341227</v>
+        <v>0.1000294024844076</v>
       </c>
       <c r="N164" t="n">
-        <v>0.8893792768962904</v>
+        <v>0.9920353016541693</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1597958963248321</v>
+        <v>0.09998667312598351</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1028819245605493</v>
+        <v>0.381872191427759</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1594280754957959</v>
+        <v>0.05888848332828511</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4112054359631455</v>
+        <v>0.381872191427759</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1612506072400889</v>
+        <v>0.05888848332828511</v>
       </c>
       <c r="L165" t="n">
-        <v>0.6592324932241547</v>
+        <v>0.7451769187458344</v>
       </c>
       <c r="M165" t="n">
-        <v>0.161162401650629</v>
+        <v>0.1010398004893006</v>
       </c>
       <c r="N165" t="n">
-        <v>0.9064610873295268</v>
+        <v>0.989562790658216</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1614099962877092</v>
+        <v>0.1009966395211955</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1138480010679138</v>
+        <v>0.3761582258735852</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1610223562507539</v>
+        <v>0.05888821479982109</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4177468691768836</v>
+        <v>0.3761582258735852</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1628631133124897</v>
+        <v>0.05888821479982109</v>
       </c>
       <c r="L166" t="n">
-        <v>0.6679784980172678</v>
+        <v>0.7420615220335367</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1627740256671353</v>
+        <v>0.1020501984941936</v>
       </c>
       <c r="N166" t="n">
-        <v>0.9150973686830092</v>
+        <v>0.99220550458066</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1630240962505863</v>
+        <v>0.1020066059164074</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1017917341986383</v>
+        <v>0.3705033325458699</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1626166370057118</v>
+        <v>0.05888794627135708</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4226914978897242</v>
+        <v>0.3705033325458699</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1644756193848906</v>
+        <v>0.05888794627135708</v>
       </c>
       <c r="L167" t="n">
-        <v>0.6694761395140547</v>
+        <v>0.7410128158841978</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1643856496836416</v>
+        <v>0.1030605964990866</v>
       </c>
       <c r="N167" t="n">
-        <v>0.9232962065074278</v>
+        <v>1.001160139419034</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1646381962134634</v>
+        <v>0.1030165723116194</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1157148347238083</v>
+        <v>0.3649096088286988</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1642109177606698</v>
+        <v>0.05888767774289305</v>
       </c>
       <c r="J168" t="n">
-        <v>0.424750396508087</v>
+        <v>0.3649096088286988</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1660881254572915</v>
+        <v>0.05888767774289305</v>
       </c>
       <c r="L168" t="n">
-        <v>0.6785378603861205</v>
+        <v>0.7369333190599137</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1659972737001479</v>
+        <v>0.1040709945039796</v>
       </c>
       <c r="N168" t="n">
-        <v>0.9311057674856876</v>
+        <v>0.9982233911708703</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1662522961763405</v>
+        <v>0.1040265387068313</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1066190134145091</v>
+        <v>0.3593791521068873</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1658051985156277</v>
+        <v>0.05888740921442904</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4297301493017164</v>
+        <v>0.3593791521068873</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1677006315296924</v>
+        <v>0.05888740921442904</v>
       </c>
       <c r="L169" t="n">
-        <v>0.6788741366328896</v>
+        <v>0.7386255503227788</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1676088977166542</v>
+        <v>0.1050813925088726</v>
       </c>
       <c r="N169" t="n">
-        <v>0.9349404965172404</v>
+        <v>0.9924919558337003</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1678663961392176</v>
+        <v>0.1050365051020433</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1055059810418261</v>
+        <v>0.3539140597645188</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1673994792705857</v>
+        <v>0.05888714068596503</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4318373405403565</v>
+        <v>0.3539140597645188</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1693131376020933</v>
+        <v>0.05888714068596503</v>
       </c>
       <c r="L170" t="n">
-        <v>0.6875954442537862</v>
+        <v>0.7356920284348885</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1692205217331605</v>
+        <v>0.1060917905137656</v>
       </c>
       <c r="N170" t="n">
-        <v>0.9379148385015376</v>
+        <v>0.9929625294050562</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1694804961020947</v>
+        <v>0.1060464714972552</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1103774483768447</v>
+        <v>0.3485164291859213</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1689937600255437</v>
+        <v>0.05888687215750101</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4368785544937518</v>
+        <v>0.3485164291859213</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1709256436744942</v>
+        <v>0.05888687215750101</v>
       </c>
       <c r="L171" t="n">
-        <v>0.6936122592482343</v>
+        <v>0.7384352721583378</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1708321457496667</v>
+        <v>0.1071021885186586</v>
       </c>
       <c r="N171" t="n">
-        <v>0.9542432383380298</v>
+        <v>0.9957318078824701</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1710945960649718</v>
+        <v>0.1070564378924672</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1062351261906503</v>
+        <v>0.3431883577551925</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1705880407805016</v>
+        <v>0.05888660362903698</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4374603754316462</v>
+        <v>0.3431883577551925</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1725381497468951</v>
+        <v>0.05888660362903698</v>
       </c>
       <c r="L172" t="n">
-        <v>0.6953350576156581</v>
+        <v>0.7315578002552214</v>
       </c>
       <c r="M172" t="n">
-        <v>0.172443769766173</v>
+        <v>0.1081125865235516</v>
       </c>
       <c r="N172" t="n">
-        <v>0.9617401409261691</v>
+        <v>1.001096487263474</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1727086960278489</v>
+        <v>0.1080664042876791</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1180807252543282</v>
+        <v>0.3379319428571245</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1721823215354596</v>
+        <v>0.05888633510057297</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4393893876237841</v>
+        <v>0.3379319428571245</v>
       </c>
       <c r="K173" t="n">
-        <v>0.174150655819296</v>
+        <v>0.05888633510057297</v>
       </c>
       <c r="L173" t="n">
-        <v>0.7035743153554819</v>
+        <v>0.7354621314876346</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1740553937826793</v>
+        <v>0.1091229845284446</v>
       </c>
       <c r="N173" t="n">
-        <v>0.9666199911654064</v>
+        <v>0.9994532635455987</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1743227959907259</v>
+        <v>0.1090763706828911</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1199159563389639</v>
+        <v>0.332749281875812</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1737766022904176</v>
+        <v>0.05888606657210895</v>
       </c>
       <c r="J174" t="n">
-        <v>0.44377217533991</v>
+        <v>0.332749281875812</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1757631618916969</v>
+        <v>0.05888606657210895</v>
       </c>
       <c r="L174" t="n">
-        <v>0.7066405084671294</v>
+        <v>0.7277507846176725</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1756670177991856</v>
+        <v>0.1101333825333376</v>
       </c>
       <c r="N174" t="n">
-        <v>0.9745972339551933</v>
+        <v>1.004898832726378</v>
       </c>
       <c r="O174" t="n">
-        <v>0.175936895953603</v>
+        <v>0.1100863370781031</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1157425302156427</v>
+        <v>0.3276424721955831</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1753708830453755</v>
+        <v>0.05888579804364494</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4491153228497677</v>
+        <v>0.3276424721955831</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1773756679640977</v>
+        <v>0.05888579804364494</v>
       </c>
       <c r="L175" t="n">
-        <v>0.712444112950025</v>
+        <v>0.7336262784074301</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1772786418156919</v>
+        <v>0.1111437805382306</v>
       </c>
       <c r="N175" t="n">
-        <v>0.976186314194981</v>
+        <v>1.002529890803343</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1775509959164801</v>
+        <v>0.111096303473315</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1155695623522583</v>
+        <v>0.3226136112005489</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1769651638003334</v>
+        <v>0.05888552951518091</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4484254144231018</v>
+        <v>0.3226136112005489</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1789881740364986</v>
+        <v>0.05888552951518091</v>
       </c>
       <c r="L176" t="n">
-        <v>0.7183956048035931</v>
+        <v>0.7256911316190022</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1788902658321982</v>
+        <v>0.1121541785431237</v>
       </c>
       <c r="N176" t="n">
-        <v>0.9797016767842209</v>
+        <v>0.9982431337740255</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1791650958793572</v>
+        <v>0.112106269868527</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1224430616193286</v>
+        <v>0.3176647962754753</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1785594445552914</v>
+        <v>0.0588852609867169</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4550372294164453</v>
+        <v>0.3176647962754753</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1806006801088995</v>
+        <v>0.0588852609867169</v>
       </c>
       <c r="L177" t="n">
-        <v>0.7222600702330002</v>
+        <v>0.7302478630144842</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1805018898487045</v>
+        <v>0.1131645765480167</v>
       </c>
       <c r="N177" t="n">
-        <v>0.9926985368717375</v>
+        <v>1.000935257635958</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1807791958422343</v>
+        <v>0.1131162362637389</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1163464703546002</v>
+        <v>0.3127981248044697</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1801537253102494</v>
+        <v>0.05888499245825288</v>
       </c>
       <c r="J178" t="n">
-        <v>0.4588252736100547</v>
+        <v>0.3127981248044697</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1822131861813004</v>
+        <v>0.05888499245825288</v>
       </c>
       <c r="L178" t="n">
-        <v>0.7307097934629367</v>
+        <v>0.7295989913559706</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1821135138652108</v>
+        <v>0.1141749745529097</v>
       </c>
       <c r="N178" t="n">
-        <v>0.9968653071158836</v>
+        <v>1.002602958386672</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1823932958051114</v>
+        <v>0.1141262026589509</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1162504005281617</v>
+        <v>0.3080156941718604</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1817480060652073</v>
+        <v>0.05888472392978887</v>
       </c>
       <c r="J179" t="n">
-        <v>0.4624252426585623</v>
+        <v>0.3080156941718604</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1838256922537013</v>
+        <v>0.05888472392978887</v>
       </c>
       <c r="L179" t="n">
-        <v>0.7296292234290866</v>
+        <v>0.7253470354055571</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1837251378817171</v>
+        <v>0.1151853725578027</v>
       </c>
       <c r="N179" t="n">
-        <v>1.002598453890011</v>
+        <v>0.9968429320236992</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1840073957679885</v>
+        <v>0.1151361690541628</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1241254641101015</v>
+        <v>0.303319601761773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1833422868201653</v>
+        <v>0.05888445540132484</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4642240304206251</v>
+        <v>0.303319601761773</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1854381983261022</v>
+        <v>0.05888445540132484</v>
       </c>
       <c r="L180" t="n">
-        <v>0.7368384009381599</v>
+        <v>0.7199945139253383</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1853367618982233</v>
+        <v>0.1161957705626957</v>
       </c>
       <c r="N180" t="n">
-        <v>1.014249839298423</v>
+        <v>1.004551874544572</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1856214957308656</v>
+        <v>0.1161461354493748</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1199422730705081</v>
+        <v>0.2987119449589445</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1849365675751233</v>
+        <v>0.05888418687286083</v>
       </c>
       <c r="J181" t="n">
-        <v>0.4672085307548995</v>
+        <v>0.2987119449589445</v>
       </c>
       <c r="K181" t="n">
-        <v>0.187050704398503</v>
+        <v>0.05888418687286083</v>
       </c>
       <c r="L181" t="n">
-        <v>0.7417573667968662</v>
+        <v>0.7186439456774094</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1869483859147296</v>
+        <v>0.1172061685675887</v>
       </c>
       <c r="N181" t="n">
-        <v>1.014871325445423</v>
+        <v>1.006426481946823</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1872355956937427</v>
+        <v>0.1171561018445867</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.11867143937947</v>
+        <v>0.2941948211474967</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1865308483300812</v>
+        <v>0.05888391834439682</v>
       </c>
       <c r="J182" t="n">
-        <v>0.4677656375200423</v>
+        <v>0.2941948211474967</v>
       </c>
       <c r="K182" t="n">
-        <v>0.188663210470904</v>
+        <v>0.05888391834439682</v>
       </c>
       <c r="L182" t="n">
-        <v>0.7523061618119147</v>
+        <v>0.7179978494238655</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1885600099312359</v>
+        <v>0.1182165665724817</v>
       </c>
       <c r="N182" t="n">
-        <v>1.022114774435317</v>
+        <v>1.000063450227983</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1888496956566198</v>
+        <v>0.1181660682397987</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1262835750070757</v>
+        <v>0.2897703277117579</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1881251290850392</v>
+        <v>0.0588836498159328</v>
       </c>
       <c r="J183" t="n">
-        <v>0.47138224457471</v>
+        <v>0.2897703277117579</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1902757165433048</v>
+        <v>0.0588836498159328</v>
       </c>
       <c r="L183" t="n">
-        <v>0.7543048267900161</v>
+        <v>0.7199587439268014</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1901716339477422</v>
+        <v>0.1192269645773747</v>
       </c>
       <c r="N183" t="n">
-        <v>1.030332048372407</v>
+        <v>1.001059475385585</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1904637956194969</v>
+        <v>0.1191760346350106</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1287492919234136</v>
+        <v>0.2854405620358696</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1897194098399971</v>
+        <v>0.05888338128746878</v>
       </c>
       <c r="J184" t="n">
-        <v>0.4773452457775595</v>
+        <v>0.2854405620358696</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1918882226157057</v>
+        <v>0.05888338128746878</v>
       </c>
       <c r="L184" t="n">
-        <v>0.756073402537879</v>
+        <v>0.7195291479483124</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1917832579642485</v>
+        <v>0.1202373625822677</v>
       </c>
       <c r="N184" t="n">
-        <v>1.042875009360997</v>
+        <v>0.9983112534171604</v>
       </c>
       <c r="O184" t="n">
-        <v>0.192077895582374</v>
+        <v>0.1201860010302226</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.117087383362277</v>
+        <v>0.2812076215045373</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1913136905949551</v>
+        <v>0.05888311275900476</v>
       </c>
       <c r="J185" t="n">
-        <v>0.4786415349872475</v>
+        <v>0.2812076215045373</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1935007286881066</v>
+        <v>0.05888311275900476</v>
       </c>
       <c r="L185" t="n">
-        <v>0.7575319298622134</v>
+        <v>0.7191115802504933</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1933948819807548</v>
+        <v>0.1212477605871607</v>
       </c>
       <c r="N185" t="n">
-        <v>1.040695519505392</v>
+        <v>1.006915480320241</v>
       </c>
       <c r="O185" t="n">
-        <v>0.193691995545251</v>
+        <v>0.1211959674254346</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1224118777279744</v>
+        <v>0.2770736035018981</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1929079713499131</v>
+        <v>0.05888284423054074</v>
       </c>
       <c r="J186" t="n">
-        <v>0.4756962814017689</v>
+        <v>0.2770736035018981</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1951132347605075</v>
+        <v>0.05888284423054074</v>
       </c>
       <c r="L186" t="n">
-        <v>0.761621567680236</v>
+        <v>0.7125085595954392</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1950065059972611</v>
+        <v>0.1222581585920537</v>
       </c>
       <c r="N186" t="n">
-        <v>1.04127172338725</v>
+        <v>1.008568852092359</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1953060955081281</v>
+        <v>0.1222059338206465</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1287293386482746</v>
+        <v>0.2730406054122806</v>
       </c>
       <c r="G187" t="n">
-        <v>0.194502252104871</v>
+        <v>0.05888257570207673</v>
       </c>
       <c r="J187" t="n">
-        <v>0.4768140985476246</v>
+        <v>0.2730406054122806</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1967257408329084</v>
+        <v>0.05888257570207673</v>
       </c>
       <c r="L187" t="n">
-        <v>0.7612595180967028</v>
+        <v>0.7167226047452453</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1966181300137674</v>
+        <v>0.1232685565969467</v>
       </c>
       <c r="N187" t="n">
-        <v>1.049542617153794</v>
+        <v>1.005068064731047</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1969201954710052</v>
+        <v>0.1232159002158585</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1230396579712508</v>
+        <v>0.269110724619844</v>
       </c>
       <c r="G188" t="n">
-        <v>0.196096532859829</v>
+        <v>0.0588823071736127</v>
       </c>
       <c r="J188" t="n">
-        <v>0.4778051026378842</v>
+        <v>0.269110724619844</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1983382469053093</v>
+        <v>0.0588823071736127</v>
       </c>
       <c r="L188" t="n">
-        <v>0.7635547559468812</v>
+        <v>0.7081562344620065</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1982297540302737</v>
+        <v>0.1242789546018397</v>
       </c>
       <c r="N188" t="n">
-        <v>1.046054814623143</v>
+        <v>0.9988098142338361</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1985342954338823</v>
+        <v>0.1242258666110704</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1233427275449761</v>
+        <v>0.2652860585092583</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1976908136147869</v>
+        <v>0.05888203864514869</v>
       </c>
       <c r="J189" t="n">
-        <v>0.4799688774266424</v>
+        <v>0.2652860585092583</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1999507529777102</v>
+        <v>0.05888203864514869</v>
       </c>
       <c r="L189" t="n">
-        <v>0.7701066189565888</v>
+        <v>0.709576097999463</v>
       </c>
       <c r="M189" t="n">
-        <v>0.19984137804678</v>
+        <v>0.1252893526067327</v>
       </c>
       <c r="N189" t="n">
-        <v>1.048007402614266</v>
+        <v>1.000442445054044</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2001483953967594</v>
+        <v>0.1252358330062824</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1276384392175238</v>
+        <v>0.2615601401453381</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1992850943697449</v>
+        <v>0.05888177011668468</v>
       </c>
       <c r="J190" t="n">
-        <v>0.4818050066679939</v>
+        <v>0.2615601401453381</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2015632590501111</v>
+        <v>0.05888177011668468</v>
       </c>
       <c r="L190" t="n">
-        <v>0.770314444851643</v>
+        <v>0.7127062417979411</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2014530020632863</v>
+        <v>0.1262997506116257</v>
       </c>
       <c r="N190" t="n">
-        <v>1.057599467946128</v>
+        <v>1.004980390731375</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2017624953596365</v>
+        <v>0.1262457994014943</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1309266848369672</v>
+        <v>0.2578836809963716</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2008793751247028</v>
+        <v>0.05888150158822066</v>
       </c>
       <c r="J191" t="n">
-        <v>0.4844130741160331</v>
+        <v>0.2578836809963716</v>
       </c>
       <c r="K191" t="n">
-        <v>0.203175765122512</v>
+        <v>0.05888150158822066</v>
       </c>
       <c r="L191" t="n">
-        <v>0.7689775713578604</v>
+        <v>0.7052512784997236</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2030646260797926</v>
+        <v>0.1273101486165187</v>
       </c>
       <c r="N191" t="n">
-        <v>1.058830097437696</v>
+        <v>1.003045689505679</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2033765953225136</v>
+        <v>0.1272557657967063</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1232073562513794</v>
+        <v>0.2542502141271905</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2024736558796608</v>
+        <v>0.05888123305975664</v>
       </c>
       <c r="J192" t="n">
-        <v>0.4845926635248549</v>
+        <v>0.2542502141271905</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2047882711949129</v>
+        <v>0.05888123305975664</v>
       </c>
       <c r="L192" t="n">
-        <v>0.7734953362010586</v>
+        <v>0.7064189751555223</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2046762500962988</v>
+        <v>0.1283205466214118</v>
       </c>
       <c r="N192" t="n">
-        <v>1.056798377907936</v>
+        <v>0.9986693095559128</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2049906952853907</v>
+        <v>0.1282657321919183</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1254803453088338</v>
+        <v>0.2506618369224394</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2040679366346188</v>
+        <v>0.05888096453129262</v>
       </c>
       <c r="J193" t="n">
-        <v>0.4882433586485538</v>
+        <v>0.2506618369224394</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2064007772673137</v>
+        <v>0.05888096453129262</v>
       </c>
       <c r="L193" t="n">
-        <v>0.7707670771070538</v>
+        <v>0.702017098816049</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2062878741128051</v>
+        <v>0.1293309446263048</v>
       </c>
       <c r="N193" t="n">
-        <v>1.066503396175816</v>
+        <v>0.9968822190610355</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2066047952482678</v>
+        <v>0.1292756985871302</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1237455438574034</v>
+        <v>0.2471206467662871</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2056622173895767</v>
+        <v>0.05888069600282861</v>
       </c>
       <c r="J194" t="n">
-        <v>0.4882647432412249</v>
+        <v>0.2471206467662871</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2080132833397146</v>
+        <v>0.05888069600282861</v>
       </c>
       <c r="L194" t="n">
-        <v>0.7763921318016644</v>
+        <v>0.6989534165320153</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2078994981293114</v>
+        <v>0.1303413426311978</v>
       </c>
       <c r="N194" t="n">
-        <v>1.068444239060301</v>
+        <v>0.9918153862000046</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2082188952111449</v>
+        <v>0.1302856649823421</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1280028437451616</v>
+        <v>0.2436287410430621</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2072564981445347</v>
+        <v>0.0588804274743646</v>
       </c>
       <c r="J195" t="n">
-        <v>0.4859564010569625</v>
+        <v>0.2436287410430621</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2096257894121155</v>
+        <v>0.0588804274743646</v>
       </c>
       <c r="L195" t="n">
-        <v>0.7783698380107071</v>
+        <v>0.7004356953541331</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2095111221458177</v>
+        <v>0.1313517406360908</v>
       </c>
       <c r="N195" t="n">
-        <v>1.063919993380358</v>
+        <v>0.9930997791517774</v>
       </c>
       <c r="O195" t="n">
-        <v>0.209832995174022</v>
+        <v>0.1312956313775541</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1272521368201815</v>
+        <v>0.2401882171369436</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2088507788994927</v>
+        <v>0.05888015894590057</v>
       </c>
       <c r="J196" t="n">
-        <v>0.489617915849861</v>
+        <v>0.2401882171369436</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2112382954845164</v>
+        <v>0.05888015894590057</v>
       </c>
       <c r="L196" t="n">
-        <v>0.7775995334599983</v>
+        <v>0.7025717023331144</v>
       </c>
       <c r="M196" t="n">
-        <v>0.211122746162324</v>
+        <v>0.1323621386409838</v>
       </c>
       <c r="N196" t="n">
-        <v>1.063429745954954</v>
+        <v>0.9880663660953114</v>
       </c>
       <c r="O196" t="n">
-        <v>0.211447095136899</v>
+        <v>0.1323055977727661</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1274933149305364</v>
+        <v>0.2368011724325594</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2104450596544506</v>
+        <v>0.05887989041743655</v>
       </c>
       <c r="J197" t="n">
-        <v>0.4895488713740157</v>
+        <v>0.2368011724325594</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2128508015569173</v>
+        <v>0.05887989041743655</v>
       </c>
       <c r="L197" t="n">
-        <v>0.7769805558753562</v>
+        <v>0.6925692045196703</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2127343701788303</v>
+        <v>0.1333725366458768</v>
       </c>
       <c r="N197" t="n">
-        <v>1.066972583603055</v>
+        <v>0.9855461152095643</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2130611950997761</v>
+        <v>0.133315564167978</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1217262699242995</v>
+        <v>0.2334697043140867</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2120393404094086</v>
+        <v>0.05887962188897253</v>
       </c>
       <c r="J198" t="n">
-        <v>0.488848851383521</v>
+        <v>0.2334697043140867</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2144633076293181</v>
+        <v>0.05887962188897253</v>
       </c>
       <c r="L198" t="n">
-        <v>0.7785122429825977</v>
+        <v>0.6908359689645129</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2143459941953366</v>
+        <v>0.1343829346507698</v>
       </c>
       <c r="N198" t="n">
-        <v>1.071047593143629</v>
+        <v>0.9812699946734945</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2146752950626532</v>
+        <v>0.13432553056319</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1239508936495441</v>
+        <v>0.2301959101658538</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2136336211643665</v>
+        <v>0.05887935336050852</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4923174396324714</v>
+        <v>0.2301959101658538</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2160758137017191</v>
+        <v>0.05887935336050852</v>
       </c>
       <c r="L199" t="n">
-        <v>0.7794939325075396</v>
+        <v>0.6963797627183541</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2159576182118429</v>
+        <v>0.1353933326556628</v>
       </c>
       <c r="N199" t="n">
-        <v>1.07985386139564</v>
+        <v>0.9842689726660591</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2162893950255303</v>
+        <v>0.1353354969584019</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1301670779543433</v>
+        <v>0.2269818873720501</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2152279019193245</v>
+        <v>0.05887908483204449</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4920542198749618</v>
+        <v>0.2269818873720501</v>
       </c>
       <c r="K200" t="n">
-        <v>0.21768831977412</v>
+        <v>0.05887908483204449</v>
       </c>
       <c r="L200" t="n">
-        <v>0.7812249621759995</v>
+        <v>0.6925083528319054</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2175692422283492</v>
+        <v>0.1364037306605558</v>
       </c>
       <c r="N200" t="n">
-        <v>1.075390475178057</v>
+        <v>0.9775740173662156</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2179034949884074</v>
+        <v>0.1363454633536139</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1273747146867704</v>
+        <v>0.2238297333172836</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2168221826742824</v>
+        <v>0.05887881630358048</v>
       </c>
       <c r="J201" t="n">
-        <v>0.4909587758650867</v>
+        <v>0.2238297333172836</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2193008258465208</v>
+        <v>0.05887881630358048</v>
       </c>
       <c r="L201" t="n">
-        <v>0.7843046697137939</v>
+        <v>0.6861295063558788</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2191808662448554</v>
+        <v>0.1374141286654488</v>
       </c>
       <c r="N201" t="n">
-        <v>1.077656521309845</v>
+        <v>0.9716160969529221</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2195175949512845</v>
+        <v>0.1373554297488258</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1305736956948986</v>
+        <v>0.2207415453857413</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2184164634292404</v>
+        <v>0.05887854777511647</v>
       </c>
       <c r="J202" t="n">
-        <v>0.4924306913569411</v>
+        <v>0.2207415453857413</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2209133319189217</v>
+        <v>0.05887854777511647</v>
       </c>
       <c r="L202" t="n">
-        <v>0.7871323928467406</v>
+        <v>0.6869509903409858</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2207924902613617</v>
+        <v>0.1384245266703418</v>
       </c>
       <c r="N202" t="n">
-        <v>1.080051086609971</v>
+        <v>0.9638261796051356</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2211316949141616</v>
+        <v>0.1383653961440378</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1297639128268012</v>
+        <v>0.2177194209617513</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2200107441841984</v>
+        <v>0.05887827924665245</v>
       </c>
       <c r="J203" t="n">
-        <v>0.4947695501046192</v>
+        <v>0.2177194209617513</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2225258379913226</v>
+        <v>0.05887827924665245</v>
       </c>
       <c r="L203" t="n">
-        <v>0.7842074693006562</v>
+        <v>0.683080571837938</v>
       </c>
       <c r="M203" t="n">
-        <v>0.222404114277868</v>
+        <v>0.1394349246752348</v>
       </c>
       <c r="N203" t="n">
-        <v>1.086773257897401</v>
+        <v>0.9636352335018147</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2227457948770387</v>
+        <v>0.1393753625392498</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1209452579305513</v>
+        <v>0.2147654574295146</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2216050249391563</v>
+        <v>0.05887801071818843</v>
       </c>
       <c r="J204" t="n">
-        <v>0.494874935862216</v>
+        <v>0.2147654574295146</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2241383440637235</v>
+        <v>0.05887801071818843</v>
       </c>
       <c r="L204" t="n">
-        <v>0.7890292368013583</v>
+        <v>0.6835260178974478</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2240157382943743</v>
+        <v>0.1404453226801278</v>
       </c>
       <c r="N204" t="n">
-        <v>1.082322121991103</v>
+        <v>0.9620742268219163</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2243598948399158</v>
+        <v>0.1403853289344617</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1301176228542222</v>
+        <v>0.2118817521736166</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2231993056941143</v>
+        <v>0.05887774218972441</v>
       </c>
       <c r="J205" t="n">
-        <v>0.4950464323838262</v>
+        <v>0.2118817521736166</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2257508501361244</v>
+        <v>0.05887774218972441</v>
       </c>
       <c r="L205" t="n">
-        <v>0.7899970330746642</v>
+        <v>0.6786950955702264</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2256273623108806</v>
+        <v>0.1414557206850208</v>
       </c>
       <c r="N205" t="n">
-        <v>1.084096765710043</v>
+        <v>0.9575741277443987</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2259739948027929</v>
+        <v>0.1413952953296737</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1252808994458871</v>
+        <v>0.2090704025782553</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2247935864490722</v>
+        <v>0.0588774736612604</v>
       </c>
       <c r="J206" t="n">
-        <v>0.497083623423544</v>
+        <v>0.2090704025782553</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2273633562085253</v>
+        <v>0.0588774736612604</v>
       </c>
       <c r="L206" t="n">
-        <v>0.7938101958463901</v>
+        <v>0.6797955719069857</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2272389863273869</v>
+        <v>0.1424661186899138</v>
       </c>
       <c r="N206" t="n">
-        <v>1.084496275873187</v>
+        <v>0.9455659044482186</v>
       </c>
       <c r="O206" t="n">
-        <v>0.22758809476567</v>
+        <v>0.1424052617248856</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1224349795536192</v>
+        <v>0.206333506027759</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2263878672040302</v>
+        <v>0.05887720513279639</v>
       </c>
       <c r="J207" t="n">
-        <v>0.4984860927354645</v>
+        <v>0.206333506027759</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2289758622809261</v>
+        <v>0.05887720513279639</v>
       </c>
       <c r="L207" t="n">
-        <v>0.7943680628423542</v>
+        <v>0.6753352139584372</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2288506103438932</v>
+        <v>0.1434765166948068</v>
       </c>
       <c r="N207" t="n">
-        <v>1.088419739299501</v>
+        <v>0.9488805251123348</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2292021947285471</v>
+        <v>0.1434152281200976</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1345797550254919</v>
+        <v>0.2036731599063415</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2279821479589882</v>
+        <v>0.05887693660433236</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4984534240736823</v>
+        <v>0.2036731599063415</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2305883683533271</v>
+        <v>0.05887693660433236</v>
       </c>
       <c r="L208" t="n">
-        <v>0.7950699717883734</v>
+        <v>0.672821788775293</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2304622343603995</v>
+        <v>0.1444869146996998</v>
       </c>
       <c r="N208" t="n">
-        <v>1.089366242807953</v>
+        <v>0.9447489579157043</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2308162946914241</v>
+        <v>0.1444251945153095</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1327151177095781</v>
+        <v>0.2010914615985627</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2295764287139461</v>
+        <v>0.05887666807586835</v>
       </c>
       <c r="J209" t="n">
-        <v>0.4961852011922921</v>
+        <v>0.2010914615985627</v>
       </c>
       <c r="K209" t="n">
-        <v>0.232200874425728</v>
+        <v>0.05887666807586835</v>
       </c>
       <c r="L209" t="n">
-        <v>0.7975152604102644</v>
+        <v>0.669563063408265</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2320738583769058</v>
+        <v>0.1454973127045928</v>
       </c>
       <c r="N209" t="n">
-        <v>1.091234873217509</v>
+        <v>0.9404021710372849</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2324303946543012</v>
+        <v>0.1454351609105215</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1278409594539513</v>
+        <v>0.1985905084886333</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2311707094689041</v>
+        <v>0.05887639954740433</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4968810078453886</v>
+        <v>0.1985905084886333</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2338133804981288</v>
+        <v>0.05887639954740433</v>
       </c>
       <c r="L210" t="n">
-        <v>0.7956032664338442</v>
+        <v>0.6748668049080644</v>
       </c>
       <c r="M210" t="n">
-        <v>0.233685482393412</v>
+        <v>0.1465077107094858</v>
       </c>
       <c r="N210" t="n">
-        <v>1.086624717347136</v>
+        <v>0.9269711326560345</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2340444946171783</v>
+        <v>0.1464451273057334</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1289571721066846</v>
+        <v>0.1961723979608813</v>
       </c>
       <c r="G211" t="n">
-        <v>0.232764990223862</v>
+        <v>0.05887613101894031</v>
       </c>
       <c r="J211" t="n">
-        <v>0.4978404277870663</v>
+        <v>0.1961723979608813</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2354258865705297</v>
+        <v>0.05887613101894031</v>
       </c>
       <c r="L211" t="n">
-        <v>0.7971333275849311</v>
+        <v>0.6730407803254033</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2352971064099184</v>
+        <v>0.1475181087143789</v>
       </c>
       <c r="N211" t="n">
-        <v>1.0870348620158</v>
+        <v>0.9268868109509104</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2356585945800554</v>
+        <v>0.1474550937009454</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1350636475158514</v>
+        <v>0.1938392273995352</v>
       </c>
       <c r="G212" t="n">
-        <v>0.23435927097882</v>
+        <v>0.05887586249047629</v>
       </c>
       <c r="J212" t="n">
-        <v>0.5008630447714199</v>
+        <v>0.1938392273995352</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2370383926429306</v>
+        <v>0.05887586249047629</v>
       </c>
       <c r="L212" t="n">
-        <v>0.7986047815893411</v>
+        <v>0.6713927567109934</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2369087304264247</v>
+        <v>0.1485285067192719</v>
       </c>
       <c r="N212" t="n">
-        <v>1.097764394042467</v>
+        <v>0.9247801741008704</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2372726945429325</v>
+        <v>0.1484650600961573</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1251602775295246</v>
+        <v>0.1915930941891264</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2359535517337779</v>
+        <v>0.05887559396201227</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5015484425525442</v>
+        <v>0.1915930941891264</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2386508987153315</v>
+        <v>0.05887559396201227</v>
       </c>
       <c r="L213" t="n">
-        <v>0.7939169661728922</v>
+        <v>0.6713305011155466</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2385203544429309</v>
+        <v>0.1495389047241649</v>
       </c>
       <c r="N213" t="n">
-        <v>1.095612400246105</v>
+        <v>0.9195821902848721</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2388867945058096</v>
+        <v>0.1494750264913693</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1352469539957777</v>
+        <v>0.1894360957138795</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2375478324887359</v>
+        <v>0.05887532543354826</v>
       </c>
       <c r="J214" t="n">
-        <v>0.4988962048845338</v>
+        <v>0.1894360957138795</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2402634047877324</v>
+        <v>0.05887532543354826</v>
       </c>
       <c r="L214" t="n">
-        <v>0.7964692190614007</v>
+        <v>0.6623617805897741</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2401319784594372</v>
+        <v>0.1505493027290579</v>
       </c>
       <c r="N214" t="n">
-        <v>1.094377967445679</v>
+        <v>0.9225238276818734</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2405008944686867</v>
+        <v>0.1504849928865812</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1313235687626838</v>
+        <v>0.1894360957138795</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2391421132436939</v>
+        <v>0.05887532543354826</v>
       </c>
       <c r="J215" t="n">
-        <v>0.4999059155214832</v>
+        <v>0.1894360957138795</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2418759108601333</v>
+        <v>0.05887532543354826</v>
       </c>
       <c r="L215" t="n">
-        <v>0.7969608779806847</v>
+        <v>0.6636943621843883</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2417436024759435</v>
+        <v>0.1515597007339509</v>
       </c>
       <c r="N215" t="n">
-        <v>1.097760182460156</v>
+        <v>0.9136360544708316</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2421149944315638</v>
+        <v>0.1514949592817932</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1313900136783162</v>
+        <v>0.184644193407117</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2407363939986518</v>
+        <v>0.05884464369866566</v>
       </c>
       <c r="J216" t="n">
-        <v>0.5023771582174874</v>
+        <v>0.184644193407117</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2434884169325342</v>
+        <v>0.05884464369866566</v>
       </c>
       <c r="L216" t="n">
-        <v>0.7992912806565602</v>
+        <v>0.6644360129501006</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2433552264924498</v>
+        <v>0.1525700987388439</v>
       </c>
       <c r="N216" t="n">
-        <v>1.096058132108503</v>
+        <v>0.9149498388307048</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2437290943944409</v>
+        <v>0.1525049256770052</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.129446180590748</v>
+        <v>0.1798897917519821</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2423306747536098</v>
+        <v>0.05881396196378304</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5036095167266409</v>
+        <v>0.1798897917519821</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2451009230049351</v>
+        <v>0.05881396196378304</v>
       </c>
       <c r="L217" t="n">
-        <v>0.8020597648148451</v>
+        <v>0.6592944999376229</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2449668505089561</v>
+        <v>0.1535804967437369</v>
       </c>
       <c r="N217" t="n">
-        <v>1.097970903209688</v>
+        <v>0.9071961489404506</v>
       </c>
       <c r="O217" t="n">
-        <v>0.245343194357318</v>
+        <v>0.1535148920722171</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1354919613480526</v>
+        <v>0.1751736177103786</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2439249555085677</v>
+        <v>0.05878328022890044</v>
       </c>
       <c r="J218" t="n">
-        <v>0.4991025748030383</v>
+        <v>0.1751736177103786</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2467134290773359</v>
+        <v>0.05878328022890044</v>
       </c>
       <c r="L218" t="n">
-        <v>0.8008656681813564</v>
+        <v>0.6593775901976668</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2465784745254624</v>
+        <v>0.1545908947486299</v>
       </c>
       <c r="N218" t="n">
-        <v>1.093097582582674</v>
+        <v>0.909905952979026</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2469572943201951</v>
+        <v>0.1545248584674291</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.122527247798303</v>
+        <v>0.1704963982442052</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2455192362635257</v>
+        <v>0.05875259849401784</v>
       </c>
       <c r="J219" t="n">
-        <v>0.5027559162007745</v>
+        <v>0.1704963982442052</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2483259351497368</v>
+        <v>0.05875259849401784</v>
       </c>
       <c r="L219" t="n">
-        <v>0.8016083284819115</v>
+        <v>0.6608930507809441</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2481900985419687</v>
+        <v>0.1556012927535229</v>
       </c>
       <c r="N219" t="n">
-        <v>1.10093725704643</v>
+        <v>0.9095102191253898</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2485713942830722</v>
+        <v>0.155534824862641</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1255519317895726</v>
+        <v>0.1658588603153605</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2471135170184837</v>
+        <v>0.05872191675913523</v>
       </c>
       <c r="J220" t="n">
-        <v>0.5019691246739439</v>
+        <v>0.1658588603153605</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2499384412221377</v>
+        <v>0.05872191675913523</v>
       </c>
       <c r="L220" t="n">
-        <v>0.8003870834423272</v>
+        <v>0.6631486487381666</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2498017225584749</v>
+        <v>0.1566116907584159</v>
       </c>
       <c r="N220" t="n">
-        <v>1.094589013419923</v>
+        <v>0.9038399155584987</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2501854942459493</v>
+        <v>0.156544791257853</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1355659051699347</v>
+        <v>0.1612617308857487</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2487077977734416</v>
+        <v>0.05869123502425262</v>
       </c>
       <c r="J221" t="n">
-        <v>0.5024417839766412</v>
+        <v>0.1612617308857487</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2515509472945386</v>
+        <v>0.05869123502425262</v>
       </c>
       <c r="L221" t="n">
-        <v>0.7989012707884211</v>
+        <v>0.6599521511200461</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2514133465749813</v>
+        <v>0.1576220887633089</v>
       </c>
       <c r="N221" t="n">
-        <v>1.101251938522118</v>
+        <v>0.9046260104573108</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2517995942088264</v>
+        <v>0.1575547576530649</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1225617530861032</v>
+        <v>0.1567057369172665</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2503020785283996</v>
+        <v>0.05866055328937001</v>
       </c>
       <c r="J222" t="n">
-        <v>0.5033734778629613</v>
+        <v>0.1567057369172665</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2531634533669395</v>
+        <v>0.05866055328937001</v>
       </c>
       <c r="L222" t="n">
-        <v>0.8017502282460096</v>
+        <v>0.6610094179847632</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2530249705914875</v>
+        <v>0.1586324867682019</v>
       </c>
       <c r="N222" t="n">
-        <v>1.097525119171982</v>
+        <v>0.9025917895273531</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2534136941717035</v>
+        <v>0.1585647240482769</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1283267054562395</v>
+        <v>0.1521916053718178</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2518963592833576</v>
+        <v>0.05862987155448741</v>
       </c>
       <c r="J223" t="n">
-        <v>0.5019309309525548</v>
+        <v>0.1521916053718178</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2547759594393404</v>
+        <v>0.05862987155448741</v>
       </c>
       <c r="L223" t="n">
-        <v>0.7952702979025494</v>
+        <v>0.6630272542296221</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2546365946079938</v>
+        <v>0.1596428847730949</v>
       </c>
       <c r="N223" t="n">
-        <v>1.092956944281416</v>
+        <v>0.9023337361553861</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2550277941345805</v>
+        <v>0.1595746904434888</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1257873883347406</v>
+        <v>0.1477200632113014</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2534906400383155</v>
+        <v>0.0585991898196048</v>
       </c>
       <c r="J224" t="n">
-        <v>0.501516249837769</v>
+        <v>0.1477200632113014</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2563884655117413</v>
+        <v>0.0585991898196048</v>
       </c>
       <c r="L224" t="n">
-        <v>0.7944170568766855</v>
+        <v>0.6562506343714907</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2562482186245001</v>
+        <v>0.1606532827779879</v>
       </c>
       <c r="N224" t="n">
-        <v>1.098841839821893</v>
+        <v>0.899981769247144</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2566418940974576</v>
+        <v>0.1605846568387008</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.130977517369084</v>
+        <v>0.1432918373976159</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2550849207932734</v>
+        <v>0.05856850808472219</v>
       </c>
       <c r="J225" t="n">
-        <v>0.4972133880226636</v>
+        <v>0.1432918373976159</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2580009715841422</v>
+        <v>0.05856850808472219</v>
       </c>
       <c r="L225" t="n">
-        <v>0.7886360222023838</v>
+        <v>0.6556796204000899</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2578598426410064</v>
+        <v>0.1616636807828809</v>
       </c>
       <c r="N225" t="n">
-        <v>1.092830543115558</v>
+        <v>0.9042358953061506</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2582559940603347</v>
+        <v>0.1615946232339127</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1199308082067472</v>
+        <v>0.1389076548926651</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2566792015482314</v>
+        <v>0.05853782634983959</v>
       </c>
       <c r="J226" t="n">
-        <v>0.4920521074137209</v>
+        <v>0.1389076548926651</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2596134776565431</v>
+        <v>0.05853782634983959</v>
       </c>
       <c r="L226" t="n">
-        <v>0.7900336534735533</v>
+        <v>0.6566142743051417</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2594714666575127</v>
+        <v>0.162674078787774</v>
       </c>
       <c r="N226" t="n">
-        <v>1.07600773230662</v>
+        <v>0.8954961208359281</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2598700940232119</v>
+        <v>0.1626045896291247</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1296809764952078</v>
+        <v>0.1345682426583479</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2582734823031894</v>
+        <v>0.05850714461495699</v>
       </c>
       <c r="J227" t="n">
-        <v>0.4902621699174231</v>
+        <v>0.1345682426583479</v>
       </c>
       <c r="K227" t="n">
-        <v>0.261225983728944</v>
+        <v>0.05850714461495699</v>
       </c>
       <c r="L227" t="n">
-        <v>0.7816164102841037</v>
+        <v>0.655154658076367</v>
       </c>
       <c r="M227" t="n">
-        <v>0.261083090674019</v>
+        <v>0.163684476792667</v>
       </c>
       <c r="N227" t="n">
-        <v>1.073458085539286</v>
+        <v>0.8955624523400004</v>
       </c>
       <c r="O227" t="n">
-        <v>0.261484193986089</v>
+        <v>0.1636145560243366</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1172617378819435</v>
+        <v>0.130274327656563</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2598677630581473</v>
+        <v>0.05847646288007437</v>
       </c>
       <c r="J228" t="n">
-        <v>0.4834733374402529</v>
+        <v>0.130274327656563</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2628384898013448</v>
+        <v>0.05847646288007437</v>
       </c>
       <c r="L228" t="n">
-        <v>0.7749907522279436</v>
+        <v>0.6612008337034878</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2626947146905253</v>
+        <v>0.16469487479756</v>
       </c>
       <c r="N228" t="n">
-        <v>1.054366280957761</v>
+        <v>0.9010348963218907</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2630982939489661</v>
+        <v>0.1646245224195486</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1167068080144315</v>
+        <v>0.126026636849214</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2614620438131053</v>
+        <v>0.05844578114519177</v>
       </c>
       <c r="J229" t="n">
-        <v>0.4795153718886922</v>
+        <v>0.126026636849214</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2644509958737457</v>
+        <v>0.05844578114519177</v>
       </c>
       <c r="L229" t="n">
-        <v>0.7611631388989823</v>
+        <v>0.6604528631762252</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2643063387070315</v>
+        <v>0.165705272802453</v>
       </c>
       <c r="N229" t="n">
-        <v>1.045516996706255</v>
+        <v>0.9028134592851221</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2647123939118431</v>
+        <v>0.1656344888147606</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1160499025401498</v>
+        <v>0.1218258971981982</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2630563245680633</v>
+        <v>0.05841509941030915</v>
       </c>
       <c r="J230" t="n">
-        <v>0.4704180351692235</v>
+        <v>0.1218258971981982</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2660635019461466</v>
+        <v>0.05841509941030915</v>
       </c>
       <c r="L230" t="n">
-        <v>0.7521400298911296</v>
+        <v>0.6566108084843005</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2659179627235378</v>
+        <v>0.166715670807346</v>
       </c>
       <c r="N230" t="n">
-        <v>1.033494910928972</v>
+        <v>0.9038981477332183</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2663264938747202</v>
+        <v>0.1666444552099725</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1173247371065756</v>
+        <v>0.1176728356654192</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2646506053230212</v>
+        <v>0.05838441767542655</v>
       </c>
       <c r="J231" t="n">
-        <v>0.4649110891883292</v>
+        <v>0.1176728356654192</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2676760080185475</v>
+        <v>0.05838441767542655</v>
       </c>
       <c r="L231" t="n">
-        <v>0.7459278847982935</v>
+        <v>0.6555747316174356</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2675295867400442</v>
+        <v>0.167726068812239</v>
       </c>
       <c r="N231" t="n">
-        <v>1.019184701770122</v>
+        <v>0.8989889681697022</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2679405938375973</v>
+        <v>0.1676544216051845</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1195650273611867</v>
+        <v>0.1135681792127758</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2662448860779792</v>
+        <v>0.05835373594054395</v>
       </c>
       <c r="J232" t="n">
-        <v>0.4612242958524918</v>
+        <v>0.1135681792127758</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2692885140909484</v>
+        <v>0.05835373594054395</v>
       </c>
       <c r="L232" t="n">
-        <v>0.7346331632143843</v>
+        <v>0.6528446945653514</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2691412107565505</v>
+        <v>0.168736466817132</v>
       </c>
       <c r="N232" t="n">
-        <v>1.00707104737391</v>
+        <v>0.9038859270980971</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2695546938004744</v>
+        <v>0.1686643880003964</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1178044889514605</v>
+        <v>0.1095126548021668</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2678391668329371</v>
+        <v>0.05832305420566133</v>
       </c>
       <c r="J233" t="n">
-        <v>0.4514874170681935</v>
+        <v>0.1095126548021668</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2709010201633493</v>
+        <v>0.05832305420566133</v>
       </c>
       <c r="L233" t="n">
-        <v>0.7180623247333104</v>
+        <v>0.6530207593177697</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2707528347730567</v>
+        <v>0.169746864822025</v>
       </c>
       <c r="N233" t="n">
-        <v>0.9922386258845443</v>
+        <v>0.9005890310219263</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2711687937633515</v>
+        <v>0.1696743543956084</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1090768375248746</v>
+        <v>0.1055069893954959</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2694334475878951</v>
+        <v>0.05829237247077873</v>
       </c>
       <c r="J234" t="n">
-        <v>0.4484302147419165</v>
+        <v>0.1055069893954959</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2725135262357501</v>
+        <v>0.05829237247077873</v>
       </c>
       <c r="L234" t="n">
-        <v>0.7091218289489813</v>
+        <v>0.6533029878644119</v>
       </c>
       <c r="M234" t="n">
-        <v>0.272364458789563</v>
+        <v>0.170757262826918</v>
       </c>
       <c r="N234" t="n">
-        <v>0.9725721154462313</v>
+        <v>0.898298286444713</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2727828937262286</v>
+        <v>0.1706843207908203</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1144157887289066</v>
+        <v>0.1015519099546619</v>
       </c>
       <c r="G235" t="n">
-        <v>0.271027728342853</v>
+        <v>0.05826169073589613</v>
       </c>
       <c r="J235" t="n">
-        <v>0.438082450780143</v>
+        <v>0.1015519099546619</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2741260323081511</v>
+        <v>0.05826169073589613</v>
       </c>
       <c r="L235" t="n">
-        <v>0.697318135455306</v>
+        <v>0.6581914421949993</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2739760828060693</v>
+        <v>0.171767660831811</v>
       </c>
       <c r="N235" t="n">
-        <v>0.9596561942031788</v>
+        <v>0.8985136998699806</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2743969936891057</v>
+        <v>0.1716942871860323</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.109855058211034</v>
+        <v>0.09764814344156367</v>
       </c>
       <c r="G236" t="n">
-        <v>0.272622009097811</v>
+        <v>0.05823100900101352</v>
       </c>
       <c r="J236" t="n">
-        <v>0.4320738870893557</v>
+        <v>0.09764814344156367</v>
       </c>
       <c r="K236" t="n">
-        <v>0.275738538380552</v>
+        <v>0.05823100900101352</v>
       </c>
       <c r="L236" t="n">
-        <v>0.6942577038461937</v>
+        <v>0.6577861842992534</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2755877068225756</v>
+        <v>0.172778058836704</v>
       </c>
       <c r="N236" t="n">
-        <v>0.9481755402995936</v>
+        <v>0.8940352778012522</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2760110936519828</v>
+        <v>0.1727042535812442</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.112424846333002</v>
+        <v>0.09379641681810455</v>
       </c>
       <c r="G237" t="n">
-        <v>0.274216289852769</v>
+        <v>0.05820032726613091</v>
       </c>
       <c r="J237" t="n">
-        <v>0.4265342855760367</v>
+        <v>0.09379641681810455</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2773510444529528</v>
+        <v>0.05820032726613091</v>
       </c>
       <c r="L237" t="n">
-        <v>0.6863469937155537</v>
+        <v>0.6522872761668956</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2771993308390819</v>
+        <v>0.173788456841597</v>
       </c>
       <c r="N237" t="n">
-        <v>0.9369148318796822</v>
+        <v>0.8965630267420513</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2776251936148599</v>
+        <v>0.1737142199764562</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1060392516147202</v>
+        <v>0.08999745704618364</v>
       </c>
       <c r="G238" t="n">
-        <v>0.275810570607727</v>
+        <v>0.05816964553124832</v>
       </c>
       <c r="J238" t="n">
-        <v>0.4230238395322671</v>
+        <v>0.08999745704618364</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2789635505253537</v>
+        <v>0.05816964553124832</v>
       </c>
       <c r="L238" t="n">
-        <v>0.6777487195909413</v>
+        <v>0.6589947797876476</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2788109548555882</v>
+        <v>0.17479885484649</v>
       </c>
       <c r="N238" t="n">
-        <v>0.9282033335773835</v>
+        <v>0.8949969531959011</v>
       </c>
       <c r="O238" t="n">
-        <v>0.279239293577737</v>
+        <v>0.1747241863716681</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1076485395344287</v>
+        <v>0.08625199108769988</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2774048513626848</v>
+        <v>0.0581389637963657</v>
       </c>
       <c r="J239" t="n">
-        <v>0.4161973368444206</v>
+        <v>0.08625199108769988</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2805760565977546</v>
+        <v>0.0581389637963657</v>
       </c>
       <c r="L239" t="n">
-        <v>0.6659234763786368</v>
+        <v>0.6530087571512304</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2804225788720944</v>
+        <v>0.175809252851383</v>
       </c>
       <c r="N239" t="n">
-        <v>0.9173608831389742</v>
+        <v>0.8971370636663246</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2808533935406141</v>
+        <v>0.1757341527668801</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1102526302185082</v>
+        <v>0.08255777747679646</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2789991321176428</v>
+        <v>0.05810828206148309</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4152511444221078</v>
+        <v>0.08255777747679646</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2821885626701555</v>
+        <v>0.05810828206148309</v>
       </c>
       <c r="L240" t="n">
-        <v>0.657466881685844</v>
+        <v>0.6545292702473657</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2820342028886008</v>
+        <v>0.176819650856276</v>
       </c>
       <c r="N240" t="n">
-        <v>0.9033752956834841</v>
+        <v>0.900083364656845</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2824674935034912</v>
+        <v>0.1767441191620921</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1088514437933396</v>
+        <v>0.07889773260881064</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2805934128726008</v>
+        <v>0.05807760032660048</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4061849548545602</v>
+        <v>0.07889773260881064</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2838010687425564</v>
+        <v>0.05807760032660048</v>
       </c>
       <c r="L241" t="n">
-        <v>0.65307844640213</v>
+        <v>0.6576563810657752</v>
       </c>
       <c r="M241" t="n">
-        <v>0.283645826905107</v>
+        <v>0.177830048861169</v>
       </c>
       <c r="N241" t="n">
-        <v>0.8944458967978338</v>
+        <v>0.8928358626709866</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2840815934663682</v>
+        <v>0.177754085557304</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09644490038530369</v>
+        <v>0.07526961501788562</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2821876936275587</v>
+        <v>0.05804691859171788</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4039984607310098</v>
+        <v>0.07526961501788562</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2854135748149573</v>
+        <v>0.05804691859171788</v>
       </c>
       <c r="L242" t="n">
-        <v>0.6446576814170597</v>
+        <v>0.6513901515961797</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2852574509216133</v>
+        <v>0.178840446866062</v>
       </c>
       <c r="N242" t="n">
-        <v>0.883072012068942</v>
+        <v>0.893894564212271</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2856956934292453</v>
+        <v>0.178764051952516</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1070329201207813</v>
+        <v>0.07167415166592037</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2837819743825167</v>
+        <v>0.05801623685683528</v>
       </c>
       <c r="J243" t="n">
-        <v>0.395191354640688</v>
+        <v>0.07167415166592037</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2870260808873581</v>
+        <v>0.05801623685683528</v>
       </c>
       <c r="L243" t="n">
-        <v>0.6304040976201988</v>
+        <v>0.6575306438283011</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2868690749381196</v>
+        <v>0.179850844870955</v>
       </c>
       <c r="N243" t="n">
-        <v>0.8711529670837294</v>
+        <v>0.8935594757842228</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2873097933921224</v>
+        <v>0.1797740183477279</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1046154231261534</v>
+        <v>0.06811206951481394</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2853762551374747</v>
+        <v>0.05798555512195266</v>
       </c>
       <c r="J244" t="n">
-        <v>0.3932633291728261</v>
+        <v>0.06811206951481394</v>
       </c>
       <c r="K244" t="n">
-        <v>0.288638586959759</v>
+        <v>0.05798555512195266</v>
       </c>
       <c r="L244" t="n">
-        <v>0.622017205901114</v>
+        <v>0.6545779197518606</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2884806989546259</v>
+        <v>0.180861242875848</v>
       </c>
       <c r="N244" t="n">
-        <v>0.861988087429114</v>
+        <v>0.8936306038903644</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2889238933549995</v>
+        <v>0.1807839847429399</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1021923295278007</v>
+        <v>0.06458409552646957</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2869705358924327</v>
+        <v>0.05795487338707006</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3857140769166559</v>
+        <v>0.06458409552646957</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2902510930321599</v>
+        <v>0.05795487338707006</v>
       </c>
       <c r="L245" t="n">
-        <v>0.6182965171493702</v>
+        <v>0.65343204135658</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2900923229711322</v>
+        <v>0.1818716408807411</v>
       </c>
       <c r="N245" t="n">
-        <v>0.8464766986920164</v>
+        <v>0.8948079550342199</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2905379933178766</v>
+        <v>0.1817939511381518</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09876355945210406</v>
+        <v>0.06109095666278622</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2885648166473906</v>
+        <v>0.05792419165218746</v>
       </c>
       <c r="J246" t="n">
-        <v>0.3798432904614086</v>
+        <v>0.06109095666278622</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2918635991045608</v>
+        <v>0.05792419165218746</v>
       </c>
       <c r="L246" t="n">
-        <v>0.6081415422545335</v>
+        <v>0.6572930706321802</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2917039469876385</v>
+        <v>0.1828820388856341</v>
       </c>
       <c r="N246" t="n">
-        <v>0.8387181264593558</v>
+        <v>0.8977915357193124</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2921520932807537</v>
+        <v>0.1828039175333638</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09632903302544425</v>
+        <v>0.05763337988566306</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2901590974023486</v>
+        <v>0.05789350991730485</v>
       </c>
       <c r="J247" t="n">
-        <v>0.3744506623963159</v>
+        <v>0.05763337988566306</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2934761051769617</v>
+        <v>0.05789350991730485</v>
       </c>
       <c r="L247" t="n">
-        <v>0.5949517921061698</v>
+        <v>0.6526610695683832</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2933155710041448</v>
+        <v>0.1838924368905271</v>
       </c>
       <c r="N247" t="n">
-        <v>0.8243116963180518</v>
+        <v>0.9025813524491643</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2937661932436308</v>
+        <v>0.1838138839285758</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08788867037420219</v>
+        <v>0.05421209215700309</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2917533781573065</v>
+        <v>0.05786282818242224</v>
       </c>
       <c r="J248" t="n">
-        <v>0.3698358853106092</v>
+        <v>0.05421209215700309</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2950886112493626</v>
+        <v>0.05786282818242224</v>
       </c>
       <c r="L248" t="n">
-        <v>0.5872267775938447</v>
+        <v>0.6573361001549101</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2949271950206511</v>
+        <v>0.1849028348954201</v>
       </c>
       <c r="N248" t="n">
-        <v>0.8126567338550238</v>
+        <v>0.9001774117272997</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2953802932065079</v>
+        <v>0.1848238503237877</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.09044239162475869</v>
+        <v>0.05082782043870543</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2933476589122645</v>
+        <v>0.05783214644753964</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3645986517935204</v>
+        <v>0.05082782043870543</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2967011173217635</v>
+        <v>0.05783214644753964</v>
       </c>
       <c r="L249" t="n">
-        <v>0.5800660096071242</v>
+        <v>0.6526182243814824</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2965388190371573</v>
+        <v>0.1859132329003131</v>
       </c>
       <c r="N249" t="n">
-        <v>0.7976525646571911</v>
+        <v>0.8966797200572413</v>
       </c>
       <c r="O249" t="n">
-        <v>0.296994393169385</v>
+        <v>0.1858338167189997</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.09299011690349458</v>
+        <v>0.04748129169266924</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2949419396672224</v>
+        <v>0.05780146471265703</v>
       </c>
       <c r="J250" t="n">
-        <v>0.3610386544342803</v>
+        <v>0.04748129169266924</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2983136233941643</v>
+        <v>0.05780146471265703</v>
       </c>
       <c r="L250" t="n">
-        <v>0.5708689990355738</v>
+        <v>0.6502075042378215</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2981504430536637</v>
+        <v>0.1869236309052061</v>
       </c>
       <c r="N250" t="n">
-        <v>0.7848985143114738</v>
+        <v>0.9020882839425129</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2986084931322621</v>
+        <v>0.1868437831142116</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.09453176633679065</v>
+        <v>0.04417323288079755</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2965362204221804</v>
+        <v>0.05777078297777442</v>
       </c>
       <c r="J251" t="n">
-        <v>0.3511555858221209</v>
+        <v>0.04417323288079755</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2999261294665653</v>
+        <v>0.05777078297777442</v>
       </c>
       <c r="L251" t="n">
-        <v>0.5615352567687593</v>
+        <v>0.6507040017136489</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2997620670701699</v>
+        <v>0.1879340289100991</v>
       </c>
       <c r="N251" t="n">
-        <v>0.773993908404791</v>
+        <v>0.9011031098866374</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3002225930951392</v>
+        <v>0.1878537495094235</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08406726005102778</v>
+        <v>0.04090437096498817</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2981305011771384</v>
+        <v>0.05774010124289181</v>
       </c>
       <c r="J252" t="n">
-        <v>0.3503491385462739</v>
+        <v>0.04090437096498817</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3015386355389661</v>
+        <v>0.05774010124289181</v>
       </c>
       <c r="L252" t="n">
-        <v>0.5527642936962469</v>
+        <v>0.6509077787986861</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3013736910866762</v>
+        <v>0.1889444269149921</v>
       </c>
       <c r="N252" t="n">
-        <v>0.7598380725240624</v>
+        <v>0.8936242043931385</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3018366930580162</v>
+        <v>0.1888637159046355</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.09059651817258678</v>
+        <v>0.03767543290714409</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2997247819320963</v>
+        <v>0.05770941950800921</v>
       </c>
       <c r="J253" t="n">
-        <v>0.3439190051959706</v>
+        <v>0.03767543290714409</v>
       </c>
       <c r="K253" t="n">
-        <v>0.303151141611367</v>
+        <v>0.05770941950800921</v>
       </c>
       <c r="L253" t="n">
-        <v>0.5482556207076019</v>
+        <v>0.6554188974826543</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3029853151031825</v>
+        <v>0.1899548249198851</v>
       </c>
       <c r="N253" t="n">
-        <v>0.7517303322562071</v>
+        <v>0.8925515739655391</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3034507930208933</v>
+        <v>0.1898736822998475</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.08411946082784853</v>
+        <v>0.03448714566916439</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3013190626870543</v>
+        <v>0.05767873777312661</v>
       </c>
       <c r="J254" t="n">
-        <v>0.3389648783604424</v>
+        <v>0.03448714566916439</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3047636476837679</v>
+        <v>0.05767873777312661</v>
       </c>
       <c r="L254" t="n">
-        <v>0.5400087486923906</v>
+        <v>0.6526374197552753</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3045969391196888</v>
+        <v>0.1909652229247781</v>
       </c>
       <c r="N254" t="n">
-        <v>0.7370700131881452</v>
+        <v>0.8987852251073621</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3050648929837704</v>
+        <v>0.1908836486950594</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.08763600814319385</v>
+        <v>0.03134023621294837</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3029133434420122</v>
+        <v>0.05764805603824399</v>
       </c>
       <c r="J255" t="n">
-        <v>0.3330864506289211</v>
+        <v>0.03134023621294837</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3063761537561688</v>
+        <v>0.05764805603824399</v>
       </c>
       <c r="L255" t="n">
-        <v>0.5290231885401782</v>
+        <v>0.6529634076062703</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3062085631361951</v>
+        <v>0.1919756209296711</v>
       </c>
       <c r="N255" t="n">
-        <v>0.7227564409067958</v>
+        <v>0.8923251643221318</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3066789929466475</v>
+        <v>0.1918936150902714</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.08714608024500346</v>
+        <v>0.02823543150039884</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3045076241969702</v>
+        <v>0.05761737430336139</v>
       </c>
       <c r="J256" t="n">
-        <v>0.3262834145906378</v>
+        <v>0.02823543150039884</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3079886598285697</v>
+        <v>0.05761737430336139</v>
       </c>
       <c r="L256" t="n">
-        <v>0.5179984511405311</v>
+        <v>0.6508969230253607</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3078201871527014</v>
+        <v>0.1929860189345641</v>
       </c>
       <c r="N256" t="n">
-        <v>0.7134889409990789</v>
+        <v>0.9000713981133707</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3082930929095246</v>
+        <v>0.1929035814854833</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.08664959725965833</v>
+        <v>0.02517345849341501</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3061019049519281</v>
+        <v>0.05758669256847879</v>
       </c>
       <c r="J257" t="n">
-        <v>0.3191554628348244</v>
+        <v>0.02517345849341501</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3096011659009706</v>
+        <v>0.05758669256847879</v>
       </c>
       <c r="L257" t="n">
-        <v>0.5075340473830143</v>
+        <v>0.654038028002268</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3094318111692077</v>
+        <v>0.1939964169394571</v>
       </c>
       <c r="N257" t="n">
-        <v>0.6952668390519133</v>
+        <v>0.8967239329846021</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3099071928724017</v>
+        <v>0.1939135478806953</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.07514647931353922</v>
+        <v>0.02215504415389616</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3076961857068861</v>
+        <v>0.05755601083359617</v>
       </c>
       <c r="J258" t="n">
-        <v>0.3163022879507124</v>
+        <v>0.02215504415389616</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3112136719733715</v>
+        <v>0.05755601083359617</v>
       </c>
       <c r="L258" t="n">
-        <v>0.5015294881571943</v>
+        <v>0.6558867845267138</v>
       </c>
       <c r="M258" t="n">
-        <v>0.311043435185714</v>
+        <v>0.1950068149443501</v>
       </c>
       <c r="N258" t="n">
-        <v>0.6936894606522189</v>
+        <v>0.8942827754393493</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3115212928352788</v>
+        <v>0.1949235142759073</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.08163664653302695</v>
+        <v>0.01918091544374498</v>
       </c>
       <c r="G259" t="n">
-        <v>0.309290466461844</v>
+        <v>0.05752532909871357</v>
       </c>
       <c r="J259" t="n">
-        <v>0.308123582527533</v>
+        <v>0.01918091544374498</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3128261780457723</v>
+        <v>0.05752532909871357</v>
       </c>
       <c r="L259" t="n">
-        <v>0.4924842843526367</v>
+        <v>0.6513432545884192</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3126550592022203</v>
+        <v>0.1960172129492431</v>
       </c>
       <c r="N259" t="n">
-        <v>0.6707561313869154</v>
+        <v>0.896147931981136</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3131353927981559</v>
+        <v>0.1959334806711192</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0771200190445024</v>
+        <v>0.01625179932485968</v>
       </c>
       <c r="G260" t="n">
-        <v>0.310884747216802</v>
+        <v>0.05749464736383095</v>
       </c>
       <c r="J260" t="n">
-        <v>0.3019190391545181</v>
+        <v>0.01625179932485968</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3144386841181732</v>
+        <v>0.05749464736383095</v>
       </c>
       <c r="L260" t="n">
-        <v>0.4809979468589076</v>
+        <v>0.653907500177106</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3142666832187265</v>
+        <v>0.1970276109541361</v>
       </c>
       <c r="N260" t="n">
-        <v>0.660466176842922</v>
+        <v>0.891019409113485</v>
       </c>
       <c r="O260" t="n">
-        <v>0.314749492761033</v>
+        <v>0.1969434470663312</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0775965169743464</v>
+        <v>0.01336842275914288</v>
       </c>
       <c r="G261" t="n">
-        <v>0.31247902797176</v>
+        <v>0.05746396562894835</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2969883504208989</v>
+        <v>0.01336842275914288</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3160511901905741</v>
+        <v>0.05746396562894835</v>
       </c>
       <c r="L261" t="n">
-        <v>0.4748699865655718</v>
+        <v>0.6499795832824953</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3158783072352329</v>
+        <v>0.1980380089590291</v>
       </c>
       <c r="N261" t="n">
-        <v>0.6480189226071588</v>
+        <v>0.8955972133399194</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3163635927239101</v>
+        <v>0.1979534134615431</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.07306606044893978</v>
+        <v>0.0105315127084939</v>
       </c>
       <c r="G262" t="n">
-        <v>0.314073308726718</v>
+        <v>0.05743328389406575</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2902312089159071</v>
+        <v>0.0105315127084939</v>
       </c>
       <c r="K262" t="n">
-        <v>0.317663696262975</v>
+        <v>0.05743328389406575</v>
       </c>
       <c r="L262" t="n">
-        <v>0.4685999143621959</v>
+        <v>0.6551595658943088</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3174899312517391</v>
+        <v>0.1990484069639221</v>
       </c>
       <c r="N262" t="n">
-        <v>0.6415136942665441</v>
+        <v>0.892381351163963</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3179776926867872</v>
+        <v>0.1989633798567551</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.06552856959466331</v>
+        <v>0.007741796134812129</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3156675894816759</v>
+        <v>0.05740260215918314</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2848473072287744</v>
+        <v>0.007741796134812129</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3192762023353759</v>
+        <v>0.05740260215918314</v>
       </c>
       <c r="L263" t="n">
-        <v>0.4591872411383457</v>
+        <v>0.6521475100022678</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3191015552682454</v>
+        <v>0.2000588049688151</v>
       </c>
       <c r="N263" t="n">
-        <v>0.6199498174079986</v>
+        <v>0.894971829089139</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3195917926496643</v>
+        <v>0.199973346251967</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.07198396453789792</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3172618702366339</v>
+        <v>0.05737192042430053</v>
       </c>
       <c r="J264" t="n">
-        <v>0.279636337948732</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3208887084077768</v>
+        <v>0.05737192042430053</v>
       </c>
       <c r="L264" t="n">
-        <v>0.4427314777835866</v>
+        <v>0.6523434775960939</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3207131792847517</v>
+        <v>0.2010692029737082</v>
       </c>
       <c r="N264" t="n">
-        <v>0.6081266176184414</v>
+        <v>0.9009686536189699</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3212058926125413</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.2009833126471789</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05735876252956369</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05735876252956369</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.009344136183368407</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0573590310580277</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.009344136183368407</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.0573590310580277</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.01367174564708623</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05735929958649172</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.01367174564708623</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05735929958649172</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01798271340705457</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05735956811495574</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01798271340705457</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05735956811495574</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.02227692447861226</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05735983664341976</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.02227692447861226</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.05735983664341976</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.02655426387766105</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05736010517188377</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.02655426387766105</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05736010517188377</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.03081461661991503</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05736037370034779</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.03081461661991503</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05736037370034779</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.03505786772127231</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05736064222881181</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.03505786772127231</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05736064222881181</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.03928390219707753</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05736091075727583</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.03928390219707753</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05736091075727583</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.04349260506322966</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05736117928573984</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.04349260506322966</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05736117928573984</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.04768386133544267</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05736144781420385</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.04768386133544267</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.05736144781420385</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.05185755602961167</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05736171634266788</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.05185755602961167</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05736171634266788</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.05601357416108738</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05736198487113189</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.05601357416108738</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05736198487113189</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.06015180074576573</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05736225339959591</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.06015180074576573</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05736225339959591</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.06427212079936065</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05736252192805993</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.06427212079936065</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05736252192805993</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.06837441933776425</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05736279045652395</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.06837441933776425</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05736279045652395</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.07245858137633335</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05736305898498797</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.07245858137633335</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.05736305898498797</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.07652449193096078</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05736332751345198</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.07652449193096078</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05736332751345198</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.08057203601736054</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05736359604191599</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.08057203601736054</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05736359604191599</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.08460109865142149</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05736386457038002</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.08460109865142149</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05736386457038002</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.08861156484850682</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05736413309884403</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.08861156484850682</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05736413309884403</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.09260331962450638</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05736440162730805</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.09260331962450638</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05736440162730805</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.09657624799513384</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05736467015577206</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.09657624799513384</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.05736467015577206</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.1005302349762749</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05736493868423609</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.1005302349762749</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05736493868423609</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.1044651655832996</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0573652072127001</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.1044651655832996</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.0573652072127001</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.1083813943512619</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05736547574116412</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.1083813943512619</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05736547574116412</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.1122816234108849</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05736574426962813</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.1122816234108849</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05736574426962813</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.1161662072972191</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05736601279809216</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.1161662072972191</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05736601279809216</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.1200350310256404</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05736628132655617</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.1200350310256404</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05736628132655617</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.1238879796120322</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05736654985502019</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.1238879796120322</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05736654985502019</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.1277249380721084</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0573668183834842</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.1277249380721084</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.0573668183834842</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.1315457914217487</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05736708691194823</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.1315457914217487</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05736708691194823</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.1353504246763348</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05736735544041224</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.1353504246763348</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05736735544041224</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.1391387228517469</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05736762396887626</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.1391387228517469</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05736762396887626</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.1429105709636992</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05736789249734027</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.1429105709636992</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05736789249734027</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.1466658540280685</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0573681610258043</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.1466658540280685</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.0573681610258043</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.1504044570602421</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05736842955426831</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.1504044570602421</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05736842955426831</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.1541262650760975</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05736869808273232</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.1541262650760975</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05736869808273232</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.1578311630913487</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05736896661119634</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.1578311630913487</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.05736896661119634</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.1615190361218699</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05736923513966036</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.1615190361218699</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05736923513966036</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.1651897691830539</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05736950366812438</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.1651897691830539</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05736950366812438</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.1688432472907755</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0573697721965884</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.1688432472907755</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.0573697721965884</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.1724793554607486</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05737004072505241</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.1724793554607486</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05737004072505241</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.1760979787088444</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05737030925351644</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.1760979787088444</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05737030925351644</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.1796990020504617</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05737057778198045</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.1796990020504617</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05737057778198045</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.1832823105014723</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05737084631044446</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.1832823105014723</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.05737084631044446</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.1868477890775902</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05737111483890848</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.1868477890775902</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05737111483890848</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.1903953227946834</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05737138336737251</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.1903953227946834</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05737138336737251</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.1939247966681569</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05737165189583652</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.1939247966681569</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05737165189583652</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.1974360957138795</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05737192042430053</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.1974360957138795</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05737192042430053</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.1974360957138795</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05735876252956369</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.1974360957138795</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05735876252956369</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.2018768779274868</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05738998132137433</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.2018768779274868</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05738998132137433</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.2062903899945071</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05742120011318497</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.2062903899945071</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05742120011318497</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.2106762731480885</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05745241890499562</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.2106762731480885</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05745241890499562</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.2150341686213773</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05748363769680625</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.2150341686213773</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05748363769680625</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.2193637176475251</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05751485648861689</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.2193637176475251</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05751485648861689</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.223664561459678</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05754607528042753</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.223664561459678</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05754607528042753</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.2279363412909842</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05757729407223817</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.2279363412909842</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05757729407223817</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.2321786983745917</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05760851286404882</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.2321786983745917</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05760851286404882</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.2363912739436486</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05763973165585946</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.2363912739436486</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05763973165585946</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.240573709231303</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0576709504476701</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.240573709231303</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.0576709504476701</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.2447256454707012</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05770216923948074</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.2447256454707012</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05770216923948074</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.2488467238949945</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05773338803129138</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.2488467238949945</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.05773338803129138</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.2529365857373294</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05776460682310202</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.2529365857373294</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05776460682310202</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.2569948722308537</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05779582561491266</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.2569948722308537</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05779582561491266</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.2610212246087158</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05782704440672331</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.2610212246087158</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05782704440672331</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.2650152841040636</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05785826319853395</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.2650152841040636</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05785826319853395</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.268976691950045</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05788948199034459</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.268976691950045</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05788948199034459</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.2729050893798067</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05792070078215522</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.2729050893798067</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05792070078215522</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.2768001176264999</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05795191957396587</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.2768001176264999</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05795191957396587</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.2806614179232708</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05798313836577651</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.2806614179232708</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05798313836577651</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.2844886315032676</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05801435715758715</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.2844886315032676</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05801435715758715</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.2882813995996385</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0580455759493978</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.2882813995996385</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.0580455759493978</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.2920393634455313</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05807679474120844</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.2920393634455313</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05807679474120844</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.2957621642740942</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05810801353301908</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.2957621642740942</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05810801353301908</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.2994509082831193</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05813923232482971</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.2994509082831193</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05813923232482971</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.3031140264936302</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05817045111664036</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.3031140264936302</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05817045111664036</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.3067526251034192</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.058201669908451</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.3067526251034192</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.058201669908451</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.3103663453456342</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05823288870026164</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.3103663453456342</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05823288870026164</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.3139548284534234</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05826410749207228</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.3139548284534234</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05826410749207228</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.3175177156599347</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05829532628388293</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.3175177156599347</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05829532628388293</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.3210546481983163</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05832654507569357</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.3210546481983163</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05832654507569357</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.3245652673017148</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0583577638675042</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.3245652673017148</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.0583577638675042</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.3280492142032808</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05838898265931484</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.3280492142032808</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05838898265931484</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.3315061301361614</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05842020145112549</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.3315061301361614</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05842020145112549</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.3349356563335042</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05845142024293613</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.3349356563335042</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05845142024293613</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.3383374340284575</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05848263903474677</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.3383374340284575</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05848263903474677</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.3417111044541693</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05851385782655742</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.3417111044541693</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.05851385782655742</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.3450563088437877</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05854507661836806</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.3450563088437877</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05854507661836806</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.3483726884304593</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05857629541017869</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.3483726884304593</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05857629541017869</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.3516598844473349</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05860751420198933</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.3516598844473349</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05860751420198933</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.354917538127561</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05863873299379998</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.354917538127561</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05863873299379998</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.358145290704286</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05866995178561062</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.358145290704286</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05866995178561062</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.3613427834106575</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05870117057742126</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.3613427834106575</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05870117057742126</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.3645096574798241</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0587323893692319</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.3645096574798241</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0587323893692319</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.3676455541449334</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05876360816104255</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.3676455541449334</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05876360816104255</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.3707501146391325</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05879482695285318</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.3707501146391325</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05879482695285318</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.3738229801955716</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05882604574466382</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.3738229801955716</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05882604574466382</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.3768637920473978</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05885726453647446</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.3768637920473978</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05885726453647446</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.379872191427759</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05888848332828511</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.379872191427759</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05888848332828511</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.379872191427759</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05888848332828511</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.379872191427759</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05888848332828511</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.3731691618645987</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06206890967694421</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.3731691618645987</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.06206890967694421</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.3672309114635574</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0652493360256033</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.3672309114635574</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0652493360256033</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.3620142897957306</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06842976237426239</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.3620142897957306</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06842976237426239</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.3574761464322135</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07161018872292149</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.3574761464322135</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.07161018872292149</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.3535733309441016</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07479061507158058</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.3535733309441016</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.07479061507158058</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.3502626929024903</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07797104142023968</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.3502626929024903</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07797104142023968</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.3475010818784752</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08115146776889878</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.3475010818784752</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.08115146776889878</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.3452453474431513</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08433189411755788</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.3452453474431513</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.08433189411755788</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.3434523391676143</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08751232046621697</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.3434523391676143</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08751232046621697</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.3420789066229594</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09069274681487606</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.3420789066229594</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.09069274681487606</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.341081899380282</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09387317316353516</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.341081899380282</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.09387317316353516</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.3404181670106775</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09705359951219426</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.3404181670106775</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09705359951219426</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.3400445590852413</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1002340258608534</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.3400445590852413</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.1002340258608534</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.339917925175069</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1034144522095124</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.339917925175069</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.1034144522095124</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.3410305762576211</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1065948785581715</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.3410305762576211</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1065948785581715</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.3443611434433702</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1097753049068306</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.3443611434433702</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1097753049068306</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.3491935589861135</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1129557312554897</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.3491935589861135</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1129557312554897</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.3548015410396886</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1161361576041488</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.3548015410396886</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1161361576041488</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.3604588077579333</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1193165839528079</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.3604588077579333</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1193165839528079</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.3654390772946851</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.122497010301467</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.3654390772946851</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.122497010301467</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.3690160678037816</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1256774366501261</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.3690160678037816</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1256774366501261</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.3704634974390606</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1288578629987852</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.3704634974390606</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1288578629987852</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.3698186751137741</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1320382893474443</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.3698186751137741</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1320382893474443</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.3678178123754114</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1352187156961034</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.3678178123754114</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1352187156961034</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.3645871191107048</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1383991420447625</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.3645871191107048</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1383991420447625</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.3602511248841114</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1415795683934216</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.3602511248841114</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1415795683934216</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.3549343592600883</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1447599947420807</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.3549343592600883</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1447599947420807</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.3487613518030928</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1479404210907398</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.3487613518030928</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1479404210907398</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.3418566320775823</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.3418566320775823</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.3343447296480139</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.154301273788058</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.3343447296480139</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.154301273788058</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.3263501740788448</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1574817001367171</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.3263501740788448</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1574817001367171</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.3179974949345324</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1606621264853762</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.3179974949345324</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1606621264853762</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.3094112217795338</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1638425528340353</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.3094112217795338</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1638425528340353</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.2999576033727783</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1670229791826943</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.2999576033727783</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1670229791826943</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.2836758715982012</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1702034055313535</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.2836758715982012</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1702034055313535</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.2654915377631408</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1733838318800126</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.2654915377631408</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1733838318800126</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.2532060283976285</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1765642582286716</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.2532060283976285</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1765642582286716</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.2516924799536996</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1797446845773308</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.2516924799536996</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1797446845773308</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.2517839461211612</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1829251109259898</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.2517839461211612</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1829251109259898</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.2519677157486473</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.186105537274649</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.2519677157486473</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.186105537274649</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.2522500786354964</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.189285963623308</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.2522500786354964</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.189285963623308</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.2526373245810472</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1924663899719671</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.2526373245810472</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1924663899719671</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.2531357433846378</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1956468163206262</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.2531357433846378</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1956468163206262</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.2537516248456072</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1988272426692853</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.2537516248456072</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1988272426692853</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.2544912587632934</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2020076690179444</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.2544912587632934</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.2020076690179444</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.2558550895116825</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2051880953666035</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.2558550895116825</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.2051880953666035</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.2622974207051747</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2083685217152626</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.2622974207051747</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2083685217152626</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.2713370769130852</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2115489480639217</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.2713370769130852</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2115489480639217</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.2785517634847434</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2147293744125808</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.2785517634847434</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2147293744125808</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.2837232193252024</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2179098007612399</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.2837232193252024</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2179098007612399</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.2883871574811655</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.221090227109899</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.2883871574811655</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.221090227109899</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.2926846130301513</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2242706534585581</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.2926846130301513</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2242706534585581</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.2967566210496781</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2274510798072172</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.2967566210496781</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2274510798072172</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.3007442166172645</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2306315061558763</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.3007442166172645</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2306315061558763</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.3047352460874373</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2338119325045354</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.3047352460874373</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2338119325045354</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.308293883274519</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2369923588531945</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.308293883274519</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2369923588531945</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.3116680025001966</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2401727852018536</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.3116680025001966</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2401727852018536</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.3153359185696272</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2433532115505127</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.3153359185696272</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2433532115505127</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.3197759462879681</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2465336378991718</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.3197759462879681</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2465336378991718</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.3257715482674043</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2497140642478309</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.3257715482674043</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2497140642478309</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.3336784487458089</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2528944905964899</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.3336784487458089</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2528944905964899</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.3432376692732765</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2560749169451491</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.3432376692732765</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2560749169451491</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.3541896348437481</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2592553432938082</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.3541896348437481</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2592553432938082</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.3662747704511652</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2624357696424672</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.3662747704511652</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2624357696424672</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.3792335010894688</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2656161959911263</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.3792335010894688</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2656161959911263</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.3928062517526</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2687966223397855</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.3928062517526</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2687966223397855</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.4067334474345</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2719770486884445</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.4067334474345</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2719770486884445</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.42075551312911</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2751574750371036</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.42075551312911</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2751574750371036</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.4346128738303712</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2783379013857628</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.4346128738303712</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2783379013857628</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.4480459545322244</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2815183277344218</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.4480459545322244</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2815183277344218</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.4607951802286112</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2846987540830809</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.4607951802286112</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2846987540830809</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.4726009759134727</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.28787918043174</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.4726009759134727</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.28787918043174</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.4832037665807499</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2910596067803992</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.4832037665807499</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2910596067803992</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.4923439772243839</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2942400331290582</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.4923439772243839</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2942400331290582</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.4997620328383161</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2974204594777173</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.4997620328383161</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2974204594777173</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.5051983584164874</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3006008858263764</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.5051983584164874</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.3006008858263764</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.5091629219036786</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3037813121750355</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.5091629219036786</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.3037813121750355</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.5086239115437379</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3069617385236946</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.5086239115437379</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3069617385236946</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.4955436895365161</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3101421648723537</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.4955436895365161</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3101421648723537</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.4685641303645295</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3133225912210127</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.4685641303645295</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3133225912210127</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.4324755603775727</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3165030175696719</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.4324755603775727</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3165030175696719</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.3920683059254405</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.319683443918331</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.3920683059254405</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.319683443918331</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.3521326933579279</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3228638702669901</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.3521326933579279</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3228638702669901</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.3174590490248292</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3260442966156492</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.3174590490248292</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3260442966156492</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.2928376992759398</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3292247229643083</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.2928376992759398</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3292247229643083</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.2795773748137987</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3324051493129674</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.2795773748137987</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3324051493129674</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.2678128289605606</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3355855756616264</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.2678128289605606</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3355855756616264</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.2565873052863472</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3387660020102856</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.2565873052863472</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3387660020102856</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.2459707820085427</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3419464283589447</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.2459707820085427</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3419464283589447</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.2360332373445313</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3451268547076037</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.2360332373445313</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3451268547076037</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.2268446495116972</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3483072810562629</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.2268446495116972</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3483072810562629</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.2184749967274244</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.351487707404922</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.2184749967274244</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.351487707404922</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.2109942572090971</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.354668133753581</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.2109942572090971</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.354668133753581</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.2044724091740997</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3578485601022401</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.2044724091740997</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3578485601022401</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1989794308398161</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3610289864508993</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.1989794308398161</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3610289864508993</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.1945853004236305</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3642094127995583</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.1945853004236305</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3642094127995583</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.191359996142927</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3673898391482174</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.191359996142927</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3673898391482174</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1893734962150899</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3705702654968765</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.1893734962150899</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3705702654968765</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1886957788575033</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3737506918455356</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.1886957788575033</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3737506918455356</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
